--- a/00 - Spese..xlsx
+++ b/00 - Spese..xlsx
@@ -8,20 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\datasets\repoprivatafumetti\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBEAA494-C3C8-483F-AA80-7D7EEA6F3832}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDBFA8DC-E7E6-4A65-95AC-D0FAC4FD0A05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1040" yWindow="140" windowWidth="36340" windowHeight="18950" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1260" yWindow="910" windowWidth="36370" windowHeight="18950" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ordini" sheetId="9" r:id="rId1"/>
     <sheet name="Letti" sheetId="10" r:id="rId2"/>
-    <sheet name="Edicola" sheetId="1" r:id="rId3"/>
-    <sheet name="Disney" sheetId="5" r:id="rId4"/>
-    <sheet name="Image" sheetId="4" r:id="rId5"/>
-    <sheet name="Marvel" sheetId="2" r:id="rId6"/>
-    <sheet name="DC Comics" sheetId="8" r:id="rId7"/>
-    <sheet name="Manga" sheetId="7" r:id="rId8"/>
-    <sheet name="Variant" sheetId="6" r:id="rId9"/>
+    <sheet name="Mercatini" sheetId="11" r:id="rId3"/>
+    <sheet name="Edicola" sheetId="1" r:id="rId4"/>
+    <sheet name="Disney" sheetId="5" r:id="rId5"/>
+    <sheet name="Image e Vari" sheetId="4" r:id="rId6"/>
+    <sheet name="Marvel" sheetId="2" r:id="rId7"/>
+    <sheet name="DC Comics" sheetId="8" r:id="rId8"/>
+    <sheet name="Manga" sheetId="7" r:id="rId9"/>
+    <sheet name="Variant" sheetId="6" r:id="rId10"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="154">
   <si>
     <t>Milo Manara Collection</t>
   </si>
@@ -396,16 +397,116 @@
   </si>
   <si>
     <t>X-Men Forever</t>
+  </si>
+  <si>
+    <t>X-Force</t>
+  </si>
+  <si>
+    <t>ebay</t>
+  </si>
+  <si>
+    <t>COLLANA LABOR COMICS DAZZLER NUMERO 1 RARO DEL 1985</t>
+  </si>
+  <si>
+    <t>paolinolecce-3</t>
+  </si>
+  <si>
+    <t>Match n.1 - Labor Comics</t>
+  </si>
+  <si>
+    <t>comicsfirenze</t>
+  </si>
+  <si>
+    <t>Match n.2 - Labor Comics</t>
+  </si>
+  <si>
+    <t>Hirayasumi</t>
+  </si>
+  <si>
+    <t>Smoking Behind The Supermarket With You #2</t>
+  </si>
+  <si>
+    <t>L'Assistente Delle Rose</t>
+  </si>
+  <si>
+    <t>Takahashi Del Negozio Di Biciclette #3</t>
+  </si>
+  <si>
+    <t>Killraven - Labor Comics</t>
+  </si>
+  <si>
+    <t>la_soffitta_di_sofia</t>
+  </si>
+  <si>
+    <t>Dazzler - Labor Comics</t>
+  </si>
+  <si>
+    <t>paolino-lecce-3</t>
+  </si>
+  <si>
+    <t>Hellboy #1: Il Seme Della Distruzione</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Star Comics </t>
+  </si>
+  <si>
+    <t>Aria The Masterpiece #6</t>
+  </si>
+  <si>
+    <t>Astroboy (Tezuka)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Akane Banashi </t>
+  </si>
+  <si>
+    <t>X-Men</t>
+  </si>
+  <si>
+    <t>Image</t>
+  </si>
+  <si>
+    <t>Love everlasting</t>
+  </si>
+  <si>
+    <t>DC Pocket Collection Supergirl: La Donna del Domani</t>
+  </si>
+  <si>
+    <t>Batman #103</t>
+  </si>
+  <si>
+    <t>Ultimate Spider-man #7</t>
+  </si>
+  <si>
+    <t>Marvel Italia</t>
+  </si>
+  <si>
+    <t>Ultimate #2</t>
+  </si>
+  <si>
+    <t>Ultimate Black Panther #6</t>
+  </si>
+  <si>
+    <t>Ultimate X-Men #5</t>
+  </si>
+  <si>
+    <t>Amazing Spider-man #51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Almanacco Topolino </t>
+  </si>
+  <si>
+    <t>Paper mitologia</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
+    <numFmt numFmtId="165" formatCode="#,##0.00\ _€"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -442,8 +543,66 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF191919"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF111820"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF92D050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -453,6 +612,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -469,7 +634,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -497,6 +662,38 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="16" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="16" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="16" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -1763,12 +1960,355 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E65DA60-B872-4276-A9A4-C10BF2E9F5D2}">
+  <dimension ref="A3:E21"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" zoomScale="244" zoomScaleNormal="244" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="13.453125" customWidth="1"/>
+    <col min="3" max="3" width="64.1796875" customWidth="1"/>
+    <col min="4" max="5" width="8.7265625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="4">
+        <v>45550</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="6">
+        <v>5.09</v>
+      </c>
+      <c r="E3" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="4">
+        <v>45541</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="6">
+        <v>6.79</v>
+      </c>
+      <c r="E4" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="4">
+        <v>45550</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="6">
+        <v>4.24</v>
+      </c>
+      <c r="E5" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="4">
+        <v>45550</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="6">
+        <v>4.24</v>
+      </c>
+      <c r="E6" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="4">
+        <v>45550</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="6">
+        <v>4.24</v>
+      </c>
+      <c r="E7" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="4">
+        <v>45541</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="6">
+        <v>7.48</v>
+      </c>
+      <c r="E8" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="4">
+        <v>45550</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="6">
+        <v>4.24</v>
+      </c>
+      <c r="E9" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="4">
+        <v>45550</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="6">
+        <v>4.24</v>
+      </c>
+      <c r="E10" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="4">
+        <v>45541</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="6">
+        <v>4.24</v>
+      </c>
+      <c r="E11" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="4">
+        <v>45541</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="6">
+        <v>5.09</v>
+      </c>
+      <c r="E12" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="4">
+        <v>45541</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="6">
+        <v>4.24</v>
+      </c>
+      <c r="E13" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="4">
+        <v>45541</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="6">
+        <v>4.24</v>
+      </c>
+      <c r="E14" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="4">
+        <v>45541</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="6">
+        <v>4.24</v>
+      </c>
+      <c r="E15" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="4">
+        <v>45550</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" s="6">
+        <v>4.24</v>
+      </c>
+      <c r="E16" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="4">
+        <v>45550</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="6">
+        <v>4.24</v>
+      </c>
+      <c r="E17" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="4">
+        <v>45550</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" s="6">
+        <v>4.24</v>
+      </c>
+      <c r="E18" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="4">
+        <v>45550</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" s="6">
+        <v>4.24</v>
+      </c>
+      <c r="E19" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="4">
+        <v>45550</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" s="6">
+        <v>4.24</v>
+      </c>
+      <c r="E20" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="4">
+        <v>45550</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D21" s="6">
+        <v>8.48</v>
+      </c>
+      <c r="E21" s="6">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29F7F567-3378-4135-B107-67687C5CCB7F}">
-  <dimension ref="A4:F7"/>
+  <dimension ref="A4:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="188" zoomScaleNormal="188" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView zoomScale="188" zoomScaleNormal="188" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1858,12 +2398,192 @@
         <v>5</v>
       </c>
     </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="1">
+        <v>45557</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" t="s">
+        <v>121</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8" s="2">
+        <v>4.24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="1">
+        <v>45558</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" t="s">
+        <v>141</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9" s="2">
+        <v>4.24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
+        <v>45558</v>
+      </c>
+      <c r="B10" t="s">
+        <v>142</v>
+      </c>
+      <c r="C10" t="s">
+        <v>142</v>
+      </c>
+      <c r="D10" t="s">
+        <v>143</v>
+      </c>
+      <c r="E10">
+        <v>14</v>
+      </c>
+      <c r="F10" s="2">
+        <v>3.39</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0849FB36-C303-4AA1-A9C9-EA4FFF8FEB56}">
+  <dimension ref="A3:F7"/>
+  <sheetViews>
+    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="71.1796875" style="17" customWidth="1"/>
+    <col min="4" max="5" width="8.7265625" style="2"/>
+    <col min="6" max="6" width="18.90625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
+        <v>45558</v>
+      </c>
+      <c r="B3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="D3" s="2">
+        <v>14.99</v>
+      </c>
+      <c r="E3" s="2">
+        <v>6</v>
+      </c>
+      <c r="F3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
+        <v>45557</v>
+      </c>
+      <c r="B4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="D4" s="2">
+        <v>4</v>
+      </c>
+      <c r="E4" s="2">
+        <v>7</v>
+      </c>
+      <c r="F4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
+        <v>45557</v>
+      </c>
+      <c r="B5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="D5" s="2">
+        <v>4</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0</v>
+      </c>
+      <c r="F5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
+        <v>45558</v>
+      </c>
+      <c r="B6" t="s">
+        <v>122</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="D6" s="2">
+        <v>9</v>
+      </c>
+      <c r="E6" s="2">
+        <v>2</v>
+      </c>
+      <c r="F6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
+        <v>45558</v>
+      </c>
+      <c r="B7" t="s">
+        <v>122</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="D7" s="2">
+        <v>14.99</v>
+      </c>
+      <c r="E7" s="2">
+        <v>6</v>
+      </c>
+      <c r="F7" t="s">
+        <v>135</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A4:E8"/>
   <sheetViews>
@@ -1966,82 +2686,87 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0EE8F0E-AD95-4E9A-9AFF-CFE841047EAD}">
-  <dimension ref="A4:G4"/>
+  <dimension ref="A4:G6"/>
   <sheetViews>
-    <sheetView zoomScale="252" zoomScaleNormal="252" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+    <sheetView tabSelected="1" zoomScale="252" zoomScaleNormal="252" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="3" max="3" width="23.81640625" customWidth="1"/>
+    <col min="5" max="6" width="8.7265625" style="2"/>
+    <col min="7" max="7" width="19.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="1">
+    <row r="4" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="36">
         <v>45556</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="36">
         <v>45548</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="37">
         <v>105</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="38">
         <v>5.5</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="37" t="s">
         <v>10</v>
       </c>
     </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71EB8A3E-5AD9-4D3B-8024-55CC93268E2E}">
-  <dimension ref="A4:G4"/>
-  <sheetViews>
-    <sheetView zoomScale="196" zoomScaleNormal="196" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="2" max="2" width="14.6328125" customWidth="1"/>
-    <col min="3" max="3" width="25.81640625" customWidth="1"/>
-    <col min="7" max="7" width="15.453125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="1">
-        <v>45556</v>
-      </c>
-      <c r="B4" s="1">
-        <v>45554</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4">
-        <v>9</v>
-      </c>
-      <c r="E4" s="2">
-        <v>6</v>
-      </c>
-      <c r="F4" t="s">
+    <row r="5" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="20">
+        <v>45558</v>
+      </c>
+      <c r="B5" s="20">
+        <v>45562</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="D5" s="21">
+        <v>20</v>
+      </c>
+      <c r="E5" s="22">
+        <v>5.9</v>
+      </c>
+      <c r="F5" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G5" s="21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="20">
+        <v>45558</v>
+      </c>
+      <c r="B6" s="20">
+        <v>45562</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="D6" s="21">
+        <v>4</v>
+      </c>
+      <c r="E6" s="22">
+        <v>5.9</v>
+      </c>
+      <c r="F6" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="G6" s="21" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2051,11 +2776,79 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71EB8A3E-5AD9-4D3B-8024-55CC93268E2E}">
+  <dimension ref="A4:H7"/>
+  <sheetViews>
+    <sheetView zoomScale="196" zoomScaleNormal="196" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="14.6328125" customWidth="1"/>
+    <col min="3" max="3" width="41.453125" style="25" customWidth="1"/>
+    <col min="5" max="5" width="8.7265625" style="26"/>
+    <col min="7" max="7" width="15.453125" customWidth="1"/>
+    <col min="8" max="8" width="8.7265625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
+        <v>45556</v>
+      </c>
+      <c r="B4" s="1">
+        <v>45554</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4">
+        <v>9</v>
+      </c>
+      <c r="E4" s="26">
+        <v>6</v>
+      </c>
+      <c r="F4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="20">
+        <v>45558</v>
+      </c>
+      <c r="B7" s="20">
+        <v>45566</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="D7" s="21">
+        <v>1</v>
+      </c>
+      <c r="E7" s="27">
+        <v>15.9</v>
+      </c>
+      <c r="G7" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="H7" s="22">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42E6368F-0B3B-4DF8-8E74-C3A4A647A232}">
-  <dimension ref="A2:H13"/>
+  <dimension ref="A2:H19"/>
   <sheetViews>
     <sheetView zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2375,36 +3168,224 @@
         <v>1</v>
       </c>
     </row>
+    <row r="15" spans="1:8" s="34" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="33">
+        <v>45558</v>
+      </c>
+      <c r="B15" s="33">
+        <v>45561</v>
+      </c>
+      <c r="C15" s="32" t="s">
+        <v>146</v>
+      </c>
+      <c r="D15" s="34">
+        <v>7</v>
+      </c>
+      <c r="E15" s="35">
+        <v>3</v>
+      </c>
+      <c r="F15" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="G15" s="34" t="s">
+        <v>147</v>
+      </c>
+      <c r="H15" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" s="34" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="33">
+        <v>45558</v>
+      </c>
+      <c r="B16" s="33">
+        <v>45561</v>
+      </c>
+      <c r="C16" s="32" t="s">
+        <v>148</v>
+      </c>
+      <c r="D16" s="34">
+        <v>2</v>
+      </c>
+      <c r="E16" s="35">
+        <v>3</v>
+      </c>
+      <c r="G16" s="34" t="s">
+        <v>147</v>
+      </c>
+      <c r="H16" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" s="34" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="33">
+        <v>45558</v>
+      </c>
+      <c r="B17" s="33">
+        <v>45561</v>
+      </c>
+      <c r="C17" s="32" t="s">
+        <v>149</v>
+      </c>
+      <c r="D17" s="34">
+        <v>6</v>
+      </c>
+      <c r="E17" s="35">
+        <v>3</v>
+      </c>
+      <c r="G17" s="34" t="s">
+        <v>147</v>
+      </c>
+      <c r="H17" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" s="34" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="33">
+        <v>45558</v>
+      </c>
+      <c r="B18" s="33">
+        <v>45561</v>
+      </c>
+      <c r="C18" s="32" t="s">
+        <v>150</v>
+      </c>
+      <c r="D18" s="34">
+        <v>5</v>
+      </c>
+      <c r="E18" s="35">
+        <v>3</v>
+      </c>
+      <c r="G18" s="34" t="s">
+        <v>147</v>
+      </c>
+      <c r="H18" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" s="34" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="33">
+        <v>45558</v>
+      </c>
+      <c r="B19" s="33">
+        <v>45561</v>
+      </c>
+      <c r="C19" s="32" t="s">
+        <v>151</v>
+      </c>
+      <c r="D19" s="34">
+        <v>51</v>
+      </c>
+      <c r="E19" s="35">
+        <v>5</v>
+      </c>
+      <c r="F19" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="G19" s="34" t="s">
+        <v>147</v>
+      </c>
+      <c r="H19" s="35">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BF44779-33F9-4341-9CD4-A7E90DBB807B}">
-  <dimension ref="A1"/>
+  <dimension ref="A9:H11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I36" sqref="I36"/>
+    <sheetView zoomScale="212" zoomScaleNormal="212" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="3" width="53.26953125" customWidth="1"/>
+    <col min="5" max="6" width="8.7265625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="9" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="20">
+        <v>45558</v>
+      </c>
+      <c r="B9" s="20">
+        <v>45561</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="D9" s="21">
+        <v>1</v>
+      </c>
+      <c r="E9" s="22">
+        <v>9.4</v>
+      </c>
+      <c r="F9" s="22">
+        <v>0</v>
+      </c>
+      <c r="H9" s="22"/>
+    </row>
+    <row r="10" spans="1:8" s="30" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="28">
+        <v>45558</v>
+      </c>
+      <c r="B10" s="28">
+        <v>45561</v>
+      </c>
+      <c r="C10" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="D10" s="30">
+        <v>7</v>
+      </c>
+      <c r="E10" s="31">
+        <v>2.85</v>
+      </c>
+      <c r="F10" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="20">
+        <v>45558</v>
+      </c>
+      <c r="B11" s="20">
+        <v>45561</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="D11" s="21">
+        <v>103</v>
+      </c>
+      <c r="E11" s="22">
+        <v>6</v>
+      </c>
+      <c r="F11" s="22">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55E4B5E1-80F0-475A-81EB-C0D4B9528E51}">
-  <dimension ref="A3:H4"/>
+  <dimension ref="A3:H14"/>
   <sheetViews>
     <sheetView zoomScale="184" zoomScaleNormal="184" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="3" max="3" width="42.54296875" customWidth="1"/>
+    <col min="5" max="5" width="8.7265625" style="2"/>
     <col min="7" max="7" width="25.90625" customWidth="1"/>
     <col min="8" max="8" width="8.7265625" style="2"/>
   </cols>
@@ -2461,350 +3442,192 @@
         <v>1.43</v>
       </c>
     </row>
+    <row r="7" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="20">
+        <v>45566</v>
+      </c>
+      <c r="B7" s="20">
+        <v>45566</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="D7" s="21">
+        <v>7</v>
+      </c>
+      <c r="E7" s="22">
+        <v>7.13</v>
+      </c>
+      <c r="G7" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="20">
+        <v>45566</v>
+      </c>
+      <c r="B8" s="20">
+        <v>45566</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="D8" s="21">
+        <v>2</v>
+      </c>
+      <c r="E8" s="22">
+        <v>6.56</v>
+      </c>
+      <c r="G8" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="20">
+        <v>45566</v>
+      </c>
+      <c r="B9" s="20">
+        <v>45566</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="D9" s="21">
+        <v>1</v>
+      </c>
+      <c r="E9" s="22">
+        <v>10.36</v>
+      </c>
+      <c r="G9" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="20">
+        <v>45558</v>
+      </c>
+      <c r="B10" s="20">
+        <v>45474</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="D10" s="21">
+        <v>3</v>
+      </c>
+      <c r="E10" s="22">
+        <v>6.9</v>
+      </c>
+      <c r="G10" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="H10" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="20">
+        <v>45558</v>
+      </c>
+      <c r="B11" s="20">
+        <v>45536</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="D11" s="21">
+        <v>6</v>
+      </c>
+      <c r="E11" s="22">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="G11" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="H11" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="20">
+        <v>45558</v>
+      </c>
+      <c r="B12" s="20">
+        <v>45597</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="D12" s="21">
+        <v>1</v>
+      </c>
+      <c r="E12" s="22">
+        <v>15</v>
+      </c>
+      <c r="G12" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="20">
+        <v>45558</v>
+      </c>
+      <c r="B13" s="20">
+        <v>45597</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="D13" s="21">
+        <v>2</v>
+      </c>
+      <c r="E13" s="22">
+        <v>15</v>
+      </c>
+      <c r="G13" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="H13" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="20">
+        <v>45558</v>
+      </c>
+      <c r="B14" s="20">
+        <v>45597</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="D14" s="21">
+        <v>9</v>
+      </c>
+      <c r="E14" s="22">
+        <v>6.9</v>
+      </c>
+      <c r="G14" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="H14" s="22">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E65DA60-B872-4276-A9A4-C10BF2E9F5D2}">
-  <dimension ref="A3:E21"/>
-  <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="244" zoomScaleNormal="244" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="2" max="2" width="13.453125" customWidth="1"/>
-    <col min="3" max="3" width="64.1796875" customWidth="1"/>
-    <col min="4" max="5" width="8.7265625" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="4">
-        <v>45550</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="6">
-        <v>5.09</v>
-      </c>
-      <c r="E3" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="4">
-        <v>45541</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="6">
-        <v>6.79</v>
-      </c>
-      <c r="E4" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="4">
-        <v>45550</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="6">
-        <v>4.24</v>
-      </c>
-      <c r="E5" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="4">
-        <v>45550</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="6">
-        <v>4.24</v>
-      </c>
-      <c r="E6" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="4">
-        <v>45550</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="6">
-        <v>4.24</v>
-      </c>
-      <c r="E7" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="4">
-        <v>45541</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="6">
-        <v>7.48</v>
-      </c>
-      <c r="E8" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="4">
-        <v>45550</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="6">
-        <v>4.24</v>
-      </c>
-      <c r="E9" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="4">
-        <v>45550</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="6">
-        <v>4.24</v>
-      </c>
-      <c r="E10" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="4">
-        <v>45541</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" s="6">
-        <v>4.24</v>
-      </c>
-      <c r="E11" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="4">
-        <v>45541</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" s="6">
-        <v>5.09</v>
-      </c>
-      <c r="E12" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="4">
-        <v>45541</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D13" s="6">
-        <v>4.24</v>
-      </c>
-      <c r="E13" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="4">
-        <v>45541</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D14" s="6">
-        <v>4.24</v>
-      </c>
-      <c r="E14" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="4">
-        <v>45541</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D15" s="6">
-        <v>4.24</v>
-      </c>
-      <c r="E15" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="4">
-        <v>45550</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D16" s="6">
-        <v>4.24</v>
-      </c>
-      <c r="E16" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="4">
-        <v>45550</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D17" s="6">
-        <v>4.24</v>
-      </c>
-      <c r="E17" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="4">
-        <v>45550</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D18" s="6">
-        <v>4.24</v>
-      </c>
-      <c r="E18" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="4">
-        <v>45550</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D19" s="6">
-        <v>4.24</v>
-      </c>
-      <c r="E19" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="4">
-        <v>45550</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D20" s="6">
-        <v>4.24</v>
-      </c>
-      <c r="E20" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="4">
-        <v>45550</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D21" s="6">
-        <v>8.48</v>
-      </c>
-      <c r="E21" s="6">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/00 - Spese..xlsx
+++ b/00 - Spese..xlsx
@@ -8,21 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\datasets\repoprivatafumetti\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDBFA8DC-E7E6-4A65-95AC-D0FAC4FD0A05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B7176B4-C2D7-401C-90F2-526AD2DB2B50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1260" yWindow="910" windowWidth="36370" windowHeight="18950" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1140" yWindow="1650" windowWidth="36370" windowHeight="18950" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ordini" sheetId="9" r:id="rId1"/>
     <sheet name="Letti" sheetId="10" r:id="rId2"/>
-    <sheet name="Mercatini" sheetId="11" r:id="rId3"/>
-    <sheet name="Edicola" sheetId="1" r:id="rId4"/>
-    <sheet name="Disney" sheetId="5" r:id="rId5"/>
-    <sheet name="Image e Vari" sheetId="4" r:id="rId6"/>
-    <sheet name="Marvel" sheetId="2" r:id="rId7"/>
-    <sheet name="DC Comics" sheetId="8" r:id="rId8"/>
-    <sheet name="Manga" sheetId="7" r:id="rId9"/>
-    <sheet name="Variant" sheetId="6" r:id="rId10"/>
+    <sheet name="PreOrdini" sheetId="12" r:id="rId3"/>
+    <sheet name="Mercatini" sheetId="11" r:id="rId4"/>
+    <sheet name="Edicola" sheetId="1" r:id="rId5"/>
+    <sheet name="Disney" sheetId="5" r:id="rId6"/>
+    <sheet name="Image e Vari" sheetId="4" r:id="rId7"/>
+    <sheet name="Marvel" sheetId="2" r:id="rId8"/>
+    <sheet name="DC Comics" sheetId="8" r:id="rId9"/>
+    <sheet name="Manga" sheetId="7" r:id="rId10"/>
+    <sheet name="Variant" sheetId="6" r:id="rId11"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="183">
   <si>
     <t>Milo Manara Collection</t>
   </si>
@@ -396,9 +397,6 @@
     <t xml:space="preserve">Wonder Woman </t>
   </si>
   <si>
-    <t>X-Men Forever</t>
-  </si>
-  <si>
     <t>X-Force</t>
   </si>
   <si>
@@ -438,12 +436,6 @@
     <t>la_soffitta_di_sofia</t>
   </si>
   <si>
-    <t>Dazzler - Labor Comics</t>
-  </si>
-  <si>
-    <t>paolino-lecce-3</t>
-  </si>
-  <si>
     <t>Hellboy #1: Il Seme Della Distruzione</t>
   </si>
   <si>
@@ -496,6 +488,102 @@
   </si>
   <si>
     <t>Paper mitologia</t>
+  </si>
+  <si>
+    <t>X-Men Forever (2 di 5)</t>
+  </si>
+  <si>
+    <t>X-Men Forever (1 di 5)</t>
+  </si>
+  <si>
+    <t>Amazing Spider-man</t>
+  </si>
+  <si>
+    <t>X-Men Forever (3 di 5)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Boys </t>
+  </si>
+  <si>
+    <t>Venom</t>
+  </si>
+  <si>
+    <t>ShogaKukan</t>
+  </si>
+  <si>
+    <t>Planet Manga</t>
+  </si>
+  <si>
+    <t>Yawara</t>
+  </si>
+  <si>
+    <t>Skip &amp; Loafer #7</t>
+  </si>
+  <si>
+    <t>Fumetteria</t>
+  </si>
+  <si>
+    <t>JPop</t>
+  </si>
+  <si>
+    <t>Tokyo Love Story</t>
+  </si>
+  <si>
+    <t>BAO</t>
+  </si>
+  <si>
+    <t>Integrale De Matteis</t>
+  </si>
+  <si>
+    <t>Integrale Claremont</t>
+  </si>
+  <si>
+    <t>Dragonero Mondo Oscuro</t>
+  </si>
+  <si>
+    <t>Speciale Dylan Dog</t>
+  </si>
+  <si>
+    <t>Dylan Dog</t>
+  </si>
+  <si>
+    <t>Classic Tex</t>
+  </si>
+  <si>
+    <t>Ultimate Spider-man</t>
+  </si>
+  <si>
+    <t>Lucifer #10</t>
+  </si>
+  <si>
+    <t>Joker: Strategia della tensione</t>
+  </si>
+  <si>
+    <t>Takahashi del negozio di biciclette</t>
+  </si>
+  <si>
+    <t>Smoking behind…</t>
+  </si>
+  <si>
+    <t>Ultimates #1</t>
+  </si>
+  <si>
+    <t>Ultimates #2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ultimate Black Panther </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ultimate X-Men </t>
+  </si>
+  <si>
+    <t>La spada selvaggia di Conan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ultimates </t>
+  </si>
+  <si>
+    <t>Ultimate X-Men</t>
   </si>
 </sst>
 </file>
@@ -506,7 +594,7 @@
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
     <numFmt numFmtId="165" formatCode="#,##0.00\ _€"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -546,13 +634,6 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF191919"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -601,6 +682,37 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF191919"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -634,7 +746,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -663,37 +775,41 @@
     <xf numFmtId="16" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="16" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="16" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="16" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -1961,11 +2077,391 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55E4B5E1-80F0-475A-81EB-C0D4B9528E51}">
+  <dimension ref="A3:H19"/>
+  <sheetViews>
+    <sheetView zoomScale="184" zoomScaleNormal="184" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="42.54296875" customWidth="1"/>
+    <col min="5" max="5" width="8.7265625" style="2"/>
+    <col min="6" max="6" width="14.08984375" customWidth="1"/>
+    <col min="7" max="7" width="25.90625" customWidth="1"/>
+    <col min="8" max="8" width="8.7265625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="4">
+        <v>45548</v>
+      </c>
+      <c r="B3" s="4">
+        <v>45548</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="7">
+        <v>12</v>
+      </c>
+      <c r="E3" s="6">
+        <v>6.56</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="4">
+        <v>45548</v>
+      </c>
+      <c r="B4" s="4">
+        <v>45548</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="7">
+        <v>12</v>
+      </c>
+      <c r="E4" s="6">
+        <v>14.25</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="6">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
+        <v>45556</v>
+      </c>
+      <c r="B5" s="1">
+        <v>45556</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="D5">
+        <v>7</v>
+      </c>
+      <c r="E5" s="2">
+        <v>6.5</v>
+      </c>
+      <c r="F5" t="s">
+        <v>161</v>
+      </c>
+      <c r="G5" t="s">
+        <v>162</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
+        <v>45556</v>
+      </c>
+      <c r="B6" s="1">
+        <v>45556</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6" s="2">
+        <v>12.9</v>
+      </c>
+      <c r="F6" t="s">
+        <v>161</v>
+      </c>
+      <c r="G6" t="s">
+        <v>164</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="19">
+        <v>45566</v>
+      </c>
+      <c r="B8" s="19">
+        <v>45566</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="D8" s="20">
+        <v>7</v>
+      </c>
+      <c r="E8" s="21">
+        <v>7.13</v>
+      </c>
+      <c r="G8" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="19">
+        <v>45566</v>
+      </c>
+      <c r="B9" s="19">
+        <v>45566</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="D9" s="20">
+        <v>2</v>
+      </c>
+      <c r="E9" s="21">
+        <v>6.56</v>
+      </c>
+      <c r="G9" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="19">
+        <v>45566</v>
+      </c>
+      <c r="B10" s="19">
+        <v>45566</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="D10" s="20">
+        <v>1</v>
+      </c>
+      <c r="E10" s="21">
+        <v>10.36</v>
+      </c>
+      <c r="G10" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="H10" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="19">
+        <v>45558</v>
+      </c>
+      <c r="B11" s="19">
+        <v>45474</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="D11" s="20">
+        <v>3</v>
+      </c>
+      <c r="E11" s="21">
+        <v>6.9</v>
+      </c>
+      <c r="G11" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="H11" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="19">
+        <v>45558</v>
+      </c>
+      <c r="B12" s="19">
+        <v>45536</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="D12" s="20">
+        <v>6</v>
+      </c>
+      <c r="E12" s="21">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="G12" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="H12" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="19">
+        <v>45558</v>
+      </c>
+      <c r="B13" s="19">
+        <v>45597</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="D13" s="20">
+        <v>1</v>
+      </c>
+      <c r="E13" s="21">
+        <v>15</v>
+      </c>
+      <c r="G13" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="H13" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="19">
+        <v>45558</v>
+      </c>
+      <c r="B14" s="19">
+        <v>45597</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="D14" s="20">
+        <v>2</v>
+      </c>
+      <c r="E14" s="21">
+        <v>15</v>
+      </c>
+      <c r="G14" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="H14" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="19">
+        <v>45558</v>
+      </c>
+      <c r="B15" s="19">
+        <v>45597</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="D15" s="20">
+        <v>9</v>
+      </c>
+      <c r="E15" s="21">
+        <v>6.9</v>
+      </c>
+      <c r="G15" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="34">
+        <v>45563</v>
+      </c>
+      <c r="B17" s="34">
+        <v>45501</v>
+      </c>
+      <c r="C17" s="36" t="s">
+        <v>174</v>
+      </c>
+      <c r="D17" s="36">
+        <v>3</v>
+      </c>
+      <c r="E17" s="37">
+        <v>6.9</v>
+      </c>
+      <c r="G17" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="H17" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="34">
+        <v>45563</v>
+      </c>
+      <c r="B18" s="34">
+        <v>45536</v>
+      </c>
+      <c r="C18" s="36" t="s">
+        <v>174</v>
+      </c>
+      <c r="D18" s="36">
+        <v>4</v>
+      </c>
+      <c r="E18" s="37">
+        <v>6.9</v>
+      </c>
+      <c r="G18" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="34">
+        <v>45563</v>
+      </c>
+      <c r="B19" s="34">
+        <v>45563</v>
+      </c>
+      <c r="C19" s="36" t="s">
+        <v>175</v>
+      </c>
+      <c r="D19" s="36">
+        <v>2</v>
+      </c>
+      <c r="E19" s="37">
+        <v>6.9</v>
+      </c>
+      <c r="G19" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="H19" s="37">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E65DA60-B872-4276-A9A4-C10BF2E9F5D2}">
   <dimension ref="A3:E21"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="244" zoomScaleNormal="244" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView zoomScale="244" zoomScaleNormal="244" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2305,14 +2801,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29F7F567-3378-4135-B107-67687C5CCB7F}">
-  <dimension ref="A4:F10"/>
+  <dimension ref="A4:F22"/>
   <sheetViews>
     <sheetView zoomScale="188" zoomScaleNormal="188" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="2" max="2" width="21.453125" customWidth="1"/>
     <col min="3" max="3" width="13.6328125" customWidth="1"/>
     <col min="4" max="4" width="32.90625" customWidth="1"/>
     <col min="6" max="6" width="8.7265625" style="2"/>
@@ -2389,7 +2886,7 @@
         <v>116</v>
       </c>
       <c r="D7" t="s">
-        <v>120</v>
+        <v>152</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -2409,7 +2906,7 @@
         <v>20</v>
       </c>
       <c r="D8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -2429,7 +2926,7 @@
         <v>20</v>
       </c>
       <c r="D9" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -2443,19 +2940,259 @@
         <v>45558</v>
       </c>
       <c r="B10" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C10" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D10" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E10">
         <v>14</v>
       </c>
       <c r="F10" s="2">
         <v>3.39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" s="1">
+        <v>45559</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" t="s">
+        <v>116</v>
+      </c>
+      <c r="D11" t="s">
+        <v>151</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" s="1">
+        <v>45559</v>
+      </c>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" t="s">
+        <v>116</v>
+      </c>
+      <c r="D12" t="s">
+        <v>153</v>
+      </c>
+      <c r="E12">
+        <v>49</v>
+      </c>
+      <c r="F12" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" s="1">
+        <v>45560</v>
+      </c>
+      <c r="B13" t="s">
+        <v>118</v>
+      </c>
+      <c r="C13" t="s">
+        <v>116</v>
+      </c>
+      <c r="D13" t="s">
+        <v>119</v>
+      </c>
+      <c r="E13">
+        <v>6</v>
+      </c>
+      <c r="F13" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" s="1">
+        <v>45561</v>
+      </c>
+      <c r="B14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" t="s">
+        <v>116</v>
+      </c>
+      <c r="D14" t="s">
+        <v>154</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" s="1">
+        <v>45562</v>
+      </c>
+      <c r="B15" t="s">
+        <v>139</v>
+      </c>
+      <c r="C15" t="s">
+        <v>116</v>
+      </c>
+      <c r="D15" t="s">
+        <v>155</v>
+      </c>
+      <c r="E15">
+        <v>4</v>
+      </c>
+      <c r="F15" s="2">
+        <v>7.99</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" s="1">
+        <v>45562</v>
+      </c>
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
+        <v>116</v>
+      </c>
+      <c r="D16" t="s">
+        <v>153</v>
+      </c>
+      <c r="E16">
+        <v>50</v>
+      </c>
+      <c r="F16" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" s="1">
+        <v>45563</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" t="s">
+        <v>116</v>
+      </c>
+      <c r="D17" t="s">
+        <v>156</v>
+      </c>
+      <c r="E17">
+        <v>29</v>
+      </c>
+      <c r="F17" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" s="1">
+        <v>45563</v>
+      </c>
+      <c r="B18" t="s">
+        <v>157</v>
+      </c>
+      <c r="C18" t="s">
+        <v>158</v>
+      </c>
+      <c r="D18" t="s">
+        <v>159</v>
+      </c>
+      <c r="E18">
+        <v>4</v>
+      </c>
+      <c r="F18" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19" s="1">
+        <v>45564</v>
+      </c>
+      <c r="B19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" t="s">
+        <v>116</v>
+      </c>
+      <c r="D19" t="s">
+        <v>156</v>
+      </c>
+      <c r="E19">
+        <v>30</v>
+      </c>
+      <c r="F19" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20" s="1">
+        <v>45564</v>
+      </c>
+      <c r="B20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" t="s">
+        <v>116</v>
+      </c>
+      <c r="D20" t="s">
+        <v>181</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A21" s="1">
+        <v>45564</v>
+      </c>
+      <c r="B21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" t="s">
+        <v>116</v>
+      </c>
+      <c r="D21" t="s">
+        <v>179</v>
+      </c>
+      <c r="E21">
+        <v>4</v>
+      </c>
+      <c r="F21" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A22" s="1">
+        <v>45564</v>
+      </c>
+      <c r="B22" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" t="s">
+        <v>116</v>
+      </c>
+      <c r="D22" t="s">
+        <v>182</v>
+      </c>
+      <c r="E22">
+        <v>5</v>
+      </c>
+      <c r="F22" s="2">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -2464,11 +3201,25 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{593402F7-A427-4819-A675-BD041E85FEE8}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView zoomScale="172" zoomScaleNormal="172" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0849FB36-C303-4AA1-A9C9-EA4FFF8FEB56}">
-  <dimension ref="A3:F7"/>
+  <dimension ref="A3:F6"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -2483,10 +3234,10 @@
         <v>45558</v>
       </c>
       <c r="B3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C3" s="18" t="s">
         <v>122</v>
-      </c>
-      <c r="C3" s="19" t="s">
-        <v>123</v>
       </c>
       <c r="D3" s="2">
         <v>14.99</v>
@@ -2495,47 +3246,47 @@
         <v>6</v>
       </c>
       <c r="F3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" s="39" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="38">
+        <v>45557</v>
+      </c>
+      <c r="B4" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="C4" s="42" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="1">
+      <c r="D4" s="41">
+        <v>4</v>
+      </c>
+      <c r="E4" s="41">
+        <v>7</v>
+      </c>
+      <c r="F4" s="39" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" s="39" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="38">
         <v>45557</v>
       </c>
-      <c r="B4" t="s">
-        <v>122</v>
-      </c>
-      <c r="C4" s="17" t="s">
+      <c r="B5" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="C5" s="40" t="s">
+        <v>126</v>
+      </c>
+      <c r="D5" s="41">
+        <v>4</v>
+      </c>
+      <c r="E5" s="41">
+        <v>0</v>
+      </c>
+      <c r="F5" s="39" t="s">
         <v>125</v>
-      </c>
-      <c r="D4" s="2">
-        <v>4</v>
-      </c>
-      <c r="E4" s="2">
-        <v>7</v>
-      </c>
-      <c r="F4" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="1">
-        <v>45557</v>
-      </c>
-      <c r="B5" t="s">
-        <v>122</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>127</v>
-      </c>
-      <c r="D5" s="2">
-        <v>4</v>
-      </c>
-      <c r="E5" s="2">
-        <v>0</v>
-      </c>
-      <c r="F5" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
@@ -2543,10 +3294,10 @@
         <v>45558</v>
       </c>
       <c r="B6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D6" s="2">
         <v>9</v>
@@ -2555,27 +3306,7 @@
         <v>2</v>
       </c>
       <c r="F6" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="1">
-        <v>45558</v>
-      </c>
-      <c r="B7" t="s">
-        <v>122</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="D7" s="2">
-        <v>14.99</v>
-      </c>
-      <c r="E7" s="2">
-        <v>6</v>
-      </c>
-      <c r="F7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -2583,12 +3314,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A4:E8"/>
+  <dimension ref="A4:E14"/>
   <sheetViews>
     <sheetView zoomScale="236" zoomScaleNormal="236" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2681,17 +3412,119 @@
         <v>3.9</v>
       </c>
     </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="1">
+        <v>45563</v>
+      </c>
+      <c r="B9" t="s">
+        <v>167</v>
+      </c>
+      <c r="C9">
+        <v>22</v>
+      </c>
+      <c r="D9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="2">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
+        <v>45563</v>
+      </c>
+      <c r="B10" t="s">
+        <v>168</v>
+      </c>
+      <c r="C10">
+        <v>38</v>
+      </c>
+      <c r="D10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="2">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" s="1">
+        <v>45563</v>
+      </c>
+      <c r="B11" t="s">
+        <v>169</v>
+      </c>
+      <c r="C11">
+        <v>457</v>
+      </c>
+      <c r="D11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" s="2">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" s="1">
+        <v>45563</v>
+      </c>
+      <c r="B12" t="s">
+        <v>170</v>
+      </c>
+      <c r="C12">
+        <v>197</v>
+      </c>
+      <c r="D12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" s="2">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" s="1">
+        <v>45563</v>
+      </c>
+      <c r="B13" t="s">
+        <v>167</v>
+      </c>
+      <c r="C13">
+        <v>23</v>
+      </c>
+      <c r="D13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" s="2">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" s="1">
+        <v>45563</v>
+      </c>
+      <c r="B14" t="s">
+        <v>180</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>116</v>
+      </c>
+      <c r="E14" s="2">
+        <v>6.9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0EE8F0E-AD95-4E9A-9AFF-CFE841047EAD}">
-  <dimension ref="A4:G6"/>
+  <dimension ref="A4:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="252" zoomScaleNormal="252" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView zoomScale="252" zoomScaleNormal="252" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2701,81 +3534,85 @@
     <col min="7" max="7" width="19.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="36">
+    <row r="4" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="31">
         <v>45556</v>
       </c>
-      <c r="B4" s="36">
+      <c r="B4" s="31">
         <v>45548</v>
       </c>
-      <c r="C4" s="37" t="s">
+      <c r="C4" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="37">
+      <c r="D4" s="32">
         <v>105</v>
       </c>
-      <c r="E4" s="38">
+      <c r="E4" s="33">
         <v>5.5</v>
       </c>
-      <c r="F4" s="38" t="s">
+      <c r="F4" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="37" t="s">
+      <c r="G4" s="32" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="20">
+    <row r="5" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="34">
+        <v>45563</v>
+      </c>
+      <c r="B5" s="34">
+        <v>45562</v>
+      </c>
+      <c r="C5" s="36" t="s">
+        <v>149</v>
+      </c>
+      <c r="D5" s="36">
+        <v>20</v>
+      </c>
+      <c r="E5" s="37">
+        <v>5.9</v>
+      </c>
+      <c r="F5" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" s="36" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="19">
         <v>45558</v>
       </c>
-      <c r="B5" s="20">
+      <c r="B6" s="19">
         <v>45562</v>
       </c>
-      <c r="C5" s="21" t="s">
-        <v>152</v>
-      </c>
-      <c r="D5" s="21">
-        <v>20</v>
-      </c>
-      <c r="E5" s="22">
+      <c r="C6" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="D6" s="20">
+        <v>4</v>
+      </c>
+      <c r="E6" s="21">
         <v>5.9</v>
       </c>
-      <c r="F5" s="22" t="s">
+      <c r="F6" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="21" t="s">
+      <c r="G6" s="20" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="20">
-        <v>45558</v>
-      </c>
-      <c r="B6" s="20">
-        <v>45562</v>
-      </c>
-      <c r="C6" s="21" t="s">
-        <v>153</v>
-      </c>
-      <c r="D6" s="21">
-        <v>4</v>
-      </c>
-      <c r="E6" s="22">
-        <v>5.9</v>
-      </c>
-      <c r="F6" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="G6" s="21" t="s">
-        <v>10</v>
-      </c>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71EB8A3E-5AD9-4D3B-8024-55CC93268E2E}">
   <dimension ref="A4:H7"/>
   <sheetViews>
@@ -2786,8 +3623,8 @@
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="14.6328125" customWidth="1"/>
-    <col min="3" max="3" width="41.453125" style="25" customWidth="1"/>
-    <col min="5" max="5" width="8.7265625" style="26"/>
+    <col min="3" max="3" width="41.453125" style="24" customWidth="1"/>
+    <col min="5" max="5" width="8.7265625" style="25"/>
     <col min="7" max="7" width="15.453125" customWidth="1"/>
     <col min="8" max="8" width="8.7265625" style="2"/>
   </cols>
@@ -2799,13 +3636,13 @@
       <c r="B4" s="1">
         <v>45554</v>
       </c>
-      <c r="C4" s="25" t="s">
+      <c r="C4" s="24" t="s">
         <v>9</v>
       </c>
       <c r="D4">
         <v>9</v>
       </c>
-      <c r="E4" s="26">
+      <c r="E4" s="25">
         <v>6</v>
       </c>
       <c r="F4" t="s">
@@ -2815,26 +3652,26 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="20">
+    <row r="7" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="19">
         <v>45558</v>
       </c>
-      <c r="B7" s="20">
+      <c r="B7" s="19">
         <v>45566</v>
       </c>
-      <c r="C7" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="D7" s="21">
-        <v>1</v>
-      </c>
-      <c r="E7" s="27">
+      <c r="C7" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="D7" s="20">
+        <v>1</v>
+      </c>
+      <c r="E7" s="26">
         <v>15.9</v>
       </c>
-      <c r="G7" s="21" t="s">
-        <v>137</v>
-      </c>
-      <c r="H7" s="22">
+      <c r="G7" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="H7" s="21">
         <v>0</v>
       </c>
     </row>
@@ -2843,12 +3680,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42E6368F-0B3B-4DF8-8E74-C3A4A647A232}">
-  <dimension ref="A2:H19"/>
+  <dimension ref="A2:H34"/>
   <sheetViews>
-    <sheetView zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView topLeftCell="A15" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2856,6 +3693,7 @@
     <col min="1" max="2" width="8.1796875" customWidth="1"/>
     <col min="3" max="3" width="52.453125" customWidth="1"/>
     <col min="5" max="5" width="8.7265625" style="2"/>
+    <col min="6" max="6" width="12.90625" customWidth="1"/>
     <col min="7" max="7" width="24.08984375" customWidth="1"/>
     <col min="8" max="8" width="8.7265625" style="2"/>
   </cols>
@@ -3168,138 +4006,503 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:8" s="34" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="33">
+    <row r="15" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="19">
         <v>45558</v>
       </c>
-      <c r="B15" s="33">
+      <c r="B15" s="19">
         <v>45561</v>
       </c>
-      <c r="C15" s="32" t="s">
+      <c r="C15" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="D15" s="20">
+        <v>7</v>
+      </c>
+      <c r="E15" s="21">
+        <v>3</v>
+      </c>
+      <c r="F15" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="G15" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="H15" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="19">
+        <v>45558</v>
+      </c>
+      <c r="B16" s="19">
+        <v>45561</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="D16" s="20">
+        <v>2</v>
+      </c>
+      <c r="E16" s="21">
+        <v>3</v>
+      </c>
+      <c r="G16" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="H16" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="19">
+        <v>45558</v>
+      </c>
+      <c r="B17" s="19">
+        <v>45561</v>
+      </c>
+      <c r="C17" s="22" t="s">
         <v>146</v>
       </c>
-      <c r="D15" s="34">
+      <c r="D17" s="20">
+        <v>6</v>
+      </c>
+      <c r="E17" s="21">
+        <v>3</v>
+      </c>
+      <c r="G17" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="H17" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="19">
+        <v>45558</v>
+      </c>
+      <c r="B18" s="19">
+        <v>45561</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="D18" s="20">
+        <v>5</v>
+      </c>
+      <c r="E18" s="21">
+        <v>3</v>
+      </c>
+      <c r="G18" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="H18" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="19">
+        <v>45558</v>
+      </c>
+      <c r="B19" s="19">
+        <v>45561</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="D19" s="20">
+        <v>51</v>
+      </c>
+      <c r="E19" s="21">
+        <v>5</v>
+      </c>
+      <c r="F19" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="G19" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="H19" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="34">
+        <v>45563</v>
+      </c>
+      <c r="B21" s="34">
+        <v>45563</v>
+      </c>
+      <c r="C21" s="35" t="s">
+        <v>165</v>
+      </c>
+      <c r="D21" s="36">
+        <v>43</v>
+      </c>
+      <c r="E21" s="37">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="F21" s="36" t="s">
+        <v>161</v>
+      </c>
+      <c r="G21" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="H21" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="34">
+        <v>45563</v>
+      </c>
+      <c r="B22" s="34">
+        <v>45532</v>
+      </c>
+      <c r="C22" s="35" t="s">
+        <v>166</v>
+      </c>
+      <c r="D22" s="36">
+        <v>68</v>
+      </c>
+      <c r="E22" s="37">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="F22" s="36" t="s">
+        <v>161</v>
+      </c>
+      <c r="G22" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="H22" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="34">
+        <v>45563</v>
+      </c>
+      <c r="B23" s="34">
+        <v>45563</v>
+      </c>
+      <c r="C23" s="36" t="s">
+        <v>171</v>
+      </c>
+      <c r="D23" s="36">
         <v>7</v>
       </c>
-      <c r="E15" s="35">
+      <c r="E23" s="37">
         <v>3</v>
       </c>
-      <c r="F15" s="34" t="s">
+      <c r="F23" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="G15" s="34" t="s">
-        <v>147</v>
-      </c>
-      <c r="H15" s="35">
+      <c r="G23" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="H23" s="37">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8" s="34" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="33">
-        <v>45558</v>
-      </c>
-      <c r="B16" s="33">
+    <row r="24" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="34">
+        <v>45563</v>
+      </c>
+      <c r="B24" s="34">
+        <v>45563</v>
+      </c>
+      <c r="C24" s="36" t="s">
+        <v>153</v>
+      </c>
+      <c r="D24" s="36">
+        <v>51</v>
+      </c>
+      <c r="E24" s="37">
+        <v>5</v>
+      </c>
+      <c r="F24" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="G24" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="H24" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="12">
+        <v>45563</v>
+      </c>
+      <c r="B25" s="12">
         <v>45561</v>
       </c>
-      <c r="C16" s="32" t="s">
-        <v>148</v>
-      </c>
-      <c r="D16" s="34">
+      <c r="C25" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" s="13">
+        <v>392</v>
+      </c>
+      <c r="E25" s="14">
+        <v>8.99</v>
+      </c>
+      <c r="F25" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E16" s="35">
+      <c r="G25" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="H25" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="34">
+        <v>45563</v>
+      </c>
+      <c r="B26" s="34">
+        <v>45563</v>
+      </c>
+      <c r="C26" s="35" t="s">
+        <v>165</v>
+      </c>
+      <c r="D26" s="36">
+        <v>44</v>
+      </c>
+      <c r="E26" s="37">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="F26" s="36" t="s">
+        <v>161</v>
+      </c>
+      <c r="G26" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="H26" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="34">
+        <v>45563</v>
+      </c>
+      <c r="B27" s="34">
+        <v>45561</v>
+      </c>
+      <c r="C27" s="35" t="s">
+        <v>138</v>
+      </c>
+      <c r="D27" s="36">
+        <v>36</v>
+      </c>
+      <c r="E27" s="37">
+        <v>5</v>
+      </c>
+      <c r="F27" s="36" t="s">
+        <v>161</v>
+      </c>
+      <c r="G27" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="H27" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="34">
+        <v>45563</v>
+      </c>
+      <c r="B28" s="34">
+        <v>45563</v>
+      </c>
+      <c r="C28" s="35" t="s">
+        <v>166</v>
+      </c>
+      <c r="D28" s="36">
+        <v>69</v>
+      </c>
+      <c r="E28" s="37">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="F28" s="36" t="s">
+        <v>161</v>
+      </c>
+      <c r="G28" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="H28" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="34">
+        <v>45563</v>
+      </c>
+      <c r="B29" s="34">
+        <v>45501</v>
+      </c>
+      <c r="C29" s="35" t="s">
+        <v>176</v>
+      </c>
+      <c r="D29" s="36">
+        <v>1</v>
+      </c>
+      <c r="E29" s="37">
+        <v>5</v>
+      </c>
+      <c r="F29" s="36" t="s">
+        <v>161</v>
+      </c>
+      <c r="G29" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="H29" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="34">
+        <v>45563</v>
+      </c>
+      <c r="B30" s="34">
+        <v>45536</v>
+      </c>
+      <c r="C30" s="35" t="s">
+        <v>177</v>
+      </c>
+      <c r="D30" s="36">
+        <v>2</v>
+      </c>
+      <c r="E30" s="37">
         <v>3</v>
       </c>
-      <c r="G16" s="34" t="s">
-        <v>147</v>
-      </c>
-      <c r="H16" s="35">
+      <c r="F30" s="36" t="s">
+        <v>161</v>
+      </c>
+      <c r="G30" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="H30" s="37">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8" s="34" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="33">
-        <v>45558</v>
-      </c>
-      <c r="B17" s="33">
-        <v>45561</v>
-      </c>
-      <c r="C17" s="32" t="s">
-        <v>149</v>
-      </c>
-      <c r="D17" s="34">
-        <v>6</v>
-      </c>
-      <c r="E17" s="35">
+    <row r="31" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="34">
+        <v>45563</v>
+      </c>
+      <c r="B31" s="34">
+        <v>45474</v>
+      </c>
+      <c r="C31" s="35" t="s">
+        <v>178</v>
+      </c>
+      <c r="D31" s="36">
         <v>3</v>
       </c>
-      <c r="G17" s="34" t="s">
-        <v>147</v>
-      </c>
-      <c r="H17" s="35">
+      <c r="E31" s="37">
+        <v>3</v>
+      </c>
+      <c r="F31" s="36" t="s">
+        <v>161</v>
+      </c>
+      <c r="G31" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="H31" s="37">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" s="34" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="33">
-        <v>45558</v>
-      </c>
-      <c r="B18" s="33">
-        <v>45561</v>
-      </c>
-      <c r="C18" s="32" t="s">
-        <v>150</v>
-      </c>
-      <c r="D18" s="34">
+    <row r="32" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="34">
+        <v>45563</v>
+      </c>
+      <c r="B32" s="34">
+        <v>45505</v>
+      </c>
+      <c r="C32" s="35" t="s">
+        <v>178</v>
+      </c>
+      <c r="D32" s="36">
+        <v>4</v>
+      </c>
+      <c r="E32" s="37">
+        <v>3</v>
+      </c>
+      <c r="F32" s="36" t="s">
+        <v>161</v>
+      </c>
+      <c r="G32" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="H32" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="34">
+        <v>45563</v>
+      </c>
+      <c r="B33" s="34">
+        <v>45536</v>
+      </c>
+      <c r="C33" s="35" t="s">
+        <v>179</v>
+      </c>
+      <c r="D33" s="36">
+        <v>4</v>
+      </c>
+      <c r="E33" s="37">
+        <v>3</v>
+      </c>
+      <c r="F33" s="36" t="s">
+        <v>161</v>
+      </c>
+      <c r="G33" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="H33" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="34">
+        <v>45563</v>
+      </c>
+      <c r="B34" s="34">
+        <v>45563</v>
+      </c>
+      <c r="C34" s="35" t="s">
+        <v>179</v>
+      </c>
+      <c r="D34" s="36">
         <v>5</v>
       </c>
-      <c r="E18" s="35">
+      <c r="E34" s="37">
         <v>3</v>
       </c>
-      <c r="G18" s="34" t="s">
-        <v>147</v>
-      </c>
-      <c r="H18" s="35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" s="34" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="33">
-        <v>45558</v>
-      </c>
-      <c r="B19" s="33">
-        <v>45561</v>
-      </c>
-      <c r="C19" s="32" t="s">
-        <v>151</v>
-      </c>
-      <c r="D19" s="34">
-        <v>51</v>
-      </c>
-      <c r="E19" s="35">
-        <v>5</v>
-      </c>
-      <c r="F19" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="G19" s="34" t="s">
-        <v>147</v>
-      </c>
-      <c r="H19" s="35">
+      <c r="F34" s="36" t="s">
+        <v>161</v>
+      </c>
+      <c r="G34" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="H34" s="37">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BF44779-33F9-4341-9CD4-A7E90DBB807B}">
-  <dimension ref="A9:H11"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView zoomScale="212" zoomScaleNormal="212" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3308,326 +4511,105 @@
     <col min="5" max="6" width="8.7265625" style="2"/>
   </cols>
   <sheetData>
-    <row r="9" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="20">
+    <row r="1" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="34">
         <v>45558</v>
       </c>
-      <c r="B9" s="20">
+      <c r="B1" s="34">
         <v>45561</v>
       </c>
-      <c r="C9" s="20" t="s">
-        <v>144</v>
-      </c>
-      <c r="D9" s="21">
-        <v>1</v>
-      </c>
-      <c r="E9" s="22">
+      <c r="C1" s="34" t="s">
+        <v>141</v>
+      </c>
+      <c r="D1" s="36">
+        <v>1</v>
+      </c>
+      <c r="E1" s="37">
         <v>9.4</v>
       </c>
-      <c r="F9" s="22">
+      <c r="F1" s="37">
         <v>0</v>
       </c>
-      <c r="H9" s="22"/>
-    </row>
-    <row r="10" spans="1:8" s="30" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="28">
+      <c r="H1" s="37"/>
+    </row>
+    <row r="2" spans="1:8" s="29" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="27">
         <v>45558</v>
       </c>
-      <c r="B10" s="28">
+      <c r="B2" s="27">
         <v>45561</v>
       </c>
-      <c r="C10" s="29" t="s">
+      <c r="C2" s="28" t="s">
         <v>110</v>
       </c>
-      <c r="D10" s="30">
+      <c r="D2" s="29">
         <v>7</v>
       </c>
-      <c r="E10" s="31">
+      <c r="E2" s="30">
         <v>2.85</v>
       </c>
-      <c r="F10" s="31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="20">
-        <v>45558</v>
-      </c>
-      <c r="B11" s="20">
+      <c r="F2" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="34">
+        <v>45563</v>
+      </c>
+      <c r="B3" s="34">
         <v>45561</v>
       </c>
-      <c r="C11" s="21" t="s">
-        <v>145</v>
-      </c>
-      <c r="D11" s="21">
+      <c r="C3" s="36" t="s">
+        <v>142</v>
+      </c>
+      <c r="D3" s="36">
         <v>103</v>
       </c>
-      <c r="E11" s="22">
+      <c r="E3" s="37">
         <v>6</v>
       </c>
-      <c r="F11" s="22">
+      <c r="F3" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="34">
+        <v>45563</v>
+      </c>
+      <c r="B4" s="34">
+        <v>45505</v>
+      </c>
+      <c r="C4" s="36" t="s">
+        <v>172</v>
+      </c>
+      <c r="D4" s="36">
+        <v>10</v>
+      </c>
+      <c r="E4" s="37">
+        <v>19</v>
+      </c>
+      <c r="F4" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="34">
+        <v>45563</v>
+      </c>
+      <c r="B5" s="34">
+        <v>45556</v>
+      </c>
+      <c r="C5" s="36" t="s">
+        <v>173</v>
+      </c>
+      <c r="E5" s="37">
+        <v>20</v>
+      </c>
+      <c r="F5" s="37">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55E4B5E1-80F0-475A-81EB-C0D4B9528E51}">
-  <dimension ref="A3:H14"/>
-  <sheetViews>
-    <sheetView zoomScale="184" zoomScaleNormal="184" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="3" max="3" width="42.54296875" customWidth="1"/>
-    <col min="5" max="5" width="8.7265625" style="2"/>
-    <col min="7" max="7" width="25.90625" customWidth="1"/>
-    <col min="8" max="8" width="8.7265625" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="4">
-        <v>45548</v>
-      </c>
-      <c r="B3" s="4">
-        <v>45548</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" s="7">
-        <v>12</v>
-      </c>
-      <c r="E3" s="6">
-        <v>6.56</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H3" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="4">
-        <v>45548</v>
-      </c>
-      <c r="B4" s="4">
-        <v>45548</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D4" s="7">
-        <v>12</v>
-      </c>
-      <c r="E4" s="6">
-        <v>14.25</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" s="6">
-        <v>1.43</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="20">
-        <v>45566</v>
-      </c>
-      <c r="B7" s="20">
-        <v>45566</v>
-      </c>
-      <c r="C7" s="21" t="s">
-        <v>128</v>
-      </c>
-      <c r="D7" s="21">
-        <v>7</v>
-      </c>
-      <c r="E7" s="22">
-        <v>7.13</v>
-      </c>
-      <c r="G7" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="H7" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="20">
-        <v>45566</v>
-      </c>
-      <c r="B8" s="20">
-        <v>45566</v>
-      </c>
-      <c r="C8" s="23" t="s">
-        <v>129</v>
-      </c>
-      <c r="D8" s="21">
-        <v>2</v>
-      </c>
-      <c r="E8" s="22">
-        <v>6.56</v>
-      </c>
-      <c r="G8" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="H8" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="20">
-        <v>45566</v>
-      </c>
-      <c r="B9" s="20">
-        <v>45566</v>
-      </c>
-      <c r="C9" s="23" t="s">
-        <v>130</v>
-      </c>
-      <c r="D9" s="21">
-        <v>1</v>
-      </c>
-      <c r="E9" s="22">
-        <v>10.36</v>
-      </c>
-      <c r="G9" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="20">
-        <v>45558</v>
-      </c>
-      <c r="B10" s="20">
-        <v>45474</v>
-      </c>
-      <c r="C10" s="24" t="s">
-        <v>131</v>
-      </c>
-      <c r="D10" s="21">
-        <v>3</v>
-      </c>
-      <c r="E10" s="22">
-        <v>6.9</v>
-      </c>
-      <c r="G10" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="H10" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="20">
-        <v>45558</v>
-      </c>
-      <c r="B11" s="20">
-        <v>45536</v>
-      </c>
-      <c r="C11" s="21" t="s">
-        <v>138</v>
-      </c>
-      <c r="D11" s="21">
-        <v>6</v>
-      </c>
-      <c r="E11" s="22">
-        <v>18.899999999999999</v>
-      </c>
-      <c r="G11" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="H11" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="20">
-        <v>45558</v>
-      </c>
-      <c r="B12" s="20">
-        <v>45597</v>
-      </c>
-      <c r="C12" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="D12" s="21">
-        <v>1</v>
-      </c>
-      <c r="E12" s="22">
-        <v>15</v>
-      </c>
-      <c r="G12" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="20">
-        <v>45558</v>
-      </c>
-      <c r="B13" s="20">
-        <v>45597</v>
-      </c>
-      <c r="C13" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="D13" s="21">
-        <v>2</v>
-      </c>
-      <c r="E13" s="22">
-        <v>15</v>
-      </c>
-      <c r="G13" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="H13" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="20">
-        <v>45558</v>
-      </c>
-      <c r="B14" s="20">
-        <v>45597</v>
-      </c>
-      <c r="C14" s="21" t="s">
-        <v>140</v>
-      </c>
-      <c r="D14" s="21">
-        <v>9</v>
-      </c>
-      <c r="E14" s="22">
-        <v>6.9</v>
-      </c>
-      <c r="G14" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="H14" s="22">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/00 - Spese..xlsx
+++ b/00 - Spese..xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\datasets\repoprivatafumetti\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49AD0BF8-EC22-4AB5-BC8D-8E112E03F5CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78000DF0-EAD6-4C9D-B45B-FEF01FAF1CBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5540" yWindow="1280" windowWidth="36370" windowHeight="18960" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="450" yWindow="2030" windowWidth="36370" windowHeight="18960" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ordini" sheetId="9" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="265">
   <si>
     <t>Milo Manara Collection</t>
   </si>
@@ -4699,10 +4699,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29F7F567-3378-4135-B107-67687C5CCB7F}">
-  <dimension ref="A4:F33"/>
+  <dimension ref="A4:F34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScale="188" zoomScaleNormal="188" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5311,6 +5311,26 @@
       </c>
       <c r="F33" s="2">
         <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A34" s="1">
+        <v>45571</v>
+      </c>
+      <c r="B34" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34" t="s">
+        <v>260</v>
+      </c>
+      <c r="E34">
+        <v>762</v>
+      </c>
+      <c r="F34" s="2">
+        <v>4.9000000000000004</v>
       </c>
     </row>
   </sheetData>

--- a/00 - Spese..xlsx
+++ b/00 - Spese..xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\datasets\repoprivatafumetti\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78000DF0-EAD6-4C9D-B45B-FEF01FAF1CBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F33CE19F-E5E2-4822-BDB6-C2EECA9C548D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="450" yWindow="2030" windowWidth="36370" windowHeight="18960" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2410" yWindow="1250" windowWidth="36370" windowHeight="18960" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ordini" sheetId="9" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="267">
   <si>
     <t>Milo Manara Collection</t>
   </si>
@@ -830,6 +830,12 @@
   </si>
   <si>
     <t>Justice League</t>
+  </si>
+  <si>
+    <t>Quando muori vieni a me</t>
+  </si>
+  <si>
+    <t>Joker: Strategia della Tensione</t>
   </si>
 </sst>
 </file>
@@ -4699,10 +4705,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29F7F567-3378-4135-B107-67687C5CCB7F}">
-  <dimension ref="A4:F34"/>
+  <dimension ref="A4:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="188" zoomScaleNormal="188" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="188" zoomScaleNormal="188" workbookViewId="0">
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5331,6 +5337,46 @@
       </c>
       <c r="F34" s="2">
         <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A35" s="1">
+        <v>45571</v>
+      </c>
+      <c r="B35" t="s">
+        <v>163</v>
+      </c>
+      <c r="C35" t="s">
+        <v>163</v>
+      </c>
+      <c r="D35" t="s">
+        <v>265</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35" s="2">
+        <v>22.8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A36" s="1">
+        <v>45571</v>
+      </c>
+      <c r="B36" t="s">
+        <v>117</v>
+      </c>
+      <c r="C36" t="s">
+        <v>115</v>
+      </c>
+      <c r="D36" t="s">
+        <v>266</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36" s="2">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/00 - Spese..xlsx
+++ b/00 - Spese..xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\datasets\repoprivatafumetti\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F33CE19F-E5E2-4822-BDB6-C2EECA9C548D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A70CCF30-4E59-4F8A-AE2D-EF94F96E0DFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2410" yWindow="1250" windowWidth="36370" windowHeight="18960" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2030" yWindow="1250" windowWidth="36370" windowHeight="18960" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ordini" sheetId="9" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="270">
   <si>
     <t>Milo Manara Collection</t>
   </si>
@@ -836,6 +836,15 @@
   </si>
   <si>
     <t>Joker: Strategia della Tensione</t>
+  </si>
+  <si>
+    <t>Jinushi</t>
+  </si>
+  <si>
+    <t>Smoking Behind the Supermarket</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Superman </t>
   </si>
 </sst>
 </file>
@@ -4705,10 +4714,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29F7F567-3378-4135-B107-67687C5CCB7F}">
-  <dimension ref="A4:F36"/>
+  <dimension ref="A4:F38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A15" zoomScale="188" zoomScaleNormal="188" workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5377,6 +5386,46 @@
       </c>
       <c r="F36" s="2">
         <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A37" s="1">
+        <v>45572</v>
+      </c>
+      <c r="B37" t="s">
+        <v>267</v>
+      </c>
+      <c r="C37" t="s">
+        <v>30</v>
+      </c>
+      <c r="D37" t="s">
+        <v>268</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37" s="2">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A38" s="1">
+        <v>45572</v>
+      </c>
+      <c r="B38" t="s">
+        <v>117</v>
+      </c>
+      <c r="C38" t="s">
+        <v>263</v>
+      </c>
+      <c r="D38" t="s">
+        <v>269</v>
+      </c>
+      <c r="E38">
+        <v>9</v>
+      </c>
+      <c r="F38" s="2">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/00 - Spese..xlsx
+++ b/00 - Spese..xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\datasets\repoprivatafumetti\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A70CCF30-4E59-4F8A-AE2D-EF94F96E0DFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37C664DE-0F38-42E6-9AC2-F2612B8CB7F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2030" yWindow="1250" windowWidth="36370" windowHeight="18960" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7400" yWindow="1460" windowWidth="36370" windowHeight="18960" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ordini" sheetId="9" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="275">
   <si>
     <t>Milo Manara Collection</t>
   </si>
@@ -845,6 +845,21 @@
   </si>
   <si>
     <t xml:space="preserve">Superman </t>
+  </si>
+  <si>
+    <t>Rare Flavours</t>
+  </si>
+  <si>
+    <t>Shueisha</t>
+  </si>
+  <si>
+    <t>Akane Banashi</t>
+  </si>
+  <si>
+    <t>Kodansha</t>
+  </si>
+  <si>
+    <t>Billy Bat</t>
   </si>
 </sst>
 </file>
@@ -4714,10 +4729,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29F7F567-3378-4135-B107-67687C5CCB7F}">
-  <dimension ref="A4:F38"/>
+  <dimension ref="A4:F46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="188" zoomScaleNormal="188" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="188" zoomScaleNormal="188" workbookViewId="0">
+      <selection activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5426,6 +5441,166 @@
       </c>
       <c r="F38" s="2">
         <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A39" s="1">
+        <v>45572</v>
+      </c>
+      <c r="B39" t="s">
+        <v>138</v>
+      </c>
+      <c r="C39" t="s">
+        <v>138</v>
+      </c>
+      <c r="D39" t="s">
+        <v>270</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39" s="2">
+        <v>3.39</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A40" s="1">
+        <v>45572</v>
+      </c>
+      <c r="B40" t="s">
+        <v>138</v>
+      </c>
+      <c r="C40" t="s">
+        <v>138</v>
+      </c>
+      <c r="D40" t="s">
+        <v>270</v>
+      </c>
+      <c r="E40">
+        <v>2</v>
+      </c>
+      <c r="F40" s="2">
+        <v>3.39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A41" s="1">
+        <v>45572</v>
+      </c>
+      <c r="B41" t="s">
+        <v>138</v>
+      </c>
+      <c r="C41" t="s">
+        <v>92</v>
+      </c>
+      <c r="D41" t="s">
+        <v>253</v>
+      </c>
+      <c r="E41">
+        <v>2</v>
+      </c>
+      <c r="F41" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A42" s="1">
+        <v>45572</v>
+      </c>
+      <c r="B42" t="s">
+        <v>138</v>
+      </c>
+      <c r="C42" t="s">
+        <v>92</v>
+      </c>
+      <c r="D42" t="s">
+        <v>253</v>
+      </c>
+      <c r="E42">
+        <v>3</v>
+      </c>
+      <c r="F42" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A43" s="1">
+        <v>45573</v>
+      </c>
+      <c r="B43" t="s">
+        <v>271</v>
+      </c>
+      <c r="C43" t="s">
+        <v>161</v>
+      </c>
+      <c r="D43" t="s">
+        <v>272</v>
+      </c>
+      <c r="E43">
+        <v>6</v>
+      </c>
+      <c r="F43" s="2">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A44" s="1">
+        <v>45574</v>
+      </c>
+      <c r="B44" t="s">
+        <v>138</v>
+      </c>
+      <c r="C44" t="s">
+        <v>92</v>
+      </c>
+      <c r="D44" t="s">
+        <v>253</v>
+      </c>
+      <c r="E44">
+        <v>4</v>
+      </c>
+      <c r="F44" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A45" s="1">
+        <v>45574</v>
+      </c>
+      <c r="B45" t="s">
+        <v>138</v>
+      </c>
+      <c r="C45" t="s">
+        <v>138</v>
+      </c>
+      <c r="D45" t="s">
+        <v>270</v>
+      </c>
+      <c r="E45">
+        <v>3</v>
+      </c>
+      <c r="F45" s="2">
+        <v>3.39</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A46" s="1">
+        <v>45574</v>
+      </c>
+      <c r="B46" t="s">
+        <v>273</v>
+      </c>
+      <c r="C46" t="s">
+        <v>115</v>
+      </c>
+      <c r="D46" t="s">
+        <v>274</v>
+      </c>
+      <c r="E46">
+        <v>7</v>
+      </c>
+      <c r="F46" s="2">
+        <v>7.5</v>
       </c>
     </row>
   </sheetData>

--- a/00 - Spese..xlsx
+++ b/00 - Spese..xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\datasets\repoprivatafumetti\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37C664DE-0F38-42E6-9AC2-F2612B8CB7F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0567D638-8A44-486C-8B29-03F3A3EDDBF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7400" yWindow="1460" windowWidth="36370" windowHeight="18960" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2030" yWindow="700" windowWidth="36370" windowHeight="18960" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ordini" sheetId="9" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="300">
   <si>
     <t>Milo Manara Collection</t>
   </si>
@@ -860,6 +860,81 @@
   </si>
   <si>
     <t>Billy Bat</t>
+  </si>
+  <si>
+    <t>UNCANNY X-MEN #7 BENGUS MARVEL VS CAPCOM VAR</t>
+  </si>
+  <si>
+    <t>ULTIMATE X-MEN #10 PEACH MOMOKO DESIGN VAR</t>
+  </si>
+  <si>
+    <t>ULTIMATE UNIVERSE ONE YEAR IN #1 STEFANO CASELLI VAR</t>
+  </si>
+  <si>
+    <t>ULTIMATE UNIVERSE ONE YEAR IN #1 MARCO CHECCHETTO VAR</t>
+  </si>
+  <si>
+    <t>AMAZING SPIDER-MAN #63 DIPPOLITO DISNEY WHAT IF VAR</t>
+  </si>
+  <si>
+    <t>SCARLET WITCH #7 PEACH MOMOKO VAR</t>
+  </si>
+  <si>
+    <t>UNCANNY X-MEN #7 CHRIS GIARRUSSO CONNECT VAR</t>
+  </si>
+  <si>
+    <t>ULTIMATE X-MEN #10 NAO FUJI WINTER HOLIDAY VAR</t>
+  </si>
+  <si>
+    <t>ULTIMATE UNIVERSE ONE YEAR IN #1 FRANK MILLER VAR</t>
+  </si>
+  <si>
+    <t>ULTIMATE UNIVERSE ONE YEAR IN #1 PEACH MOMOKO VAR</t>
+  </si>
+  <si>
+    <t>ULTIMATE UNIVERSE ONE YEAR IN #1 CAPPUCCIO SPOILER VAR</t>
+  </si>
+  <si>
+    <t>UNCANNY X-MEN #7 MARK BROOKS VAR</t>
+  </si>
+  <si>
+    <t>Boom Studios</t>
+  </si>
+  <si>
+    <t>Takahashi</t>
+  </si>
+  <si>
+    <t>Leed</t>
+  </si>
+  <si>
+    <t>J-Pop</t>
+  </si>
+  <si>
+    <t>Insomniacs</t>
+  </si>
+  <si>
+    <t>IMage</t>
+  </si>
+  <si>
+    <t>The moon is following us</t>
+  </si>
+  <si>
+    <t>G.O.D:S.</t>
+  </si>
+  <si>
+    <t>Venom: Inferno Scatenato</t>
+  </si>
+  <si>
+    <t>Batman #104</t>
+  </si>
+  <si>
+    <t>Kalya</t>
+  </si>
+  <si>
+    <t>Tex</t>
+  </si>
+  <si>
+    <t>Zagor Speciale</t>
   </si>
 </sst>
 </file>
@@ -1079,7 +1154,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1182,6 +1257,7 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="17" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Collegamento ipertestuale" xfId="1" builtinId="8"/>
@@ -3185,20 +3261,20 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E65DA60-B872-4276-A9A4-C10BF2E9F5D2}">
-  <dimension ref="A1:F83"/>
+  <dimension ref="A1:G96"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" zoomScale="244" zoomScaleNormal="244" workbookViewId="0">
-      <selection activeCell="G83" sqref="G83"/>
+    <sheetView zoomScale="244" zoomScaleNormal="244" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="3" max="3" width="13.453125" customWidth="1"/>
-    <col min="4" max="4" width="84.6328125" customWidth="1"/>
-    <col min="5" max="6" width="8.7265625" style="2"/>
+    <col min="4" max="4" width="66.26953125" customWidth="1"/>
+    <col min="5" max="7" width="8.7265625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" s="5" customFormat="1" ht="23" x14ac:dyDescent="0.35">
       <c r="A1" s="4">
         <v>45509</v>
       </c>
@@ -3215,8 +3291,11 @@
       <c r="F1" s="6">
         <v>4.24</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G1" s="11">
+        <v>6.85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="5" customFormat="1" ht="23" x14ac:dyDescent="0.35">
       <c r="A2" s="4">
         <v>45509</v>
       </c>
@@ -3233,8 +3312,11 @@
       <c r="F2" s="6">
         <v>4.24</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G2" s="11">
+        <v>6.85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4">
         <v>45509</v>
       </c>
@@ -3251,8 +3333,9 @@
       <c r="F3" s="6">
         <v>4.24</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G3" s="6"/>
+    </row>
+    <row r="5" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4">
         <v>45550</v>
       </c>
@@ -3269,8 +3352,9 @@
       <c r="F5" s="6">
         <v>5.09</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" s="42" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G5" s="6"/>
+    </row>
+    <row r="6" spans="1:7" s="42" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="41">
         <v>45541</v>
       </c>
@@ -3287,8 +3371,9 @@
       <c r="F6" s="43">
         <v>6.79</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" s="42" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G6" s="43"/>
+    </row>
+    <row r="7" spans="1:7" s="42" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="41">
         <v>45550</v>
       </c>
@@ -3305,8 +3390,9 @@
       <c r="F7" s="43">
         <v>4.24</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" s="42" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G7" s="43"/>
+    </row>
+    <row r="8" spans="1:7" s="42" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="41">
         <v>45550</v>
       </c>
@@ -3323,8 +3409,9 @@
       <c r="F8" s="43">
         <v>4.24</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" s="42" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G8" s="43"/>
+    </row>
+    <row r="9" spans="1:7" s="42" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="41">
         <v>45550</v>
       </c>
@@ -3341,8 +3428,9 @@
       <c r="F9" s="43">
         <v>4.24</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" s="42" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G9" s="43"/>
+    </row>
+    <row r="10" spans="1:7" s="42" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="41">
         <v>45550</v>
       </c>
@@ -3359,8 +3447,9 @@
       <c r="F10" s="43">
         <v>4.24</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" s="42" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G10" s="43"/>
+    </row>
+    <row r="11" spans="1:7" s="42" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" s="41">
         <v>45541</v>
       </c>
@@ -3377,8 +3466,9 @@
       <c r="F11" s="43">
         <v>7.48</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" s="42" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G11" s="43"/>
+    </row>
+    <row r="12" spans="1:7" s="42" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="41">
         <v>45550</v>
       </c>
@@ -3395,8 +3485,9 @@
       <c r="F12" s="43">
         <v>4.24</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" s="42" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G12" s="43"/>
+    </row>
+    <row r="13" spans="1:7" s="42" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="41">
         <v>45550</v>
       </c>
@@ -3413,8 +3504,9 @@
       <c r="F13" s="43">
         <v>4.24</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" s="42" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G13" s="43"/>
+    </row>
+    <row r="14" spans="1:7" s="42" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="41">
         <v>45541</v>
       </c>
@@ -3431,8 +3523,9 @@
       <c r="F14" s="43">
         <v>4.24</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" s="42" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G14" s="43"/>
+    </row>
+    <row r="15" spans="1:7" s="42" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="41">
         <v>45541</v>
       </c>
@@ -3449,8 +3542,9 @@
       <c r="F15" s="43">
         <v>5.09</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" s="42" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G15" s="43"/>
+    </row>
+    <row r="16" spans="1:7" s="42" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A16" s="41">
         <v>45541</v>
       </c>
@@ -3467,8 +3561,9 @@
       <c r="F16" s="43">
         <v>4.24</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" s="42" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G16" s="43"/>
+    </row>
+    <row r="17" spans="1:7" s="42" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A17" s="41">
         <v>45541</v>
       </c>
@@ -3485,8 +3580,9 @@
       <c r="F17" s="43">
         <v>4.24</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" s="42" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G17" s="43"/>
+    </row>
+    <row r="18" spans="1:7" s="42" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18" s="41">
         <v>45541</v>
       </c>
@@ -3503,8 +3599,9 @@
       <c r="F18" s="43">
         <v>4.24</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" s="42" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G18" s="43"/>
+    </row>
+    <row r="19" spans="1:7" s="42" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A19" s="41">
         <v>45550</v>
       </c>
@@ -3521,8 +3618,9 @@
       <c r="F19" s="43">
         <v>4.24</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" s="42" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G19" s="43"/>
+    </row>
+    <row r="20" spans="1:7" s="42" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A20" s="41">
         <v>45550</v>
       </c>
@@ -3539,8 +3637,9 @@
       <c r="F20" s="43">
         <v>4.24</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" s="42" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G20" s="43"/>
+    </row>
+    <row r="21" spans="1:7" s="42" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A21" s="41">
         <v>45550</v>
       </c>
@@ -3557,8 +3656,9 @@
       <c r="F21" s="43">
         <v>4.24</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" s="42" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G21" s="43"/>
+    </row>
+    <row r="22" spans="1:7" s="42" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A22" s="41">
         <v>45550</v>
       </c>
@@ -3575,8 +3675,9 @@
       <c r="F22" s="43">
         <v>4.24</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" s="42" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G22" s="43"/>
+    </row>
+    <row r="23" spans="1:7" s="42" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A23" s="41">
         <v>45550</v>
       </c>
@@ -3593,8 +3694,9 @@
       <c r="F23" s="43">
         <v>4.24</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" s="42" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G23" s="43"/>
+    </row>
+    <row r="24" spans="1:7" s="42" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A24" s="41">
         <v>45550</v>
       </c>
@@ -3611,8 +3713,9 @@
       <c r="F24" s="43">
         <v>4.24</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" s="42" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G24" s="43"/>
+    </row>
+    <row r="25" spans="1:7" s="42" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A25" s="41">
         <v>45550</v>
       </c>
@@ -3629,8 +3732,9 @@
       <c r="F25" s="43">
         <v>2</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" s="42" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G25" s="43"/>
+    </row>
+    <row r="26" spans="1:7" s="42" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A26" s="41">
         <v>45550</v>
       </c>
@@ -3647,8 +3751,9 @@
       <c r="F26" s="43">
         <v>4.24</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" s="62" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G26" s="43"/>
+    </row>
+    <row r="27" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A27" s="59">
         <v>45566</v>
       </c>
@@ -3667,8 +3772,9 @@
       <c r="F27" s="61">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" s="62" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G27" s="61"/>
+    </row>
+    <row r="28" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A28" s="59">
         <v>45566</v>
       </c>
@@ -3687,8 +3793,9 @@
       <c r="F28" s="61">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" s="62" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G28" s="61"/>
+    </row>
+    <row r="29" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A29" s="59">
         <v>45566</v>
       </c>
@@ -3707,8 +3814,9 @@
       <c r="F29" s="61">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" s="62" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G29" s="61"/>
+    </row>
+    <row r="30" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A30" s="59">
         <v>45566</v>
       </c>
@@ -3727,8 +3835,9 @@
       <c r="F30" s="61">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" s="62" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G30" s="61"/>
+    </row>
+    <row r="31" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A31" s="59">
         <v>45566</v>
       </c>
@@ -3747,8 +3856,9 @@
       <c r="F31" s="61">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" s="62" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G31" s="61"/>
+    </row>
+    <row r="32" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A32" s="59">
         <v>45566</v>
       </c>
@@ -3767,8 +3877,9 @@
       <c r="F32" s="66">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" s="58" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G32" s="61"/>
+    </row>
+    <row r="33" spans="1:7" s="58" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A33" s="54">
         <v>45566</v>
       </c>
@@ -3787,8 +3898,9 @@
       <c r="F33" s="57">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" s="62" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G33" s="57"/>
+    </row>
+    <row r="34" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A34" s="59">
         <v>45566</v>
       </c>
@@ -3807,8 +3919,9 @@
       <c r="F34" s="61">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" s="62" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G34" s="61"/>
+    </row>
+    <row r="35" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A35" s="59">
         <v>45566</v>
       </c>
@@ -3827,8 +3940,9 @@
       <c r="F35" s="61">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" s="62" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G35" s="61"/>
+    </row>
+    <row r="36" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A36" s="59">
         <v>45566</v>
       </c>
@@ -3847,8 +3961,9 @@
       <c r="F36" s="61">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" s="62" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G36" s="61"/>
+    </row>
+    <row r="37" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A37" s="59">
         <v>45566</v>
       </c>
@@ -3867,8 +3982,9 @@
       <c r="F37" s="61">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" s="62" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G37" s="61"/>
+    </row>
+    <row r="38" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A38" s="59">
         <v>45566</v>
       </c>
@@ -3887,8 +4003,9 @@
       <c r="F38" s="61">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" s="62" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G38" s="61"/>
+    </row>
+    <row r="39" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A39" s="59">
         <v>45566</v>
       </c>
@@ -3907,8 +4024,9 @@
       <c r="F39" s="61">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" s="62" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G39" s="61"/>
+    </row>
+    <row r="40" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A40" s="59">
         <v>45566</v>
       </c>
@@ -3927,8 +4045,9 @@
       <c r="F40" s="61">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" s="62" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G40" s="61"/>
+    </row>
+    <row r="41" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A41" s="59">
         <v>45566</v>
       </c>
@@ -3947,8 +4066,9 @@
       <c r="F41" s="61">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" s="62" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G41" s="61"/>
+    </row>
+    <row r="42" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A42" s="59">
         <v>45566</v>
       </c>
@@ -3967,8 +4087,9 @@
       <c r="F42" s="61">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" s="62" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G42" s="61"/>
+    </row>
+    <row r="43" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A43" s="59">
         <v>45566</v>
       </c>
@@ -3987,8 +4108,9 @@
       <c r="F43" s="61">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" s="62" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G43" s="61"/>
+    </row>
+    <row r="44" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A44" s="59">
         <v>45566</v>
       </c>
@@ -4007,8 +4129,9 @@
       <c r="F44" s="61">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" s="62" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G44" s="61"/>
+    </row>
+    <row r="45" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A45" s="59">
         <v>45566</v>
       </c>
@@ -4027,8 +4150,9 @@
       <c r="F45" s="61">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" s="62" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G45" s="61"/>
+    </row>
+    <row r="46" spans="1:7" s="62" customFormat="1" ht="23" x14ac:dyDescent="0.35">
       <c r="A46" s="59">
         <v>45566</v>
       </c>
@@ -4047,8 +4171,9 @@
       <c r="F46" s="61">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" s="62" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G46" s="61"/>
+    </row>
+    <row r="47" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A47" s="59">
         <v>45566</v>
       </c>
@@ -4067,8 +4192,9 @@
       <c r="F47" s="61">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" s="62" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G47" s="61"/>
+    </row>
+    <row r="48" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A48" s="59">
         <v>45566</v>
       </c>
@@ -4087,8 +4213,9 @@
       <c r="F48" s="61">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" s="62" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G48" s="61"/>
+    </row>
+    <row r="49" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A49" s="59">
         <v>45566</v>
       </c>
@@ -4107,8 +4234,9 @@
       <c r="F49" s="61">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" s="62" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G49" s="61"/>
+    </row>
+    <row r="50" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A50" s="59">
         <v>45566</v>
       </c>
@@ -4125,8 +4253,9 @@
         <v>5.09</v>
       </c>
       <c r="F50" s="61"/>
-    </row>
-    <row r="51" spans="1:6" s="62" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G50" s="61"/>
+    </row>
+    <row r="51" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A51" s="59">
         <v>45566</v>
       </c>
@@ -4143,8 +4272,9 @@
         <v>4.24</v>
       </c>
       <c r="F51" s="61"/>
-    </row>
-    <row r="52" spans="1:6" s="62" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G51" s="61"/>
+    </row>
+    <row r="52" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A52" s="59">
         <v>45566</v>
       </c>
@@ -4163,8 +4293,9 @@
       <c r="F52" s="61">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" s="62" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G52" s="61"/>
+    </row>
+    <row r="53" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A53" s="59">
         <v>45566</v>
       </c>
@@ -4181,8 +4312,9 @@
         <v>5.09</v>
       </c>
       <c r="F53" s="61"/>
-    </row>
-    <row r="54" spans="1:6" s="62" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G53" s="61"/>
+    </row>
+    <row r="54" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A54" s="59">
         <v>45566</v>
       </c>
@@ -4199,8 +4331,9 @@
         <v>3.39</v>
       </c>
       <c r="F54" s="61"/>
-    </row>
-    <row r="55" spans="1:6" s="62" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G54" s="61"/>
+    </row>
+    <row r="55" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A55" s="59">
         <v>45566</v>
       </c>
@@ -4217,8 +4350,9 @@
         <v>3.39</v>
       </c>
       <c r="F55" s="61"/>
-    </row>
-    <row r="56" spans="1:6" s="62" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G55" s="61"/>
+    </row>
+    <row r="56" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A56" s="59">
         <v>45566</v>
       </c>
@@ -4235,8 +4369,9 @@
         <v>4.24</v>
       </c>
       <c r="F56" s="61"/>
-    </row>
-    <row r="57" spans="1:6" s="62" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G56" s="61"/>
+    </row>
+    <row r="57" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A57" s="59">
         <v>45566</v>
       </c>
@@ -4253,8 +4388,9 @@
         <v>3.39</v>
       </c>
       <c r="F57" s="61"/>
-    </row>
-    <row r="58" spans="1:6" s="62" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G57" s="61"/>
+    </row>
+    <row r="58" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A58" s="59">
         <v>45566</v>
       </c>
@@ -4271,8 +4407,9 @@
         <v>3.39</v>
       </c>
       <c r="F58" s="61"/>
-    </row>
-    <row r="59" spans="1:6" s="62" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G58" s="61"/>
+    </row>
+    <row r="59" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A59" s="59">
         <v>45566</v>
       </c>
@@ -4289,8 +4426,9 @@
         <v>3.39</v>
       </c>
       <c r="F59" s="61"/>
-    </row>
-    <row r="60" spans="1:6" s="62" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G59" s="61"/>
+    </row>
+    <row r="60" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A60" s="59">
         <v>45566</v>
       </c>
@@ -4307,8 +4445,9 @@
         <v>3.39</v>
       </c>
       <c r="F60" s="61"/>
-    </row>
-    <row r="61" spans="1:6" s="62" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G60" s="61"/>
+    </row>
+    <row r="61" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A61" s="59">
         <v>45566</v>
       </c>
@@ -4325,8 +4464,9 @@
         <v>4.24</v>
       </c>
       <c r="F61" s="61"/>
-    </row>
-    <row r="62" spans="1:6" s="62" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G61" s="61"/>
+    </row>
+    <row r="62" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A62" s="59">
         <v>45566</v>
       </c>
@@ -4343,8 +4483,9 @@
         <v>3.39</v>
       </c>
       <c r="F62" s="61"/>
-    </row>
-    <row r="63" spans="1:6" s="62" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G62" s="61"/>
+    </row>
+    <row r="63" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A63" s="59">
         <v>45566</v>
       </c>
@@ -4361,8 +4502,9 @@
         <v>4.24</v>
       </c>
       <c r="F63" s="61"/>
-    </row>
-    <row r="64" spans="1:6" s="62" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G63" s="61"/>
+    </row>
+    <row r="64" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A64" s="59">
         <v>45566</v>
       </c>
@@ -4379,8 +4521,9 @@
         <v>4.24</v>
       </c>
       <c r="F64" s="61"/>
-    </row>
-    <row r="65" spans="1:6" s="62" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G64" s="61"/>
+    </row>
+    <row r="65" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A65" s="59">
         <v>45566</v>
       </c>
@@ -4397,8 +4540,9 @@
         <v>3.39</v>
       </c>
       <c r="F65" s="61"/>
-    </row>
-    <row r="66" spans="1:6" s="62" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G65" s="61"/>
+    </row>
+    <row r="66" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A66" s="59">
         <v>45566</v>
       </c>
@@ -4415,8 +4559,9 @@
         <v>5.09</v>
       </c>
       <c r="F66" s="61"/>
-    </row>
-    <row r="67" spans="1:6" s="62" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G66" s="61"/>
+    </row>
+    <row r="67" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A67" s="59">
         <v>45566</v>
       </c>
@@ -4433,8 +4578,9 @@
         <v>5.09</v>
       </c>
       <c r="F67" s="61"/>
-    </row>
-    <row r="68" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G67" s="61"/>
+    </row>
+    <row r="68" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A68" s="4">
         <v>45536</v>
       </c>
@@ -4451,8 +4597,9 @@
       <c r="F68" s="6">
         <v>4.24</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G68" s="6"/>
+    </row>
+    <row r="69" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A69" s="4">
         <v>45536</v>
       </c>
@@ -4469,8 +4616,9 @@
       <c r="F69" s="6">
         <v>4.24</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G69" s="6"/>
+    </row>
+    <row r="70" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A70" s="4">
         <v>45536</v>
       </c>
@@ -4487,8 +4635,9 @@
       <c r="F70" s="6">
         <v>4.24</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G70" s="6"/>
+    </row>
+    <row r="71" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A71" s="4">
         <v>45536</v>
       </c>
@@ -4505,8 +4654,9 @@
       <c r="F71" s="6">
         <v>4.24</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G71" s="6"/>
+    </row>
+    <row r="72" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A72" s="4">
         <v>45536</v>
       </c>
@@ -4523,8 +4673,9 @@
       <c r="F72" s="6">
         <v>4.24</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G72" s="6"/>
+    </row>
+    <row r="73" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A73" s="4">
         <v>45536</v>
       </c>
@@ -4541,8 +4692,9 @@
       <c r="F73" s="6">
         <v>4.24</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G73" s="6"/>
+    </row>
+    <row r="74" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A74" s="4">
         <v>45540</v>
       </c>
@@ -4559,8 +4711,9 @@
       <c r="F74" s="6">
         <v>3.39</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G74" s="6"/>
+    </row>
+    <row r="75" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A75" s="4">
         <v>45540</v>
       </c>
@@ -4577,8 +4730,9 @@
       <c r="F75" s="6">
         <v>4.24</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G75" s="6"/>
+    </row>
+    <row r="76" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A76" s="4">
         <v>45509</v>
       </c>
@@ -4595,8 +4749,9 @@
       <c r="F76" s="6">
         <v>5.09</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" s="62" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G76" s="6"/>
+    </row>
+    <row r="77" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A77" s="59">
         <v>45536</v>
       </c>
@@ -4613,8 +4768,9 @@
       <c r="F77" s="61">
         <v>1</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G77" s="61"/>
+    </row>
+    <row r="78" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A78" s="17">
         <v>45566</v>
       </c>
@@ -4631,8 +4787,9 @@
       <c r="F78" s="20">
         <v>1</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" s="62" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G78" s="20"/>
+    </row>
+    <row r="79" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A79" s="59">
         <v>45566</v>
       </c>
@@ -4649,8 +4806,9 @@
       <c r="F79" s="61">
         <v>1</v>
       </c>
-    </row>
-    <row r="80" spans="1:6" s="62" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G79" s="61"/>
+    </row>
+    <row r="80" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A80" s="59">
         <v>45566</v>
       </c>
@@ -4667,8 +4825,9 @@
       <c r="F80" s="61">
         <v>1</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" s="62" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G80" s="61"/>
+    </row>
+    <row r="81" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A81" s="59">
         <v>45537</v>
       </c>
@@ -4684,8 +4843,9 @@
       <c r="F81" s="61">
         <v>1</v>
       </c>
-    </row>
-    <row r="82" spans="1:6" s="62" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G81" s="61"/>
+    </row>
+    <row r="82" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A82" s="59">
         <v>45537</v>
       </c>
@@ -4701,8 +4861,9 @@
       <c r="F82" s="61">
         <v>1</v>
       </c>
-    </row>
-    <row r="83" spans="1:6" s="62" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G82" s="61"/>
+    </row>
+    <row r="83" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A83" s="59">
         <v>45550</v>
       </c>
@@ -4718,6 +4879,259 @@
       <c r="F83" s="61">
         <v>1</v>
       </c>
+      <c r="G83" s="61"/>
+    </row>
+    <row r="85" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A85" s="59">
+        <v>45572</v>
+      </c>
+      <c r="B85" s="68">
+        <v>45658</v>
+      </c>
+      <c r="C85" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D85" s="63" t="s">
+        <v>275</v>
+      </c>
+      <c r="E85" s="61">
+        <v>4.24</v>
+      </c>
+      <c r="F85" s="61">
+        <v>1</v>
+      </c>
+      <c r="G85" s="61"/>
+    </row>
+    <row r="86" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A86" s="59">
+        <v>45572</v>
+      </c>
+      <c r="B86" s="68">
+        <v>45658</v>
+      </c>
+      <c r="C86" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D86" s="63" t="s">
+        <v>276</v>
+      </c>
+      <c r="E86" s="61">
+        <v>4.24</v>
+      </c>
+      <c r="F86" s="61">
+        <v>1</v>
+      </c>
+      <c r="G86" s="61"/>
+    </row>
+    <row r="87" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A87" s="59">
+        <v>45572</v>
+      </c>
+      <c r="B87" s="68">
+        <v>45658</v>
+      </c>
+      <c r="C87" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D87" s="63" t="s">
+        <v>277</v>
+      </c>
+      <c r="E87" s="61">
+        <v>5.09</v>
+      </c>
+      <c r="F87" s="61">
+        <v>1</v>
+      </c>
+      <c r="G87" s="61"/>
+    </row>
+    <row r="88" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A88" s="59">
+        <v>45572</v>
+      </c>
+      <c r="B88" s="68">
+        <v>45658</v>
+      </c>
+      <c r="C88" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D88" s="63" t="s">
+        <v>278</v>
+      </c>
+      <c r="E88" s="61">
+        <v>5.09</v>
+      </c>
+      <c r="F88" s="61">
+        <v>1</v>
+      </c>
+      <c r="G88" s="61"/>
+    </row>
+    <row r="89" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A89" s="59">
+        <v>45572</v>
+      </c>
+      <c r="B89" s="68">
+        <v>45658</v>
+      </c>
+      <c r="C89" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D89" s="63" t="s">
+        <v>279</v>
+      </c>
+      <c r="E89" s="61">
+        <v>4.24</v>
+      </c>
+      <c r="F89" s="61">
+        <v>1</v>
+      </c>
+      <c r="G89" s="61"/>
+    </row>
+    <row r="90" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A90" s="59">
+        <v>45572</v>
+      </c>
+      <c r="B90" s="68">
+        <v>45658</v>
+      </c>
+      <c r="C90" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D90" s="63" t="s">
+        <v>280</v>
+      </c>
+      <c r="E90" s="61">
+        <v>3.39</v>
+      </c>
+      <c r="F90" s="61">
+        <v>1</v>
+      </c>
+      <c r="G90" s="61"/>
+    </row>
+    <row r="91" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A91" s="59">
+        <v>45572</v>
+      </c>
+      <c r="B91" s="68">
+        <v>45658</v>
+      </c>
+      <c r="C91" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D91" s="63" t="s">
+        <v>281</v>
+      </c>
+      <c r="E91" s="61">
+        <v>4.24</v>
+      </c>
+      <c r="F91" s="61">
+        <v>1</v>
+      </c>
+      <c r="G91" s="61"/>
+    </row>
+    <row r="92" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A92" s="59">
+        <v>45572</v>
+      </c>
+      <c r="B92" s="68">
+        <v>45658</v>
+      </c>
+      <c r="C92" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D92" s="63" t="s">
+        <v>282</v>
+      </c>
+      <c r="E92" s="61">
+        <v>4.24</v>
+      </c>
+      <c r="F92" s="61">
+        <v>1</v>
+      </c>
+      <c r="G92" s="61"/>
+    </row>
+    <row r="93" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A93" s="59">
+        <v>45572</v>
+      </c>
+      <c r="B93" s="68">
+        <v>45658</v>
+      </c>
+      <c r="C93" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D93" s="63" t="s">
+        <v>283</v>
+      </c>
+      <c r="E93" s="61">
+        <v>5.09</v>
+      </c>
+      <c r="F93" s="61">
+        <v>1</v>
+      </c>
+      <c r="G93" s="61"/>
+    </row>
+    <row r="94" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A94" s="59">
+        <v>45572</v>
+      </c>
+      <c r="B94" s="68">
+        <v>45658</v>
+      </c>
+      <c r="C94" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D94" s="63" t="s">
+        <v>284</v>
+      </c>
+      <c r="E94" s="61">
+        <v>5.09</v>
+      </c>
+      <c r="F94" s="61">
+        <v>1</v>
+      </c>
+      <c r="G94" s="61"/>
+    </row>
+    <row r="95" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A95" s="59">
+        <v>45572</v>
+      </c>
+      <c r="B95" s="68">
+        <v>45658</v>
+      </c>
+      <c r="C95" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D95" s="63" t="s">
+        <v>285</v>
+      </c>
+      <c r="E95" s="61">
+        <v>5.09</v>
+      </c>
+      <c r="F95" s="61">
+        <v>1</v>
+      </c>
+      <c r="G95" s="61"/>
+    </row>
+    <row r="96" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A96" s="59">
+        <v>45572</v>
+      </c>
+      <c r="B96" s="68">
+        <v>45658</v>
+      </c>
+      <c r="C96" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D96" s="63" t="s">
+        <v>286</v>
+      </c>
+      <c r="E96" s="61">
+        <v>4.24</v>
+      </c>
+      <c r="F96" s="61">
+        <v>1</v>
+      </c>
+      <c r="G96" s="61"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -4729,10 +5143,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29F7F567-3378-4135-B107-67687C5CCB7F}">
-  <dimension ref="A4:F46"/>
+  <dimension ref="A4:F54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="188" zoomScaleNormal="188" workbookViewId="0">
-      <selection activeCell="H40" sqref="H40"/>
+    <sheetView topLeftCell="A41" zoomScale="188" zoomScaleNormal="188" workbookViewId="0">
+      <selection activeCell="G55" sqref="G55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5601,6 +6015,166 @@
       </c>
       <c r="F46" s="2">
         <v>7.5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A47" s="1">
+        <v>45574</v>
+      </c>
+      <c r="B47" t="s">
+        <v>138</v>
+      </c>
+      <c r="C47" t="s">
+        <v>92</v>
+      </c>
+      <c r="D47" t="s">
+        <v>253</v>
+      </c>
+      <c r="E47">
+        <v>5</v>
+      </c>
+      <c r="F47" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A48" s="1">
+        <v>45574</v>
+      </c>
+      <c r="B48" t="s">
+        <v>287</v>
+      </c>
+      <c r="C48" t="s">
+        <v>287</v>
+      </c>
+      <c r="D48" t="s">
+        <v>270</v>
+      </c>
+      <c r="E48">
+        <v>4</v>
+      </c>
+      <c r="F48" s="2">
+        <v>3.39</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A49" s="1">
+        <v>45575</v>
+      </c>
+      <c r="B49" t="s">
+        <v>289</v>
+      </c>
+      <c r="C49" t="s">
+        <v>290</v>
+      </c>
+      <c r="D49" t="s">
+        <v>288</v>
+      </c>
+      <c r="E49">
+        <v>3</v>
+      </c>
+      <c r="F49" s="2">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A50" s="1">
+        <v>45575</v>
+      </c>
+      <c r="B50" t="s">
+        <v>138</v>
+      </c>
+      <c r="C50" t="s">
+        <v>92</v>
+      </c>
+      <c r="D50" t="s">
+        <v>253</v>
+      </c>
+      <c r="E50">
+        <v>6</v>
+      </c>
+      <c r="F50" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A51" s="1">
+        <v>45575</v>
+      </c>
+      <c r="B51" t="s">
+        <v>287</v>
+      </c>
+      <c r="C51" t="s">
+        <v>287</v>
+      </c>
+      <c r="D51" t="s">
+        <v>270</v>
+      </c>
+      <c r="E51">
+        <v>5</v>
+      </c>
+      <c r="F51" s="2">
+        <v>3.39</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A52" s="1">
+        <v>45576</v>
+      </c>
+      <c r="B52" t="s">
+        <v>156</v>
+      </c>
+      <c r="C52" t="s">
+        <v>161</v>
+      </c>
+      <c r="D52" t="s">
+        <v>291</v>
+      </c>
+      <c r="E52">
+        <v>12</v>
+      </c>
+      <c r="F52" s="2">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A53" s="1">
+        <v>45576</v>
+      </c>
+      <c r="B53" t="s">
+        <v>287</v>
+      </c>
+      <c r="C53" t="s">
+        <v>287</v>
+      </c>
+      <c r="D53" t="s">
+        <v>270</v>
+      </c>
+      <c r="E53">
+        <v>6</v>
+      </c>
+      <c r="F53" s="2">
+        <v>3.39</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A54" s="1">
+        <v>45576</v>
+      </c>
+      <c r="B54" t="s">
+        <v>138</v>
+      </c>
+      <c r="C54" t="s">
+        <v>292</v>
+      </c>
+      <c r="D54" t="s">
+        <v>293</v>
+      </c>
+      <c r="E54">
+        <v>1</v>
+      </c>
+      <c r="F54" s="2">
+        <v>3.39</v>
       </c>
     </row>
   </sheetData>
@@ -6183,10 +6757,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A4:E21"/>
+  <dimension ref="A4:E25"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="236" zoomScaleNormal="236" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView topLeftCell="A18" zoomScale="236" zoomScaleNormal="236" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6480,6 +7054,74 @@
         <v>6</v>
       </c>
       <c r="E21" s="2">
+        <v>12.99</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" s="1">
+        <v>45577</v>
+      </c>
+      <c r="B22" t="s">
+        <v>297</v>
+      </c>
+      <c r="C22">
+        <v>24</v>
+      </c>
+      <c r="D22" t="s">
+        <v>258</v>
+      </c>
+      <c r="E22" s="2">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" s="1">
+        <v>45577</v>
+      </c>
+      <c r="B23" t="s">
+        <v>298</v>
+      </c>
+      <c r="C23">
+        <v>768</v>
+      </c>
+      <c r="D23" t="s">
+        <v>5</v>
+      </c>
+      <c r="E23" s="2">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24" s="1">
+        <v>45577</v>
+      </c>
+      <c r="B24" t="s">
+        <v>299</v>
+      </c>
+      <c r="C24">
+        <v>39</v>
+      </c>
+      <c r="D24" t="s">
+        <v>5</v>
+      </c>
+      <c r="E24" s="2">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25" s="1">
+        <v>45577</v>
+      </c>
+      <c r="B25" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>41</v>
+      </c>
+      <c r="D25" t="s">
+        <v>6</v>
+      </c>
+      <c r="E25" s="2">
         <v>12.99</v>
       </c>
     </row>
@@ -6604,10 +7246,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71EB8A3E-5AD9-4D3B-8024-55CC93268E2E}">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView zoomScale="196" zoomScaleNormal="196" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6666,26 +7308,26 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="17">
+    <row r="3" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="4">
         <v>45509</v>
       </c>
-      <c r="B3" s="17">
+      <c r="B3" s="4">
         <v>45566</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="39" t="s">
         <v>104</v>
       </c>
-      <c r="D3" s="53">
+      <c r="D3" s="46">
         <v>1</v>
       </c>
-      <c r="E3" s="20">
+      <c r="E3" s="6">
         <v>20.9</v>
       </c>
-      <c r="F3" s="19" t="s">
+      <c r="F3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="19" t="s">
+      <c r="G3" s="5" t="s">
         <v>76</v>
       </c>
     </row>
@@ -6779,6 +7421,54 @@
         <v>10</v>
       </c>
       <c r="H10" s="6"/>
+    </row>
+    <row r="11" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="4">
+        <v>45575</v>
+      </c>
+      <c r="B11" s="4">
+        <v>45577</v>
+      </c>
+      <c r="C11" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="46">
+        <v>11</v>
+      </c>
+      <c r="E11" s="50">
+        <v>6</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H11" s="6"/>
+    </row>
+    <row r="12" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="4">
+        <v>45575</v>
+      </c>
+      <c r="B12" s="4">
+        <v>45577</v>
+      </c>
+      <c r="C12" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="46">
+        <v>12</v>
+      </c>
+      <c r="E12" s="50">
+        <v>6</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H12" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6787,10 +7477,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42E6368F-0B3B-4DF8-8E74-C3A4A647A232}">
-  <dimension ref="A2:H47"/>
+  <dimension ref="A2:H51"/>
   <sheetViews>
-    <sheetView zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7874,6 +8564,104 @@
       </c>
       <c r="H47" s="6"/>
     </row>
+    <row r="48" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="4">
+        <v>45575</v>
+      </c>
+      <c r="B48" s="4">
+        <v>45577</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="D48" s="5">
+        <v>6</v>
+      </c>
+      <c r="E48" s="6">
+        <v>3</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G48" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H48" s="6"/>
+    </row>
+    <row r="49" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="4">
+        <v>45575</v>
+      </c>
+      <c r="B49" s="4">
+        <v>45577</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="D49" s="5">
+        <v>31</v>
+      </c>
+      <c r="E49" s="6">
+        <v>5</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G49" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H49" s="6"/>
+    </row>
+    <row r="50" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="24">
+        <v>45575</v>
+      </c>
+      <c r="B50" s="24">
+        <v>45577</v>
+      </c>
+      <c r="C50" s="26" t="s">
+        <v>152</v>
+      </c>
+      <c r="D50" s="26">
+        <v>52</v>
+      </c>
+      <c r="E50" s="27">
+        <v>3</v>
+      </c>
+      <c r="F50" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="G50" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="H50" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="4">
+        <v>45575</v>
+      </c>
+      <c r="B51" s="4">
+        <v>45577</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D51" s="5">
+        <v>394</v>
+      </c>
+      <c r="E51" s="6">
+        <v>8.99</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G51" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H51" s="6"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -7882,10 +8670,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BF44779-33F9-4341-9CD4-A7E90DBB807B}">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView zoomScale="212" zoomScaleNormal="212" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:XFD20"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8215,6 +9003,26 @@
       </c>
       <c r="F20" s="20"/>
     </row>
+    <row r="22" spans="1:6" s="26" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="24">
+        <v>45575</v>
+      </c>
+      <c r="B22" s="24">
+        <v>45577</v>
+      </c>
+      <c r="C22" s="26" t="s">
+        <v>296</v>
+      </c>
+      <c r="D22" s="26">
+        <v>104</v>
+      </c>
+      <c r="E22" s="27">
+        <v>6</v>
+      </c>
+      <c r="F22" s="27">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/00 - Spese..xlsx
+++ b/00 - Spese..xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\datasets\repoprivatafumetti\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0567D638-8A44-486C-8B29-03F3A3EDDBF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E681B63-5E00-48A1-AAC1-97065B5D2FAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2030" yWindow="700" windowWidth="36370" windowHeight="18960" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1390" yWindow="1050" windowWidth="36370" windowHeight="18960" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ordini" sheetId="9" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="317">
   <si>
     <t>Milo Manara Collection</t>
   </si>
@@ -935,6 +935,57 @@
   </si>
   <si>
     <t>Zagor Speciale</t>
+  </si>
+  <si>
+    <t>REVENGE RED BAND #2 (OF 5) [POLYBAGGED]</t>
+  </si>
+  <si>
+    <t>Dylan Dog Color Fest</t>
+  </si>
+  <si>
+    <t>Planeta</t>
+  </si>
+  <si>
+    <t>Doom Patrol (fino al 22)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Wildstorm</t>
+  </si>
+  <si>
+    <t>Magic Press</t>
+  </si>
+  <si>
+    <t>Batman</t>
+  </si>
+  <si>
+    <t>ABC Comics</t>
+  </si>
+  <si>
+    <t>America's Best Comics</t>
+  </si>
+  <si>
+    <t>Blood Hunt</t>
+  </si>
+  <si>
+    <t>Edicolo</t>
+  </si>
+  <si>
+    <t>Classic Zagor</t>
+  </si>
+  <si>
+    <t>Nathan Never</t>
+  </si>
+  <si>
+    <t>Edìicola</t>
+  </si>
+  <si>
+    <t>Dylan Dog Old Boy</t>
+  </si>
+  <si>
+    <t>Text Willer Extra</t>
   </si>
 </sst>
 </file>
@@ -945,7 +996,7 @@
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
     <numFmt numFmtId="165" formatCode="#,##0.00\ _€"/>
   </numFmts>
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1120,6 +1171,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1154,7 +1213,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1258,6 +1317,10 @@
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="17" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Collegamento ipertestuale" xfId="1" builtinId="8"/>
@@ -3261,10 +3324,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E65DA60-B872-4276-A9A4-C10BF2E9F5D2}">
-  <dimension ref="A1:G96"/>
+  <dimension ref="A1:G98"/>
   <sheetViews>
-    <sheetView zoomScale="244" zoomScaleNormal="244" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView topLeftCell="B80" zoomScale="244" zoomScaleNormal="244" workbookViewId="0">
+      <selection activeCell="H70" sqref="H70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3637,7 +3700,9 @@
       <c r="F20" s="43">
         <v>4.24</v>
       </c>
-      <c r="G20" s="43"/>
+      <c r="G20" s="69">
+        <v>6.65</v>
+      </c>
     </row>
     <row r="21" spans="1:7" s="42" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A21" s="41">
@@ -4673,7 +4738,9 @@
       <c r="F72" s="6">
         <v>4.24</v>
       </c>
-      <c r="G72" s="6"/>
+      <c r="G72" s="11">
+        <v>6</v>
+      </c>
     </row>
     <row r="73" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A73" s="4">
@@ -4692,7 +4759,9 @@
       <c r="F73" s="6">
         <v>4.24</v>
       </c>
-      <c r="G73" s="6"/>
+      <c r="G73" s="11">
+        <v>7.75</v>
+      </c>
     </row>
     <row r="74" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A74" s="4">
@@ -5132,6 +5201,29 @@
         <v>1</v>
       </c>
       <c r="G96" s="61"/>
+    </row>
+    <row r="98" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A98" s="4">
+        <v>45536</v>
+      </c>
+      <c r="B98" s="4">
+        <v>45536</v>
+      </c>
+      <c r="C98" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D98" s="39" t="s">
+        <v>300</v>
+      </c>
+      <c r="E98" s="6">
+        <v>5.09</v>
+      </c>
+      <c r="F98" s="6">
+        <v>5.09</v>
+      </c>
+      <c r="G98" s="11">
+        <v>7.75</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -5143,10 +5235,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29F7F567-3378-4135-B107-67687C5CCB7F}">
-  <dimension ref="A4:F54"/>
+  <dimension ref="A4:G67"/>
   <sheetViews>
-    <sheetView topLeftCell="A41" zoomScale="188" zoomScaleNormal="188" workbookViewId="0">
-      <selection activeCell="G55" sqref="G55"/>
+    <sheetView tabSelected="1" topLeftCell="A47" zoomScale="188" zoomScaleNormal="188" workbookViewId="0">
+      <selection activeCell="B69" sqref="B69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6057,7 +6149,7 @@
         <v>3.39</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>45575</v>
       </c>
@@ -6077,7 +6169,7 @@
         <v>6.9</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>45575</v>
       </c>
@@ -6097,7 +6189,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>45575</v>
       </c>
@@ -6117,7 +6209,7 @@
         <v>3.39</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>45576</v>
       </c>
@@ -6137,7 +6229,7 @@
         <v>6.9</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>45576</v>
       </c>
@@ -6157,7 +6249,7 @@
         <v>3.39</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>45576</v>
       </c>
@@ -6175,6 +6267,269 @@
       </c>
       <c r="F54" s="2">
         <v>3.39</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A55" s="1">
+        <v>45577</v>
+      </c>
+      <c r="B55" t="s">
+        <v>20</v>
+      </c>
+      <c r="C55" t="s">
+        <v>115</v>
+      </c>
+      <c r="D55" t="s">
+        <v>152</v>
+      </c>
+      <c r="E55">
+        <v>52</v>
+      </c>
+      <c r="F55" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A56" s="1">
+        <v>45578</v>
+      </c>
+      <c r="B56" t="s">
+        <v>5</v>
+      </c>
+      <c r="C56" t="s">
+        <v>5</v>
+      </c>
+      <c r="D56" t="s">
+        <v>301</v>
+      </c>
+      <c r="E56">
+        <v>50</v>
+      </c>
+      <c r="F56" s="2">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A57" s="1">
+        <v>45579</v>
+      </c>
+      <c r="B57" t="s">
+        <v>14</v>
+      </c>
+      <c r="C57" t="s">
+        <v>302</v>
+      </c>
+      <c r="D57" t="s">
+        <v>303</v>
+      </c>
+      <c r="E57">
+        <v>19</v>
+      </c>
+      <c r="F57" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A58" s="1">
+        <v>45580</v>
+      </c>
+      <c r="B58" t="s">
+        <v>20</v>
+      </c>
+      <c r="C58" t="s">
+        <v>115</v>
+      </c>
+      <c r="D58" t="s">
+        <v>116</v>
+      </c>
+      <c r="E58">
+        <v>6</v>
+      </c>
+      <c r="F58" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A59" s="1">
+        <v>45581</v>
+      </c>
+      <c r="B59" t="s">
+        <v>156</v>
+      </c>
+      <c r="C59" t="s">
+        <v>30</v>
+      </c>
+      <c r="D59" t="s">
+        <v>126</v>
+      </c>
+      <c r="E59">
+        <v>7</v>
+      </c>
+      <c r="F59" s="2">
+        <v>7.5</v>
+      </c>
+      <c r="G59" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A60" s="1">
+        <v>45582</v>
+      </c>
+      <c r="B60" t="s">
+        <v>138</v>
+      </c>
+      <c r="C60" t="s">
+        <v>306</v>
+      </c>
+      <c r="D60" t="s">
+        <v>305</v>
+      </c>
+      <c r="E60">
+        <v>11</v>
+      </c>
+      <c r="F60" s="2">
+        <v>2.84</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A61" s="1">
+        <v>45583</v>
+      </c>
+      <c r="B61" t="s">
+        <v>14</v>
+      </c>
+      <c r="C61" t="s">
+        <v>115</v>
+      </c>
+      <c r="D61" t="s">
+        <v>307</v>
+      </c>
+      <c r="E61">
+        <v>101</v>
+      </c>
+      <c r="F61" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A62" s="1">
+        <v>45584</v>
+      </c>
+      <c r="B62" t="s">
+        <v>308</v>
+      </c>
+      <c r="C62" t="s">
+        <v>306</v>
+      </c>
+      <c r="D62" t="s">
+        <v>309</v>
+      </c>
+      <c r="E62">
+        <v>10</v>
+      </c>
+      <c r="F62" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A63" s="1">
+        <v>45584</v>
+      </c>
+      <c r="B63" t="s">
+        <v>20</v>
+      </c>
+      <c r="C63" t="s">
+        <v>115</v>
+      </c>
+      <c r="D63" t="s">
+        <v>310</v>
+      </c>
+      <c r="E63">
+        <v>1</v>
+      </c>
+      <c r="F63" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A64" s="1">
+        <v>45585</v>
+      </c>
+      <c r="B64" t="s">
+        <v>5</v>
+      </c>
+      <c r="C64" t="s">
+        <v>5</v>
+      </c>
+      <c r="D64" t="s">
+        <v>8</v>
+      </c>
+      <c r="E64">
+        <v>71</v>
+      </c>
+      <c r="F64" s="2">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A65" s="1">
+        <v>45585</v>
+      </c>
+      <c r="B65" t="s">
+        <v>5</v>
+      </c>
+      <c r="C65" t="s">
+        <v>5</v>
+      </c>
+      <c r="D65" t="s">
+        <v>316</v>
+      </c>
+      <c r="E65">
+        <v>14</v>
+      </c>
+      <c r="F65" s="2">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A66" s="1">
+        <v>45585</v>
+      </c>
+      <c r="B66" t="s">
+        <v>138</v>
+      </c>
+      <c r="C66" t="s">
+        <v>115</v>
+      </c>
+      <c r="D66" t="s">
+        <v>154</v>
+      </c>
+      <c r="E66">
+        <v>4</v>
+      </c>
+      <c r="F66" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A67" s="1">
+        <v>45585</v>
+      </c>
+      <c r="B67" t="s">
+        <v>14</v>
+      </c>
+      <c r="C67" t="s">
+        <v>115</v>
+      </c>
+      <c r="D67" t="s">
+        <v>307</v>
+      </c>
+      <c r="E67">
+        <v>102</v>
+      </c>
+      <c r="F67" s="2">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -6757,10 +7112,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A4:E25"/>
+  <dimension ref="A4:E30"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" zoomScale="236" zoomScaleNormal="236" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView topLeftCell="A14" zoomScale="236" zoomScaleNormal="236" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7125,6 +7480,91 @@
         <v>12.99</v>
       </c>
     </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A26" s="1">
+        <v>45584</v>
+      </c>
+      <c r="B26" t="s">
+        <v>312</v>
+      </c>
+      <c r="C26">
+        <v>64</v>
+      </c>
+      <c r="D26" t="s">
+        <v>5</v>
+      </c>
+      <c r="E26" s="2">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A27" s="1">
+        <v>45584</v>
+      </c>
+      <c r="B27" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27">
+        <v>72</v>
+      </c>
+      <c r="D27" t="s">
+        <v>5</v>
+      </c>
+      <c r="E27" s="2">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A28" s="1">
+        <v>45584</v>
+      </c>
+      <c r="B28" t="s">
+        <v>313</v>
+      </c>
+      <c r="C28">
+        <v>401</v>
+      </c>
+      <c r="D28" t="s">
+        <v>5</v>
+      </c>
+      <c r="E28" s="2">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A29" s="1">
+        <v>45584</v>
+      </c>
+      <c r="B29" t="s">
+        <v>169</v>
+      </c>
+      <c r="C29">
+        <v>199</v>
+      </c>
+      <c r="D29" t="s">
+        <v>5</v>
+      </c>
+      <c r="E29" s="2">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A30" s="1">
+        <v>45584</v>
+      </c>
+      <c r="B30" t="s">
+        <v>315</v>
+      </c>
+      <c r="C30">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>5</v>
+      </c>
+      <c r="E30" s="2">
+        <v>8.9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7132,10 +7572,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0EE8F0E-AD95-4E9A-9AFF-CFE841047EAD}">
-  <dimension ref="A4:H7"/>
+  <dimension ref="A4:H8"/>
   <sheetViews>
     <sheetView zoomScale="252" zoomScaleNormal="252" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7239,6 +7679,32 @@
         <v>1</v>
       </c>
     </row>
+    <row r="8" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="24">
+        <v>45584</v>
+      </c>
+      <c r="B8" s="24">
+        <v>45584</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="26">
+        <v>106</v>
+      </c>
+      <c r="E8" s="27">
+        <v>5.5</v>
+      </c>
+      <c r="F8" s="27" t="s">
+        <v>314</v>
+      </c>
+      <c r="G8" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" s="27">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7246,10 +7712,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71EB8A3E-5AD9-4D3B-8024-55CC93268E2E}">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView zoomScale="196" zoomScaleNormal="196" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7470,6 +7936,30 @@
       </c>
       <c r="H12" s="6"/>
     </row>
+    <row r="13" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="24">
+        <v>45582</v>
+      </c>
+      <c r="B13" s="24">
+        <v>45584</v>
+      </c>
+      <c r="C13" s="70" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="71">
+        <v>13</v>
+      </c>
+      <c r="E13" s="72">
+        <v>6</v>
+      </c>
+      <c r="F13" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="G13" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="H13" s="27"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7477,10 +7967,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42E6368F-0B3B-4DF8-8E74-C3A4A647A232}">
-  <dimension ref="A2:H51"/>
+  <dimension ref="A2:H53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="E51" sqref="E51"/>
+    <sheetView topLeftCell="A25" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8660,7 +9150,61 @@
       <c r="G51" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H51" s="6"/>
+      <c r="H51" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="24">
+        <v>45582</v>
+      </c>
+      <c r="B52" s="24">
+        <v>45584</v>
+      </c>
+      <c r="C52" s="26" t="s">
+        <v>310</v>
+      </c>
+      <c r="D52" s="26">
+        <v>1</v>
+      </c>
+      <c r="E52" s="27">
+        <v>5</v>
+      </c>
+      <c r="F52" s="26" t="s">
+        <v>311</v>
+      </c>
+      <c r="G52" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="H52" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="4">
+        <v>45582</v>
+      </c>
+      <c r="B53" s="4">
+        <v>45584</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D53" s="5">
+        <v>395</v>
+      </c>
+      <c r="E53" s="6">
+        <v>8.99</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G53" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H53" s="6">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/00 - Spese..xlsx
+++ b/00 - Spese..xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\datasets\repoprivatafumetti\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E681B63-5E00-48A1-AAC1-97065B5D2FAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEA46E79-4EB7-4C73-859D-EF205D5745BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1390" yWindow="1050" windowWidth="36370" windowHeight="18960" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="317">
   <si>
     <t>Milo Manara Collection</t>
   </si>
@@ -5235,10 +5235,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29F7F567-3378-4135-B107-67687C5CCB7F}">
-  <dimension ref="A4:G67"/>
+  <dimension ref="A4:G69"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A47" zoomScale="188" zoomScaleNormal="188" workbookViewId="0">
-      <selection activeCell="B69" sqref="B69"/>
+      <selection activeCell="G69" sqref="G69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6530,6 +6530,46 @@
       </c>
       <c r="F67" s="2">
         <v>6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A68" s="1">
+        <v>45586</v>
+      </c>
+      <c r="B68" t="s">
+        <v>5</v>
+      </c>
+      <c r="C68" t="s">
+        <v>5</v>
+      </c>
+      <c r="D68" t="s">
+        <v>169</v>
+      </c>
+      <c r="E68">
+        <v>188</v>
+      </c>
+      <c r="F68" s="2">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A69" s="1">
+        <v>45587</v>
+      </c>
+      <c r="B69" t="s">
+        <v>5</v>
+      </c>
+      <c r="C69" t="s">
+        <v>5</v>
+      </c>
+      <c r="D69" t="s">
+        <v>298</v>
+      </c>
+      <c r="E69">
+        <v>766</v>
+      </c>
+      <c r="F69" s="2">
+        <v>4.9000000000000004</v>
       </c>
     </row>
   </sheetData>

--- a/00 - Spese..xlsx
+++ b/00 - Spese..xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\datasets\repoprivatafumetti\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEA46E79-4EB7-4C73-859D-EF205D5745BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{687896A0-8761-4689-97EB-D9D952FDFECF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1390" yWindow="1050" windowWidth="36370" windowHeight="18960" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1520" yWindow="1520" windowWidth="36370" windowHeight="18960" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ordini" sheetId="9" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="318">
   <si>
     <t>Milo Manara Collection</t>
   </si>
@@ -986,6 +986,9 @@
   </si>
   <si>
     <t>Text Willer Extra</t>
+  </si>
+  <si>
+    <t>Zona M</t>
   </si>
 </sst>
 </file>
@@ -5235,10 +5238,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29F7F567-3378-4135-B107-67687C5CCB7F}">
-  <dimension ref="A4:G69"/>
+  <dimension ref="A4:G71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" zoomScale="188" zoomScaleNormal="188" workbookViewId="0">
-      <selection activeCell="G69" sqref="G69"/>
+    <sheetView tabSelected="1" topLeftCell="A50" zoomScale="188" zoomScaleNormal="188" workbookViewId="0">
+      <selection activeCell="G71" sqref="G71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6570,6 +6573,46 @@
       </c>
       <c r="F69" s="2">
         <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A70" s="1">
+        <v>45587</v>
+      </c>
+      <c r="B70" t="s">
+        <v>263</v>
+      </c>
+      <c r="C70" t="s">
+        <v>263</v>
+      </c>
+      <c r="D70" t="s">
+        <v>317</v>
+      </c>
+      <c r="E70">
+        <v>7</v>
+      </c>
+      <c r="F70" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A71" s="1">
+        <v>45588</v>
+      </c>
+      <c r="B71" t="s">
+        <v>14</v>
+      </c>
+      <c r="C71" t="s">
+        <v>115</v>
+      </c>
+      <c r="D71" t="s">
+        <v>307</v>
+      </c>
+      <c r="E71">
+        <v>103</v>
+      </c>
+      <c r="F71" s="2">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/00 - Spese..xlsx
+++ b/00 - Spese..xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\datasets\repoprivatafumetti\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{687896A0-8761-4689-97EB-D9D952FDFECF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FC3923E-4630-4F60-8487-C51D4D5B6DAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1520" yWindow="1520" windowWidth="36370" windowHeight="18960" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ordini" sheetId="9" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="796" uniqueCount="320">
   <si>
     <t>Milo Manara Collection</t>
   </si>
@@ -989,6 +989,12 @@
   </si>
   <si>
     <t>Zona M</t>
+  </si>
+  <si>
+    <t>Superman</t>
+  </si>
+  <si>
+    <t>Bugs Comics</t>
   </si>
 </sst>
 </file>
@@ -5238,10 +5244,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29F7F567-3378-4135-B107-67687C5CCB7F}">
-  <dimension ref="A4:G71"/>
+  <dimension ref="A4:G74"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A50" zoomScale="188" zoomScaleNormal="188" workbookViewId="0">
-      <selection activeCell="G71" sqref="G71"/>
+      <selection activeCell="G74" sqref="G74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6613,6 +6619,66 @@
       </c>
       <c r="F71" s="2">
         <v>6</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A72" s="1">
+        <v>45589</v>
+      </c>
+      <c r="B72" t="s">
+        <v>14</v>
+      </c>
+      <c r="C72" t="s">
+        <v>263</v>
+      </c>
+      <c r="D72" t="s">
+        <v>318</v>
+      </c>
+      <c r="E72">
+        <v>10</v>
+      </c>
+      <c r="F72" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A73" s="1">
+        <v>45589</v>
+      </c>
+      <c r="B73" t="s">
+        <v>319</v>
+      </c>
+      <c r="C73" t="s">
+        <v>319</v>
+      </c>
+      <c r="D73" t="s">
+        <v>257</v>
+      </c>
+      <c r="E73">
+        <v>49</v>
+      </c>
+      <c r="F73" s="2">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A74" s="1">
+        <v>45589</v>
+      </c>
+      <c r="B74" t="s">
+        <v>319</v>
+      </c>
+      <c r="C74" t="s">
+        <v>319</v>
+      </c>
+      <c r="D74" t="s">
+        <v>257</v>
+      </c>
+      <c r="E74">
+        <v>24</v>
+      </c>
+      <c r="F74" s="2">
+        <v>4.7</v>
       </c>
     </row>
   </sheetData>

--- a/00 - Spese..xlsx
+++ b/00 - Spese..xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\datasets\repoprivatafumetti\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FC3923E-4630-4F60-8487-C51D4D5B6DAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56FB8790-A4AE-45FF-B179-C03A9A483872}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="796" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="799" uniqueCount="320">
   <si>
     <t>Milo Manara Collection</t>
   </si>
@@ -5244,10 +5244,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29F7F567-3378-4135-B107-67687C5CCB7F}">
-  <dimension ref="A4:G74"/>
+  <dimension ref="A4:G75"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A50" zoomScale="188" zoomScaleNormal="188" workbookViewId="0">
-      <selection activeCell="G74" sqref="G74"/>
+      <selection activeCell="F77" sqref="F77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6679,6 +6679,26 @@
       </c>
       <c r="F74" s="2">
         <v>4.7</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A75" s="1">
+        <v>45590</v>
+      </c>
+      <c r="B75" t="s">
+        <v>14</v>
+      </c>
+      <c r="C75" t="s">
+        <v>115</v>
+      </c>
+      <c r="D75" t="s">
+        <v>307</v>
+      </c>
+      <c r="E75">
+        <v>104</v>
+      </c>
+      <c r="F75" s="2">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/00 - Spese..xlsx
+++ b/00 - Spese..xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\datasets\repoprivatafumetti\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56FB8790-A4AE-45FF-B179-C03A9A483872}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCBC7D42-2C92-4214-A50E-00C10B736EE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-1460" yWindow="0" windowWidth="38620" windowHeight="20880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ordini" sheetId="9" r:id="rId1"/>
@@ -24,6 +24,7 @@
     <sheet name="DC Comics" sheetId="8" r:id="rId9"/>
     <sheet name="Manga" sheetId="7" r:id="rId10"/>
     <sheet name="Variant" sheetId="6" r:id="rId11"/>
+    <sheet name="PreOrders" sheetId="13" r:id="rId12"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="799" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1015" uniqueCount="452">
   <si>
     <t>Milo Manara Collection</t>
   </si>
@@ -995,6 +996,422 @@
   </si>
   <si>
     <t>Bugs Comics</t>
+  </si>
+  <si>
+    <t>DEADPOOL/WOLVERINE #1</t>
+  </si>
+  <si>
+    <t>GALLERY VARIANT COVER BY JOSHUA CASSARA • Variant Cover by GREG CAPULLO</t>
+  </si>
+  <si>
+    <t>VARIANT COVER BY FRANK MILLER • VIRGIN VARIANT COVER BY FRANK MILLER</t>
+  </si>
+  <si>
+    <t>VARIANT COVER BY JEROME OPEÑA • VARIANT COVER BY DOALY</t>
+  </si>
+  <si>
+    <t>WRAPAROUND MARVEL STUDIOS VARIANT COVER BY ANDY PARK</t>
+  </si>
+  <si>
+    <t>ULTIMATE WOLVERINE #1</t>
+  </si>
+  <si>
+    <t>CHRIS CONDON (W) • ALESSANDRO CAPPUCCIO (A/C)</t>
+  </si>
+  <si>
+    <t>VARIANT COVER BY GLEB MELNIKOV • VARIANT COVER BY STEVE SKROCE</t>
+  </si>
+  <si>
+    <t>VARIANT COVER BY LEE BERMEJO • VIRGIN VARIANT COVER BY LEE BERMEJO</t>
+  </si>
+  <si>
+    <t>CONNECTING VARIANT COVER BY JOSEMARIA CASANOVAS</t>
+  </si>
+  <si>
+    <t>ULTIMATE SPECIAL VARIANT COVER BY LEINIL FRANCIS YU • VARIANT COVER BY TBA</t>
+  </si>
+  <si>
+    <t>NEW CHAMPIONS #1</t>
+  </si>
+  <si>
+    <t>PROMO VARIANT COVER BY LUCIANO VECCHIO</t>
+  </si>
+  <si>
+    <t>VARIANT COVER BY ROSE BESCH • VARIANT COVER BY PEACH MOMOKO</t>
+  </si>
+  <si>
+    <t>VARIANT COVER BY TBA • AMARANTH VARIANT COVER BY ARTGERM</t>
+  </si>
+  <si>
+    <t>AMARANTH VIRGIN VARIANT COVER BY ARTGERM</t>
+  </si>
+  <si>
+    <t>MAGIK #1</t>
+  </si>
+  <si>
+    <t>ASHLEY ALLEN (W) • GERMÁN PERALTA (A) • Cover by J. SCOTT CAMPBELL</t>
+  </si>
+  <si>
+    <t>VARIANT COVER BY DAVID NAKAYAMA</t>
+  </si>
+  <si>
+    <t>VIRGIN VARIANT COVER BY DAVID NAKAYAMA</t>
+  </si>
+  <si>
+    <t>FOIL VARIANT COVER BY DIKE RUAN</t>
+  </si>
+  <si>
+    <t>DESIGN VARIANT BY PEACH MOMOKO • VARIANT COVER BY JAY ANACLETO</t>
+  </si>
+  <si>
+    <t>ROGUE: THE SAVAGE LAND #1 (OF 5)</t>
+  </si>
+  <si>
+    <t>VARIANT COVER BY RUSSELL DAUTERMAN</t>
+  </si>
+  <si>
+    <t>VARIANT COVER BY NICK BRADSHAW • VARIANT COVER BY J. SCOTT CAMPBELL</t>
+  </si>
+  <si>
+    <t>VIRGIN VARIANT COVER BY J. SCOTT CAMPBELL</t>
+  </si>
+  <si>
+    <t>FOIL VARIANT COVER BY ADAM HUGHES</t>
+  </si>
+  <si>
+    <t>VARIANT COVER BY ALEXANDER LOZANO • VARIANT COVER BY JEROME OPEÑA</t>
+  </si>
+  <si>
+    <t>VARIANT COVER BY OLIVIER VATINE</t>
+  </si>
+  <si>
+    <t>MARVEL ANIMATION VARIANT COVER ALSO AVAILABLE</t>
+  </si>
+  <si>
+    <t>JOURNEY INTO THE LOST WORLD WITH ROGUE, MAGNETO, KA-ZAR AND MORE!</t>
+  </si>
+  <si>
+    <t>CABLE: LOVE AND CHROME #1 (OF 5)</t>
+  </si>
+  <si>
+    <t>DAVID PEPOSE (W) • MIKE HENDERSON (A) • COVER BY IAN CHURCHILL</t>
+  </si>
+  <si>
+    <t>VARIANT COVER BY SALVADOR LARROCA • VARIANT COVER BY MARK BROOKS</t>
+  </si>
+  <si>
+    <t>WRAPAROUND HIDDEN GEM VARIANT COVER BY MIKE MIGNOLA</t>
+  </si>
+  <si>
+    <t>LOGO VARIANT COVER ALSO AVAILABLE</t>
+  </si>
+  <si>
+    <t>MARVEL’S MOST EXTREME MUTANT RETURNS!</t>
+  </si>
+  <si>
+    <t>FANTASTIC FOUR #28</t>
+  </si>
+  <si>
+    <t>DISNEY WHAT IF? FANTASTIC FOUR HOMAGE VARIANT COVER BY FRANCESCO D’IPPOLITO</t>
+  </si>
+  <si>
+    <t>MARVEL &amp; DISNEY: WHAT IF…?</t>
+  </si>
+  <si>
+    <t>MICKEY &amp; FRIENDS BECAME THE FANTASTIC FOUR #1</t>
+  </si>
+  <si>
+    <t>RICCARDO SECCHI &amp; STEVE BEHLING (W) • LORENZO PASTROVICCHIO (A/C)</t>
+  </si>
+  <si>
+    <t>BLACK AND WHITE VARIANT COVER BY LORENZO PASTROVICCHIO</t>
+  </si>
+  <si>
+    <t>DONALD DUCK THE THING VARIANT COVER BY PHIL NOTO</t>
+  </si>
+  <si>
+    <t>DONALD DUCK THE THING VIRGIN VARIANT COVER BY PHIL NOTO</t>
+  </si>
+  <si>
+    <t>VARIANT COVER BY SKOTTIE YOUNG • VARIANT COVER BY CHRISSIE ZULLO</t>
+  </si>
+  <si>
+    <t>VARIANT COVER BY NICK BRADSHAW</t>
+  </si>
+  <si>
+    <t>DOCTOR DOOM &amp; ROCKET RACCOON #1</t>
+  </si>
+  <si>
+    <t>J. MICHAEL STRACZYNSKI (W) • WILL ROBSON (A) • Cover by GARY FRANK</t>
+  </si>
+  <si>
+    <t>VIRGIN VARIANT COVER BY GARY FRANK • VARIANT COVER BY WILL ROBSON</t>
+  </si>
+  <si>
+    <t>AMAZING SPIDER-MAN #65</t>
+  </si>
+  <si>
+    <t>JOE KELLY (W) • CAFU (A) • Cover by MARK BAGLEY • VARIANT COVER BY ELIZABETH TORQUE</t>
+  </si>
+  <si>
+    <t>FANTASTIC FOUR HOMAGE VARIANT COVER BY LUCIANO VECCHIO</t>
+  </si>
+  <si>
+    <t>8 DEATHS OF SPIDER-MAN VARIANT COVER BY SKOTTIE YOUNG</t>
+  </si>
+  <si>
+    <t>BLACK AND WHITE 8 DEATHS OF SPIDER-MAN VARIANT COVER BY SKOTTIE YOUNG</t>
+  </si>
+  <si>
+    <t>AMAZING SPIDER-MAN #66</t>
+  </si>
+  <si>
+    <t>JUSTINA IRELAND (W) • ANDREA BROCCARDO (A) • Cover by MARK BAGLEY</t>
+  </si>
+  <si>
+    <t>VARIANT COVER BY KAARE ANDREWS • VARIANT COVER BY CHRIS SAMNEE</t>
+  </si>
+  <si>
+    <t>FANTASTIC FOUR HOMAGE VARIANT COVER BY PACO DIAZ</t>
+  </si>
+  <si>
+    <t>THE 8 DEATHS OF SPIDER-MAN CONTINUES!</t>
+  </si>
+  <si>
+    <t>ULTIMATE X-MEN #11</t>
+  </si>
+  <si>
+    <t>PEACH MOMOKO (W) • PEACH MOMOKO (A/C) • VARIANT COVER BY PEACH MOMOKO</t>
+  </si>
+  <si>
+    <t>ULTIMATES #8</t>
+  </si>
+  <si>
+    <t>DENIZ CAMP (W) • JUAN FRIGERI (A) • Cover by DIKE RUAN</t>
+  </si>
+  <si>
+    <t>ULTIMATE SPECIAL VARIANT COVER BY INHYUK LEE</t>
+  </si>
+  <si>
+    <t>LAURA KINNEY: WOLVERINE #2</t>
+  </si>
+  <si>
+    <t>ERICA SCHULTZ (W) • GIADA BELVISO (A) • Cover by ELENA CASAGRANDE</t>
+  </si>
+  <si>
+    <t>FANTASTIC FOUR HOMAGE VARIANT COVER BY ROMY JONES</t>
+  </si>
+  <si>
+    <t>VARIANT COVER BY PABLO VILLALOBOS • VIRGIN VARIANT COVER BY PABLO VILLALOBOS</t>
+  </si>
+  <si>
+    <t>VARIANT COVER BY EMA LUPACCHINO</t>
+  </si>
+  <si>
+    <t>ALL-NEW VENOM #2</t>
+  </si>
+  <si>
+    <t>Al Ewing (W) • Carlos Gómez (A) • Cover by Adam Kubert</t>
+  </si>
+  <si>
+    <t>DESIGN VARIANT COVER BY CARLOS GOMEZ</t>
+  </si>
+  <si>
+    <t>FANTASTIC FOUR HOMAGE VARIANT COVER BY GIUSEPPE CAMUNCOLI</t>
+  </si>
+  <si>
+    <t>CONNECTING VARIANT COVER BY GIUSEPPE CAMUNCOLI</t>
+  </si>
+  <si>
+    <t>VARIANT COVER BY TBA • VARIANT COVER BY TBA • VIRGIN VARIANT COVER BY TBA</t>
+  </si>
+  <si>
+    <t>UNCANNY X-MEN #8</t>
+  </si>
+  <si>
+    <t>GAIL SIMONE (W) • JAVIER GARRÓN (A) • Cover by DAVID MARQUEZ</t>
+  </si>
+  <si>
+    <t>VARIANT COVER BY NICK BRADSHAW • CONNECTING VARIANT COVER BY CHRIS GIARRUSSO</t>
+  </si>
+  <si>
+    <t>GAMBIT VARIANT COVER BY MIGUEL MERCADO</t>
+  </si>
+  <si>
+    <t>GAMBIT VIRGIN VARIANT COVER BY MIGUEL MERCADO</t>
+  </si>
+  <si>
+    <t>X-MEN #10</t>
+  </si>
+  <si>
+    <t>JED MACKAY (W) • NETHO DIAZ (A) • COVER BY RYAN STEGMAN</t>
+  </si>
+  <si>
+    <t>FANTASTIC FOUR HOMAGE VARIANT COVER BY MICHELE BANDINI</t>
+  </si>
+  <si>
+    <t>MAGIK VARIANT COVER BY LEIRIX • MAGIK VIRGIN VARIANT COVER BY LEIRIX</t>
+  </si>
+  <si>
+    <t>PSYLOCKE #3</t>
+  </si>
+  <si>
+    <t>ALYSSA WONG (W) • VINCENZO CARRATù (A) • Cover by MAHMUD ASRAR</t>
+  </si>
+  <si>
+    <t>VARIANT COVER BY KASIA NIE • VARIANT COVER BY PABLO VILLALOBOS</t>
+  </si>
+  <si>
+    <t>VIRGIN VARIANT COVER BY PABLO VILLALOBOS • VARIANT COVER BY CARLO PAGULAYAN</t>
+  </si>
+  <si>
+    <t>NYX #7</t>
+  </si>
+  <si>
+    <r>
+      <t>COLLIN KELLY &amp; JACKSON LANZING (W)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>ENID BALÁM (A)</t>
+    </r>
+  </si>
+  <si>
+    <t>Cover by SARA PICHELLI</t>
+  </si>
+  <si>
+    <t>VARIANT COVER BY JUSTIN MASON</t>
+  </si>
+  <si>
+    <t>MS. MARVEL VARIANT COVER</t>
+  </si>
+  <si>
+    <t>BY SAOWEE</t>
+  </si>
+  <si>
+    <t>MS. MARVEL VIRGIN VARIANT COVER</t>
+  </si>
+  <si>
+    <t>EXCEPTIONAL X-MEN #5</t>
+  </si>
+  <si>
+    <t>EVE L. EWING (W) • CARMEN CARNERO (A/C)</t>
+  </si>
+  <si>
+    <t>KITTY PRYDE VARIANT COVER BY DAVID BALDEÓN</t>
+  </si>
+  <si>
+    <t>KITTY PRYDE VIRGIN VARIANT COVER BY DAVID BALDEÓN</t>
+  </si>
+  <si>
+    <t>VARIANT COVER BY LEE GARBETT</t>
+  </si>
+  <si>
+    <t>FANTASTIC FOUR HOMAGE VARIANT COVER BY NICK BRADSHAW</t>
+  </si>
+  <si>
+    <t>SPIDER-GWEN: THE GHOST-SPIDER #9</t>
+  </si>
+  <si>
+    <t>STEPHANIE PHILLIPS (W) • VON RANDAL (A) • Cover by MARK BROOKS</t>
+  </si>
+  <si>
+    <t>MADAME WEB VARIANT COVER BY MIRKA ANDOLFO</t>
+  </si>
+  <si>
+    <t>VARIANT COVER BY ZULEMA SCOTTO LAVINA</t>
+  </si>
+  <si>
+    <t>AVENGERS #22</t>
+  </si>
+  <si>
+    <t>JED MACKAY (W) • FARID KARAMI (A) • Cover by VALERIO SCHITI</t>
+  </si>
+  <si>
+    <t>CAPTAIN AMERICA SAM WILSON HOMAGE VARIANT COVER BY MICHAEL WALSH</t>
+  </si>
+  <si>
+    <t>VARIANT COVER BY SANFORD GREENE • ICONIC VARIANT COVER BY TODD NAUCK</t>
+  </si>
+  <si>
+    <t>BLACK CAT JOINS THE AVENGERS?!</t>
+  </si>
+  <si>
+    <t>Dylan Dog OldBoy</t>
+  </si>
+  <si>
+    <t>Batman #105</t>
+  </si>
+  <si>
+    <t>Maxi Tex</t>
+  </si>
+  <si>
+    <t>Barnstormers</t>
+  </si>
+  <si>
+    <t>Astra</t>
+  </si>
+  <si>
+    <t>Hellboy</t>
+  </si>
+  <si>
+    <t>Drago Nero</t>
+  </si>
+  <si>
+    <t>REVENGE RED BAND #1 (OF 5) [POLYBAGGED]</t>
+  </si>
+  <si>
+    <t>UNCLE SCROOGE INFINITY DIME </t>
+  </si>
+  <si>
+    <t>X-MEN #1 SCOTT KOBLISH WRAPAROUND CONNECT VAR</t>
+  </si>
+  <si>
+    <t>NYX #1 ARTGERM VAR</t>
+  </si>
+  <si>
+    <t>ULTIMATE SPIDER-MAN #6 CHRIS SAMNEE VAR</t>
+  </si>
+  <si>
+    <t>ULTIMATES #1 RYAN STEGMAN VAR</t>
+  </si>
+  <si>
+    <t>ULTIMATES #1 BRYAN HITCH VAR</t>
+  </si>
+  <si>
+    <t>ULTIMATE X-MEN #5 PEPE LARRAZ VAR</t>
+  </si>
+  <si>
+    <t>ULTIMATES #2 NICK BRADSHAW VAR</t>
+  </si>
+  <si>
+    <t>WOLVERINE REVENGE #1 Regular</t>
+  </si>
+  <si>
+    <t>X-Men Forerer</t>
+  </si>
+  <si>
+    <t>Exceptional X-Men</t>
+  </si>
+  <si>
+    <t>Nathan Never 399</t>
+  </si>
+  <si>
+    <t>Jinbocho Sisters</t>
   </si>
 </sst>
 </file>
@@ -1005,7 +1422,7 @@
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
     <numFmt numFmtId="165" formatCode="#,##0.00\ _€"/>
   </numFmts>
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="34" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1188,8 +1605,72 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF00B050"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1208,6 +1689,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1222,7 +1709,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1289,9 +1776,6 @@
     <xf numFmtId="16" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1330,6 +1814,38 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="16" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="16" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="28" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="28" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Collegamento ipertestuale" xfId="1" builtinId="8"/>
@@ -3333,1921 +3849,2750 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E65DA60-B872-4276-A9A4-C10BF2E9F5D2}">
-  <dimension ref="A1:G98"/>
+  <dimension ref="A1:H109"/>
   <sheetViews>
-    <sheetView topLeftCell="B80" zoomScale="244" zoomScaleNormal="244" workbookViewId="0">
-      <selection activeCell="H70" sqref="H70"/>
+    <sheetView topLeftCell="C91" zoomScale="244" zoomScaleNormal="244" workbookViewId="0">
+      <selection activeCell="E110" sqref="E110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="13.453125" customWidth="1"/>
-    <col min="4" max="4" width="66.26953125" customWidth="1"/>
-    <col min="5" max="7" width="8.7265625" style="2"/>
+    <col min="4" max="4" width="20" customWidth="1"/>
+    <col min="5" max="5" width="66.26953125" customWidth="1"/>
+    <col min="6" max="8" width="8.7265625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="5" customFormat="1" ht="23" x14ac:dyDescent="0.35">
-      <c r="A1" s="4">
+    <row r="1" spans="2:8" s="5" customFormat="1" ht="23" x14ac:dyDescent="0.35">
+      <c r="B1" s="4">
         <v>45509</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4"/>
+      <c r="D1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="45" t="s">
+      <c r="E1" s="44" t="s">
         <v>64</v>
       </c>
-      <c r="E1" s="6">
-        <v>4.24</v>
-      </c>
       <c r="F1" s="6">
         <v>4.24</v>
       </c>
-      <c r="G1" s="11">
+      <c r="G1" s="6">
+        <v>4.24</v>
+      </c>
+      <c r="H1" s="11">
         <v>6.85</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="5" customFormat="1" ht="23" x14ac:dyDescent="0.35">
-      <c r="A2" s="4">
+    <row r="2" spans="2:8" s="5" customFormat="1" ht="23" x14ac:dyDescent="0.35">
+      <c r="B2" s="4">
         <v>45509</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4"/>
+      <c r="D2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="39" t="s">
+      <c r="E2" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="E2" s="6">
-        <v>4.24</v>
-      </c>
       <c r="F2" s="6">
         <v>4.24</v>
       </c>
-      <c r="G2" s="11">
+      <c r="G2" s="6">
+        <v>4.24</v>
+      </c>
+      <c r="H2" s="11">
         <v>6.85</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="4">
+    <row r="3" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="4">
         <v>45509</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4"/>
+      <c r="D3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="E3" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="E3" s="6">
-        <v>4.24</v>
-      </c>
       <c r="F3" s="6">
         <v>4.24</v>
       </c>
-      <c r="G3" s="6"/>
-    </row>
-    <row r="5" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="4">
+      <c r="G3" s="6">
+        <v>4.24</v>
+      </c>
+      <c r="H3" s="6"/>
+    </row>
+    <row r="5" spans="2:8" s="82" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="84">
         <v>45550</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="84"/>
+      <c r="D5" s="84" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="39" t="s">
+      <c r="E5" s="85" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="6">
+      <c r="F5" s="86">
         <v>5.09</v>
       </c>
-      <c r="F5" s="6">
+      <c r="G5" s="86">
         <v>5.09</v>
       </c>
-      <c r="G5" s="6"/>
-    </row>
-    <row r="6" spans="1:7" s="42" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="41">
+      <c r="H5" s="86"/>
+    </row>
+    <row r="6" spans="2:8" s="42" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="41">
         <v>45541</v>
       </c>
-      <c r="B6" s="41"/>
-      <c r="C6" s="42" t="s">
+      <c r="C6" s="41"/>
+      <c r="D6" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="40" t="s">
+      <c r="E6" s="40" t="s">
         <v>16</v>
-      </c>
-      <c r="E6" s="43">
-        <v>6.79</v>
       </c>
       <c r="F6" s="43">
         <v>6.79</v>
       </c>
-      <c r="G6" s="43"/>
-    </row>
-    <row r="7" spans="1:7" s="42" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="41">
+      <c r="G6" s="43">
+        <v>6.79</v>
+      </c>
+      <c r="H6" s="43"/>
+    </row>
+    <row r="7" spans="2:8" s="82" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="84">
         <v>45550</v>
       </c>
-      <c r="B7" s="41"/>
-      <c r="C7" s="42" t="s">
+      <c r="C7" s="84"/>
+      <c r="D7" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="44" t="s">
+      <c r="E7" s="91" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="43">
-        <v>4.24</v>
-      </c>
-      <c r="F7" s="43">
-        <v>4.24</v>
-      </c>
-      <c r="G7" s="43"/>
-    </row>
-    <row r="8" spans="1:7" s="42" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="41">
+      <c r="F7" s="86">
+        <v>4.24</v>
+      </c>
+      <c r="G7" s="86">
+        <v>4.24</v>
+      </c>
+      <c r="H7" s="86"/>
+    </row>
+    <row r="8" spans="2:8" s="42" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="41">
         <v>45550</v>
       </c>
-      <c r="B8" s="41"/>
-      <c r="C8" s="42" t="s">
+      <c r="C8" s="41"/>
+      <c r="D8" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="39" t="s">
+      <c r="E8" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="E8" s="43">
-        <v>4.24</v>
-      </c>
       <c r="F8" s="43">
         <v>4.24</v>
       </c>
-      <c r="G8" s="43"/>
-    </row>
-    <row r="9" spans="1:7" s="42" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="41">
+      <c r="G8" s="43">
+        <v>4.24</v>
+      </c>
+      <c r="H8" s="43"/>
+    </row>
+    <row r="9" spans="2:8" s="42" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="41">
         <v>45550</v>
       </c>
-      <c r="B9" s="41"/>
-      <c r="C9" s="42" t="s">
+      <c r="C9" s="41"/>
+      <c r="D9" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="40" t="s">
+      <c r="E9" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="43">
-        <v>4.24</v>
-      </c>
       <c r="F9" s="43">
         <v>4.24</v>
       </c>
-      <c r="G9" s="43"/>
-    </row>
-    <row r="10" spans="1:7" s="42" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="41">
+      <c r="G9" s="43">
+        <v>4.24</v>
+      </c>
+      <c r="H9" s="43"/>
+    </row>
+    <row r="10" spans="2:8" s="42" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="41">
         <v>45550</v>
       </c>
-      <c r="B10" s="41"/>
-      <c r="C10" s="42" t="s">
+      <c r="C10" s="41"/>
+      <c r="D10" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="40" t="s">
+      <c r="E10" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="43">
-        <v>4.24</v>
-      </c>
       <c r="F10" s="43">
         <v>4.24</v>
       </c>
-      <c r="G10" s="43"/>
-    </row>
-    <row r="11" spans="1:7" s="42" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="41">
+      <c r="G10" s="43">
+        <v>4.24</v>
+      </c>
+      <c r="H10" s="43"/>
+    </row>
+    <row r="11" spans="2:8" s="42" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="41">
         <v>45541</v>
       </c>
-      <c r="B11" s="41"/>
-      <c r="C11" s="42" t="s">
+      <c r="C11" s="41"/>
+      <c r="D11" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="40" t="s">
+      <c r="E11" s="40" t="s">
         <v>23</v>
-      </c>
-      <c r="E11" s="43">
-        <v>7.48</v>
       </c>
       <c r="F11" s="43">
         <v>7.48</v>
       </c>
-      <c r="G11" s="43"/>
-    </row>
-    <row r="12" spans="1:7" s="42" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="41">
+      <c r="G11" s="43">
+        <v>7.48</v>
+      </c>
+      <c r="H11" s="43"/>
+    </row>
+    <row r="12" spans="2:8" s="82" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="84">
         <v>45550</v>
       </c>
-      <c r="B12" s="41"/>
-      <c r="C12" s="42" t="s">
+      <c r="C12" s="84"/>
+      <c r="D12" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="40" t="s">
+      <c r="E12" s="85" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="43">
-        <v>4.24</v>
-      </c>
-      <c r="F12" s="43">
-        <v>4.24</v>
-      </c>
-      <c r="G12" s="43"/>
-    </row>
-    <row r="13" spans="1:7" s="42" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="41">
+      <c r="F12" s="86">
+        <v>4.24</v>
+      </c>
+      <c r="G12" s="86">
+        <v>4.24</v>
+      </c>
+      <c r="H12" s="86"/>
+    </row>
+    <row r="13" spans="2:8" s="42" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="41">
         <v>45550</v>
       </c>
-      <c r="B13" s="41"/>
-      <c r="C13" s="42" t="s">
+      <c r="C13" s="41"/>
+      <c r="D13" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="40" t="s">
+      <c r="E13" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="43">
-        <v>4.24</v>
-      </c>
       <c r="F13" s="43">
         <v>4.24</v>
       </c>
-      <c r="G13" s="43"/>
-    </row>
-    <row r="14" spans="1:7" s="42" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="41">
+      <c r="G13" s="43">
+        <v>4.24</v>
+      </c>
+      <c r="H13" s="68">
+        <v>6.66</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" s="42" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="41">
         <v>45541</v>
       </c>
-      <c r="B14" s="41"/>
-      <c r="C14" s="42" t="s">
+      <c r="C14" s="41"/>
+      <c r="D14" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="40" t="s">
+      <c r="E14" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="E14" s="43">
-        <v>4.24</v>
-      </c>
       <c r="F14" s="43">
         <v>4.24</v>
       </c>
-      <c r="G14" s="43"/>
-    </row>
-    <row r="15" spans="1:7" s="42" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="41">
+      <c r="G14" s="43">
+        <v>4.24</v>
+      </c>
+      <c r="H14" s="43"/>
+    </row>
+    <row r="15" spans="2:8" s="42" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="41">
         <v>45541</v>
       </c>
-      <c r="B15" s="41"/>
-      <c r="C15" s="42" t="s">
+      <c r="C15" s="41"/>
+      <c r="D15" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="40" t="s">
+      <c r="E15" s="40" t="s">
         <v>32</v>
-      </c>
-      <c r="E15" s="43">
-        <v>5.09</v>
       </c>
       <c r="F15" s="43">
         <v>5.09</v>
       </c>
-      <c r="G15" s="43"/>
-    </row>
-    <row r="16" spans="1:7" s="42" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="41">
+      <c r="G15" s="43">
+        <v>5.09</v>
+      </c>
+      <c r="H15" s="43"/>
+    </row>
+    <row r="16" spans="2:8" s="82" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="84">
         <v>45541</v>
       </c>
-      <c r="B16" s="41"/>
-      <c r="C16" s="42" t="s">
+      <c r="C16" s="84"/>
+      <c r="D16" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="40" t="s">
+      <c r="E16" s="85" t="s">
         <v>35</v>
       </c>
-      <c r="E16" s="43">
-        <v>4.24</v>
-      </c>
-      <c r="F16" s="43">
-        <v>4.24</v>
-      </c>
-      <c r="G16" s="43"/>
-    </row>
-    <row r="17" spans="1:7" s="42" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="41">
+      <c r="F16" s="86">
+        <v>4.24</v>
+      </c>
+      <c r="G16" s="86">
+        <v>4.24</v>
+      </c>
+      <c r="H16" s="86"/>
+    </row>
+    <row r="17" spans="2:8" s="42" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="41">
         <v>45541</v>
       </c>
-      <c r="B17" s="41"/>
-      <c r="C17" s="42" t="s">
+      <c r="C17" s="41"/>
+      <c r="D17" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="40" t="s">
+      <c r="E17" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="E17" s="43">
-        <v>4.24</v>
-      </c>
       <c r="F17" s="43">
         <v>4.24</v>
       </c>
-      <c r="G17" s="43"/>
-    </row>
-    <row r="18" spans="1:7" s="42" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="41">
+      <c r="G17" s="43">
+        <v>4.24</v>
+      </c>
+      <c r="H17" s="68">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" s="82" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="84">
         <v>45541</v>
       </c>
-      <c r="B18" s="41"/>
-      <c r="C18" s="42" t="s">
+      <c r="C18" s="84"/>
+      <c r="D18" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="40" t="s">
+      <c r="E18" s="85" t="s">
         <v>37</v>
       </c>
-      <c r="E18" s="43">
-        <v>4.24</v>
-      </c>
-      <c r="F18" s="43">
-        <v>4.24</v>
-      </c>
-      <c r="G18" s="43"/>
-    </row>
-    <row r="19" spans="1:7" s="42" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="41">
+      <c r="F18" s="86">
+        <v>4.24</v>
+      </c>
+      <c r="G18" s="86">
+        <v>4.24</v>
+      </c>
+      <c r="H18" s="86"/>
+    </row>
+    <row r="19" spans="2:8" s="82" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="84">
         <v>45550</v>
       </c>
-      <c r="B19" s="41"/>
-      <c r="C19" s="42" t="s">
+      <c r="C19" s="84"/>
+      <c r="D19" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="D19" s="40" t="s">
+      <c r="E19" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="E19" s="43">
-        <v>4.24</v>
-      </c>
-      <c r="F19" s="43">
-        <v>4.24</v>
-      </c>
-      <c r="G19" s="43"/>
-    </row>
-    <row r="20" spans="1:7" s="42" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="41">
+      <c r="F19" s="86">
+        <v>4.24</v>
+      </c>
+      <c r="G19" s="86">
+        <v>4.24</v>
+      </c>
+      <c r="H19" s="86"/>
+    </row>
+    <row r="20" spans="2:8" s="42" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="41">
         <v>45550</v>
       </c>
-      <c r="B20" s="41"/>
-      <c r="C20" s="42" t="s">
+      <c r="C20" s="41"/>
+      <c r="D20" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="40" t="s">
+      <c r="E20" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="E20" s="43">
-        <v>4.24</v>
-      </c>
       <c r="F20" s="43">
         <v>4.24</v>
       </c>
-      <c r="G20" s="69">
+      <c r="G20" s="43">
+        <v>4.24</v>
+      </c>
+      <c r="H20" s="68">
         <v>6.65</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="42" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="41">
+    <row r="21" spans="2:8" s="42" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="41">
         <v>45550</v>
       </c>
-      <c r="B21" s="41"/>
-      <c r="C21" s="42" t="s">
+      <c r="C21" s="41"/>
+      <c r="D21" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="D21" s="40" t="s">
+      <c r="E21" s="40" t="s">
         <v>101</v>
       </c>
-      <c r="E21" s="43">
-        <v>4.24</v>
-      </c>
       <c r="F21" s="43">
         <v>4.24</v>
       </c>
-      <c r="G21" s="43"/>
-    </row>
-    <row r="22" spans="1:7" s="42" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="41">
+      <c r="G21" s="43">
+        <v>4.24</v>
+      </c>
+      <c r="H21" s="43"/>
+    </row>
+    <row r="22" spans="2:8" s="82" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="84">
         <v>45550</v>
       </c>
-      <c r="B22" s="41"/>
-      <c r="C22" s="42" t="s">
+      <c r="C22" s="84"/>
+      <c r="D22" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="D22" s="40" t="s">
+      <c r="E22" s="85" t="s">
         <v>41</v>
       </c>
-      <c r="E22" s="43">
-        <v>4.24</v>
-      </c>
-      <c r="F22" s="43">
-        <v>4.24</v>
-      </c>
-      <c r="G22" s="43"/>
-    </row>
-    <row r="23" spans="1:7" s="42" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="41">
+      <c r="F22" s="86">
+        <v>4.24</v>
+      </c>
+      <c r="G22" s="86">
+        <v>4.24</v>
+      </c>
+      <c r="H22" s="86"/>
+    </row>
+    <row r="23" spans="2:8" s="42" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="41">
         <v>45550</v>
       </c>
-      <c r="B23" s="41"/>
-      <c r="C23" s="42" t="s">
+      <c r="C23" s="41"/>
+      <c r="D23" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="D23" s="40" t="s">
+      <c r="E23" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="E23" s="43">
-        <v>4.24</v>
-      </c>
       <c r="F23" s="43">
         <v>4.24</v>
       </c>
-      <c r="G23" s="43"/>
-    </row>
-    <row r="24" spans="1:7" s="42" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="41">
+      <c r="G23" s="43">
+        <v>4.24</v>
+      </c>
+      <c r="H23" s="68">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" s="82" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="84">
         <v>45550</v>
       </c>
-      <c r="B24" s="41"/>
-      <c r="C24" s="42" t="s">
+      <c r="C24" s="84"/>
+      <c r="D24" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="D24" s="40" t="s">
+      <c r="E24" s="85" t="s">
         <v>43</v>
       </c>
-      <c r="E24" s="43">
-        <v>4.24</v>
-      </c>
-      <c r="F24" s="43">
-        <v>4.24</v>
-      </c>
-      <c r="G24" s="43"/>
-    </row>
-    <row r="25" spans="1:7" s="42" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="41">
+      <c r="F24" s="86">
+        <v>4.24</v>
+      </c>
+      <c r="G24" s="86">
+        <v>4.24</v>
+      </c>
+      <c r="H24" s="86"/>
+    </row>
+    <row r="25" spans="2:8" s="42" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="41">
         <v>45550</v>
       </c>
-      <c r="B25" s="41"/>
-      <c r="C25" s="42" t="s">
+      <c r="C25" s="41"/>
+      <c r="D25" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="D25" s="40" t="s">
+      <c r="E25" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="E25" s="43">
-        <v>8.48</v>
-      </c>
       <c r="F25" s="43">
-        <v>2</v>
-      </c>
-      <c r="G25" s="43"/>
-    </row>
-    <row r="26" spans="1:7" s="42" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="41">
+        <v>4.24</v>
+      </c>
+      <c r="G25" s="43">
+        <v>1</v>
+      </c>
+      <c r="H25" s="68">
+        <v>6.66</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" s="42" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="41">
         <v>45550</v>
       </c>
-      <c r="B26" s="41"/>
-      <c r="C26" s="42" t="s">
+      <c r="C26" s="41"/>
+      <c r="D26" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="D26" s="40" t="s">
+      <c r="E26" s="40" t="s">
+        <v>46</v>
+      </c>
+      <c r="F26" s="43">
+        <v>4.24</v>
+      </c>
+      <c r="G26" s="43">
+        <v>1</v>
+      </c>
+      <c r="H26" s="43"/>
+    </row>
+    <row r="27" spans="2:8" s="42" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="41">
+        <v>45550</v>
+      </c>
+      <c r="C27" s="41"/>
+      <c r="D27" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="E27" s="40" t="s">
         <v>94</v>
       </c>
-      <c r="E26" s="43">
-        <v>4.24</v>
-      </c>
-      <c r="F26" s="43">
-        <v>4.24</v>
-      </c>
-      <c r="G26" s="43"/>
-    </row>
-    <row r="27" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="59">
+      <c r="F27" s="43">
+        <v>4.24</v>
+      </c>
+      <c r="G27" s="43">
+        <v>4.24</v>
+      </c>
+      <c r="H27" s="43"/>
+    </row>
+    <row r="28" spans="2:8" s="61" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="58">
         <v>45566</v>
       </c>
-      <c r="B27" s="59">
+      <c r="C28" s="58">
         <v>45627</v>
       </c>
-      <c r="C27" s="62" t="s">
+      <c r="D28" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="D27" s="63" t="s">
+      <c r="E28" s="62" t="s">
         <v>182</v>
       </c>
-      <c r="E27" s="61">
-        <v>4.24</v>
-      </c>
-      <c r="F27" s="61">
+      <c r="F28" s="60">
+        <v>4.24</v>
+      </c>
+      <c r="G28" s="60">
         <v>0</v>
       </c>
-      <c r="G27" s="61"/>
-    </row>
-    <row r="28" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="59">
+      <c r="H28" s="60"/>
+    </row>
+    <row r="29" spans="2:8" s="61" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="58">
         <v>45566</v>
       </c>
-      <c r="B28" s="59">
+      <c r="C29" s="58">
         <v>45627</v>
       </c>
-      <c r="C28" s="62" t="s">
+      <c r="D29" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="D28" s="63" t="s">
+      <c r="E29" s="62" t="s">
         <v>183</v>
       </c>
-      <c r="E28" s="61">
-        <v>4.24</v>
-      </c>
-      <c r="F28" s="61">
+      <c r="F29" s="60">
+        <v>4.24</v>
+      </c>
+      <c r="G29" s="60">
         <v>0</v>
       </c>
-      <c r="G28" s="61"/>
-    </row>
-    <row r="29" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="59">
+      <c r="H29" s="60"/>
+    </row>
+    <row r="30" spans="2:8" s="61" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="58">
         <v>45566</v>
       </c>
-      <c r="B29" s="59">
+      <c r="C30" s="58">
         <v>45627</v>
       </c>
-      <c r="C29" s="62" t="s">
+      <c r="D30" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="D29" s="63" t="s">
+      <c r="E30" s="62" t="s">
         <v>184</v>
       </c>
-      <c r="E29" s="61">
-        <v>4.24</v>
-      </c>
-      <c r="F29" s="61">
+      <c r="F30" s="60">
+        <v>4.24</v>
+      </c>
+      <c r="G30" s="60">
         <v>0</v>
       </c>
-      <c r="G29" s="61"/>
-    </row>
-    <row r="30" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="59">
+      <c r="H30" s="60"/>
+    </row>
+    <row r="31" spans="2:8" s="61" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="58">
         <v>45566</v>
       </c>
-      <c r="B30" s="59">
+      <c r="C31" s="58">
         <v>45627</v>
       </c>
-      <c r="C30" s="62" t="s">
+      <c r="D31" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="D30" s="63" t="s">
+      <c r="E31" s="62" t="s">
         <v>185</v>
       </c>
-      <c r="E30" s="61">
-        <v>4.24</v>
-      </c>
-      <c r="F30" s="61">
+      <c r="F31" s="60">
+        <v>4.24</v>
+      </c>
+      <c r="G31" s="60">
         <v>0</v>
       </c>
-      <c r="G30" s="61"/>
-    </row>
-    <row r="31" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="59">
+      <c r="H31" s="60"/>
+    </row>
+    <row r="32" spans="2:8" s="61" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="58">
         <v>45566</v>
       </c>
-      <c r="B31" s="59">
+      <c r="C32" s="58">
         <v>45597</v>
       </c>
-      <c r="C31" s="62" t="s">
+      <c r="D32" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="D31" s="65" t="s">
+      <c r="E32" s="64" t="s">
         <v>186</v>
       </c>
-      <c r="E31" s="61">
+      <c r="F32" s="60">
         <v>3.39</v>
       </c>
-      <c r="F31" s="61">
+      <c r="G32" s="60">
         <v>0</v>
       </c>
-      <c r="G31" s="61"/>
-    </row>
-    <row r="32" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="59">
+      <c r="H32" s="60"/>
+    </row>
+    <row r="33" spans="2:8" s="61" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B33" s="58">
         <v>45566</v>
       </c>
-      <c r="B32" s="59">
+      <c r="C33" s="58">
         <v>45597</v>
       </c>
-      <c r="C32" s="62" t="s">
+      <c r="D33" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="D32" s="63" t="s">
+      <c r="E33" s="62" t="s">
         <v>187</v>
       </c>
-      <c r="E32" s="61">
+      <c r="F33" s="60">
         <v>3.39</v>
       </c>
-      <c r="F32" s="66">
+      <c r="G33" s="65">
         <v>0</v>
       </c>
-      <c r="G32" s="61"/>
-    </row>
-    <row r="33" spans="1:7" s="58" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="54">
+      <c r="H33" s="60"/>
+    </row>
+    <row r="34" spans="2:8" s="57" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B34" s="53">
         <v>45566</v>
       </c>
-      <c r="B33" s="54">
+      <c r="C34" s="53">
         <v>45627</v>
       </c>
-      <c r="C33" s="58" t="s">
+      <c r="D34" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="D33" s="55" t="s">
+      <c r="E34" s="54" t="s">
         <v>188</v>
       </c>
-      <c r="E33" s="57">
+      <c r="F34" s="56">
         <v>3.39</v>
       </c>
-      <c r="F33" s="57">
+      <c r="G34" s="56">
         <v>0</v>
       </c>
-      <c r="G33" s="57"/>
-    </row>
-    <row r="34" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="59">
+      <c r="H34" s="56"/>
+    </row>
+    <row r="35" spans="2:8" s="61" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="58">
         <v>45566</v>
       </c>
-      <c r="B34" s="59">
+      <c r="C35" s="58">
         <v>45627</v>
       </c>
-      <c r="C34" s="62" t="s">
+      <c r="D35" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="D34" s="63" t="s">
+      <c r="E35" s="62" t="s">
         <v>189</v>
       </c>
-      <c r="E34" s="61">
-        <v>4.24</v>
-      </c>
-      <c r="F34" s="61">
+      <c r="F35" s="60">
+        <v>4.24</v>
+      </c>
+      <c r="G35" s="60">
         <v>0</v>
       </c>
-      <c r="G34" s="61"/>
-    </row>
-    <row r="35" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="59">
+      <c r="H35" s="60"/>
+    </row>
+    <row r="36" spans="2:8" s="61" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="58">
         <v>45566</v>
       </c>
-      <c r="B35" s="59">
+      <c r="C36" s="58">
         <v>45627</v>
       </c>
-      <c r="C35" s="62" t="s">
+      <c r="D36" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="D35" s="63" t="s">
+      <c r="E36" s="62" t="s">
         <v>190</v>
       </c>
-      <c r="E35" s="61">
-        <v>4.24</v>
-      </c>
-      <c r="F35" s="61">
+      <c r="F36" s="60">
+        <v>4.24</v>
+      </c>
+      <c r="G36" s="60">
         <v>0</v>
       </c>
-      <c r="G35" s="61"/>
-    </row>
-    <row r="36" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="59">
+      <c r="H36" s="60"/>
+    </row>
+    <row r="37" spans="2:8" s="61" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B37" s="58">
         <v>45566</v>
       </c>
-      <c r="B36" s="59">
+      <c r="C37" s="58">
         <v>45597</v>
       </c>
-      <c r="C36" s="62" t="s">
+      <c r="D37" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="D36" s="63" t="s">
+      <c r="E37" s="62" t="s">
         <v>191</v>
       </c>
-      <c r="E36" s="61">
-        <v>4.24</v>
-      </c>
-      <c r="F36" s="61">
+      <c r="F37" s="60">
+        <v>4.24</v>
+      </c>
+      <c r="G37" s="60">
         <v>0</v>
       </c>
-      <c r="G36" s="61"/>
-    </row>
-    <row r="37" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="59">
+      <c r="H37" s="60"/>
+    </row>
+    <row r="38" spans="2:8" s="61" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B38" s="58">
         <v>45566</v>
       </c>
-      <c r="B37" s="59">
+      <c r="C38" s="58">
         <v>45597</v>
       </c>
-      <c r="C37" s="62" t="s">
+      <c r="D38" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="D37" s="63" t="s">
+      <c r="E38" s="62" t="s">
         <v>192</v>
       </c>
-      <c r="E37" s="61">
-        <v>4.24</v>
-      </c>
-      <c r="F37" s="61">
+      <c r="F38" s="60">
+        <v>4.24</v>
+      </c>
+      <c r="G38" s="60">
         <v>0</v>
       </c>
-      <c r="G37" s="61"/>
-    </row>
-    <row r="38" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="59">
+      <c r="H38" s="60"/>
+    </row>
+    <row r="39" spans="2:8" s="61" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B39" s="58">
         <v>45566</v>
       </c>
-      <c r="B38" s="59">
+      <c r="C39" s="58">
         <v>45627</v>
       </c>
-      <c r="C38" s="62" t="s">
+      <c r="D39" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="D38" s="63" t="s">
+      <c r="E39" s="62" t="s">
         <v>193</v>
       </c>
-      <c r="E38" s="61">
-        <v>4.24</v>
-      </c>
-      <c r="F38" s="61">
+      <c r="F39" s="60">
+        <v>4.24</v>
+      </c>
+      <c r="G39" s="60">
         <v>0</v>
       </c>
-      <c r="G38" s="61"/>
-    </row>
-    <row r="39" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="59">
+      <c r="H39" s="60"/>
+    </row>
+    <row r="40" spans="2:8" s="61" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B40" s="58">
         <v>45566</v>
       </c>
-      <c r="B39" s="59">
+      <c r="C40" s="58">
         <v>45627</v>
       </c>
-      <c r="C39" s="62" t="s">
+      <c r="D40" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="D39" s="63" t="s">
+      <c r="E40" s="62" t="s">
         <v>194</v>
       </c>
-      <c r="E39" s="61">
-        <v>4.24</v>
-      </c>
-      <c r="F39" s="61">
+      <c r="F40" s="60">
+        <v>4.24</v>
+      </c>
+      <c r="G40" s="60">
         <v>0</v>
       </c>
-      <c r="G39" s="61"/>
-    </row>
-    <row r="40" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="59">
+      <c r="H40" s="60"/>
+    </row>
+    <row r="41" spans="2:8" s="61" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B41" s="58">
         <v>45566</v>
       </c>
-      <c r="B40" s="59">
+      <c r="C41" s="58">
         <v>45597</v>
       </c>
-      <c r="C40" s="62" t="s">
+      <c r="D41" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="D40" s="63" t="s">
+      <c r="E41" s="62" t="s">
         <v>195</v>
       </c>
-      <c r="E40" s="61">
-        <v>4.24</v>
-      </c>
-      <c r="F40" s="61">
+      <c r="F41" s="60">
+        <v>4.24</v>
+      </c>
+      <c r="G41" s="60">
         <v>0</v>
       </c>
-      <c r="G40" s="61"/>
-    </row>
-    <row r="41" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="59">
+      <c r="H41" s="60"/>
+    </row>
+    <row r="42" spans="2:8" s="61" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B42" s="58">
         <v>45566</v>
       </c>
-      <c r="B41" s="59">
+      <c r="C42" s="58">
         <v>45627</v>
       </c>
-      <c r="C41" s="62" t="s">
+      <c r="D42" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="D41" s="63" t="s">
+      <c r="E42" s="62" t="s">
         <v>262</v>
       </c>
-      <c r="E41" s="61">
-        <v>4.24</v>
-      </c>
-      <c r="F41" s="61">
+      <c r="F42" s="60">
+        <v>4.24</v>
+      </c>
+      <c r="G42" s="60">
         <v>0</v>
       </c>
-      <c r="G41" s="61"/>
-    </row>
-    <row r="42" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="59">
+      <c r="H42" s="60"/>
+    </row>
+    <row r="43" spans="2:8" s="61" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B43" s="58">
         <v>45566</v>
       </c>
-      <c r="B42" s="59">
+      <c r="C43" s="58">
         <v>45627</v>
       </c>
-      <c r="C42" s="62" t="s">
+      <c r="D43" s="61" t="s">
         <v>117</v>
       </c>
-      <c r="D42" s="63" t="s">
+      <c r="E43" s="62" t="s">
         <v>197</v>
       </c>
-      <c r="E42" s="61">
-        <v>4.24</v>
-      </c>
-      <c r="F42" s="61">
+      <c r="F43" s="60">
+        <v>4.24</v>
+      </c>
+      <c r="G43" s="60">
         <v>0</v>
       </c>
-      <c r="G42" s="61"/>
-    </row>
-    <row r="43" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="59">
+      <c r="H43" s="60"/>
+    </row>
+    <row r="44" spans="2:8" s="61" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B44" s="58">
         <v>45566</v>
       </c>
-      <c r="B43" s="59">
+      <c r="C44" s="58">
         <v>45627</v>
       </c>
-      <c r="C43" s="62" t="s">
+      <c r="D44" s="61" t="s">
         <v>117</v>
       </c>
-      <c r="D43" s="63" t="s">
+      <c r="E44" s="62" t="s">
         <v>198</v>
       </c>
-      <c r="E43" s="61">
-        <v>4.24</v>
-      </c>
-      <c r="F43" s="61">
+      <c r="F44" s="60">
+        <v>4.24</v>
+      </c>
+      <c r="G44" s="60">
         <v>0</v>
       </c>
-      <c r="G43" s="61"/>
-    </row>
-    <row r="44" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="59">
+      <c r="H44" s="60"/>
+    </row>
+    <row r="45" spans="2:8" s="61" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B45" s="58">
         <v>45566</v>
       </c>
-      <c r="B44" s="59">
+      <c r="C45" s="58">
         <v>45627</v>
       </c>
-      <c r="C44" s="62" t="s">
+      <c r="D45" s="61" t="s">
         <v>117</v>
       </c>
-      <c r="D44" s="63" t="s">
+      <c r="E45" s="62" t="s">
         <v>199</v>
       </c>
-      <c r="E44" s="61">
-        <v>4.24</v>
-      </c>
-      <c r="F44" s="61">
+      <c r="F45" s="60">
+        <v>4.24</v>
+      </c>
+      <c r="G45" s="60">
         <v>0</v>
       </c>
-      <c r="G44" s="61"/>
-    </row>
-    <row r="45" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="59">
+      <c r="H45" s="60"/>
+    </row>
+    <row r="46" spans="2:8" s="61" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B46" s="58">
         <v>45566</v>
       </c>
-      <c r="B45" s="59">
+      <c r="C46" s="58">
         <v>45627</v>
       </c>
-      <c r="C45" s="62" t="s">
+      <c r="D46" s="61" t="s">
         <v>117</v>
       </c>
-      <c r="D45" s="63" t="s">
+      <c r="E46" s="62" t="s">
         <v>200</v>
       </c>
-      <c r="E45" s="61">
-        <v>4.24</v>
-      </c>
-      <c r="F45" s="61">
+      <c r="F46" s="60">
+        <v>4.24</v>
+      </c>
+      <c r="G46" s="60">
         <v>0</v>
       </c>
-      <c r="G45" s="61"/>
-    </row>
-    <row r="46" spans="1:7" s="62" customFormat="1" ht="23" x14ac:dyDescent="0.35">
-      <c r="A46" s="59">
+      <c r="H46" s="60"/>
+    </row>
+    <row r="47" spans="2:8" s="61" customFormat="1" ht="23" x14ac:dyDescent="0.35">
+      <c r="B47" s="58">
         <v>45566</v>
       </c>
-      <c r="B46" s="59">
+      <c r="C47" s="58">
         <v>45627</v>
       </c>
-      <c r="C46" s="62" t="s">
+      <c r="D47" s="61" t="s">
         <v>117</v>
       </c>
-      <c r="D46" s="63" t="s">
+      <c r="E47" s="62" t="s">
         <v>201</v>
       </c>
-      <c r="E46" s="61">
+      <c r="F47" s="60">
         <v>6.79</v>
       </c>
-      <c r="F46" s="61">
+      <c r="G47" s="60">
         <v>0</v>
       </c>
-      <c r="G46" s="61"/>
-    </row>
-    <row r="47" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="59">
+      <c r="H47" s="60"/>
+    </row>
+    <row r="48" spans="2:8" s="61" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B48" s="58">
         <v>45566</v>
       </c>
-      <c r="B47" s="59">
+      <c r="C48" s="58">
         <v>45627</v>
       </c>
-      <c r="C47" s="62" t="s">
+      <c r="D48" s="61" t="s">
         <v>117</v>
       </c>
-      <c r="D47" s="63" t="s">
+      <c r="E48" s="62" t="s">
         <v>202</v>
       </c>
-      <c r="E47" s="61">
-        <v>4.24</v>
-      </c>
-      <c r="F47" s="61">
+      <c r="F48" s="60">
+        <v>4.24</v>
+      </c>
+      <c r="G48" s="60">
         <v>1</v>
       </c>
-      <c r="G47" s="61"/>
-    </row>
-    <row r="48" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="59">
+      <c r="H48" s="60"/>
+    </row>
+    <row r="49" spans="2:8" s="61" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B49" s="58">
         <v>45566</v>
       </c>
-      <c r="B48" s="59">
+      <c r="C49" s="58">
         <v>45627</v>
       </c>
-      <c r="C48" s="62" t="s">
+      <c r="D49" s="61" t="s">
         <v>117</v>
       </c>
-      <c r="D48" s="63" t="s">
+      <c r="E49" s="62" t="s">
         <v>203</v>
       </c>
-      <c r="E48" s="61">
-        <v>4.24</v>
-      </c>
-      <c r="F48" s="61">
+      <c r="F49" s="60">
+        <v>4.24</v>
+      </c>
+      <c r="G49" s="60">
         <v>0</v>
       </c>
-      <c r="G48" s="61"/>
-    </row>
-    <row r="49" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="59">
+      <c r="H49" s="60"/>
+    </row>
+    <row r="50" spans="2:8" s="61" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B50" s="58">
         <v>45566</v>
       </c>
-      <c r="B49" s="59">
+      <c r="C50" s="58">
         <v>45627</v>
       </c>
-      <c r="C49" s="62" t="s">
+      <c r="D50" s="61" t="s">
         <v>117</v>
       </c>
-      <c r="D49" s="63" t="s">
+      <c r="E50" s="62" t="s">
         <v>204</v>
       </c>
-      <c r="E49" s="61">
+      <c r="F50" s="60">
         <v>5.09</v>
       </c>
-      <c r="F49" s="61">
+      <c r="G50" s="60">
         <v>1</v>
       </c>
-      <c r="G49" s="61"/>
-    </row>
-    <row r="50" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="59">
+      <c r="H50" s="60"/>
+    </row>
+    <row r="51" spans="2:8" s="61" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B51" s="58">
         <v>45566</v>
       </c>
-      <c r="B50" s="59">
+      <c r="C51" s="58">
         <v>45627</v>
       </c>
-      <c r="C50" s="62" t="s">
+      <c r="D51" s="61" t="s">
         <v>117</v>
       </c>
-      <c r="D50" s="63" t="s">
+      <c r="E51" s="62" t="s">
         <v>205</v>
       </c>
-      <c r="E50" s="61">
+      <c r="F51" s="60">
         <v>5.09</v>
       </c>
-      <c r="F50" s="61"/>
-      <c r="G50" s="61"/>
-    </row>
-    <row r="51" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="59">
+      <c r="G51" s="60"/>
+      <c r="H51" s="60"/>
+    </row>
+    <row r="52" spans="2:8" s="61" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B52" s="58">
         <v>45566</v>
       </c>
-      <c r="B51" s="59">
+      <c r="C52" s="58">
         <v>45627</v>
       </c>
-      <c r="C51" s="62" t="s">
+      <c r="D52" s="61" t="s">
         <v>117</v>
       </c>
-      <c r="D51" s="63" t="s">
+      <c r="E52" s="62" t="s">
         <v>206</v>
       </c>
-      <c r="E51" s="61">
-        <v>4.24</v>
-      </c>
-      <c r="F51" s="61"/>
-      <c r="G51" s="61"/>
-    </row>
-    <row r="52" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="59">
+      <c r="F52" s="60">
+        <v>4.24</v>
+      </c>
+      <c r="G52" s="60"/>
+      <c r="H52" s="60"/>
+    </row>
+    <row r="53" spans="2:8" s="61" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B53" s="58">
         <v>45566</v>
       </c>
-      <c r="B52" s="59">
+      <c r="C53" s="58">
         <v>45627</v>
       </c>
-      <c r="C52" s="62" t="s">
+      <c r="D53" s="61" t="s">
         <v>117</v>
       </c>
-      <c r="D52" s="63" t="s">
+      <c r="E53" s="62" t="s">
         <v>261</v>
       </c>
-      <c r="E52" s="61">
+      <c r="F53" s="60">
         <v>5.09</v>
       </c>
-      <c r="F52" s="61">
+      <c r="G53" s="60">
         <v>1</v>
       </c>
-      <c r="G52" s="61"/>
-    </row>
-    <row r="53" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="59">
+      <c r="H53" s="60"/>
+    </row>
+    <row r="54" spans="2:8" s="61" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B54" s="58">
         <v>45566</v>
       </c>
-      <c r="B53" s="59">
+      <c r="C54" s="58">
         <v>45627</v>
       </c>
-      <c r="C53" s="62" t="s">
+      <c r="D54" s="61" t="s">
         <v>117</v>
       </c>
-      <c r="D53" s="63" t="s">
+      <c r="E54" s="62" t="s">
         <v>207</v>
       </c>
-      <c r="E53" s="61">
+      <c r="F54" s="60">
         <v>5.09</v>
       </c>
-      <c r="F53" s="61"/>
-      <c r="G53" s="61"/>
-    </row>
-    <row r="54" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="59">
+      <c r="G54" s="60"/>
+      <c r="H54" s="60"/>
+    </row>
+    <row r="55" spans="2:8" s="61" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B55" s="58">
         <v>45566</v>
       </c>
-      <c r="B54" s="59">
+      <c r="C55" s="58">
         <v>45597</v>
       </c>
-      <c r="C54" s="62" t="s">
+      <c r="D55" s="61" t="s">
         <v>117</v>
       </c>
-      <c r="D54" s="63" t="s">
+      <c r="E55" s="62" t="s">
         <v>208</v>
       </c>
-      <c r="E54" s="61">
+      <c r="F55" s="60">
         <v>3.39</v>
       </c>
-      <c r="F54" s="61"/>
-      <c r="G54" s="61"/>
-    </row>
-    <row r="55" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="59">
+      <c r="G55" s="60"/>
+      <c r="H55" s="60"/>
+    </row>
+    <row r="56" spans="2:8" s="61" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B56" s="58">
         <v>45566</v>
       </c>
-      <c r="B55" s="59">
+      <c r="C56" s="58">
         <v>45597</v>
       </c>
-      <c r="C55" s="62" t="s">
+      <c r="D56" s="61" t="s">
         <v>117</v>
       </c>
-      <c r="D55" s="63" t="s">
+      <c r="E56" s="62" t="s">
         <v>209</v>
       </c>
-      <c r="E55" s="61">
+      <c r="F56" s="60">
         <v>3.39</v>
       </c>
-      <c r="F55" s="61"/>
-      <c r="G55" s="61"/>
-    </row>
-    <row r="56" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="59">
+      <c r="G56" s="60"/>
+      <c r="H56" s="60"/>
+    </row>
+    <row r="57" spans="2:8" s="61" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B57" s="58">
         <v>45566</v>
       </c>
-      <c r="B56" s="59">
+      <c r="C57" s="58">
         <v>45597</v>
       </c>
-      <c r="C56" s="62" t="s">
+      <c r="D57" s="61" t="s">
         <v>117</v>
       </c>
-      <c r="D56" s="63" t="s">
+      <c r="E57" s="62" t="s">
         <v>210</v>
       </c>
-      <c r="E56" s="61">
-        <v>4.24</v>
-      </c>
-      <c r="F56" s="61"/>
-      <c r="G56" s="61"/>
-    </row>
-    <row r="57" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="59">
+      <c r="F57" s="60">
+        <v>4.24</v>
+      </c>
+      <c r="G57" s="60"/>
+      <c r="H57" s="60"/>
+    </row>
+    <row r="58" spans="2:8" s="61" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B58" s="58">
         <v>45566</v>
       </c>
-      <c r="B57" s="59">
+      <c r="C58" s="58">
         <v>45627</v>
       </c>
-      <c r="C57" s="62" t="s">
+      <c r="D58" s="61" t="s">
         <v>138</v>
       </c>
-      <c r="D57" s="63" t="s">
+      <c r="E58" s="62" t="s">
         <v>211</v>
       </c>
-      <c r="E57" s="61">
+      <c r="F58" s="60">
         <v>3.39</v>
       </c>
-      <c r="F57" s="61"/>
-      <c r="G57" s="61"/>
-    </row>
-    <row r="58" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="59">
+      <c r="G58" s="60"/>
+      <c r="H58" s="60"/>
+    </row>
+    <row r="59" spans="2:8" s="61" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B59" s="58">
         <v>45566</v>
       </c>
-      <c r="B58" s="59">
+      <c r="C59" s="58">
         <v>45627</v>
       </c>
-      <c r="C58" s="62" t="s">
+      <c r="D59" s="61" t="s">
         <v>138</v>
       </c>
-      <c r="D58" s="63" t="s">
+      <c r="E59" s="62" t="s">
         <v>212</v>
       </c>
-      <c r="E58" s="61">
+      <c r="F59" s="60">
         <v>3.39</v>
       </c>
-      <c r="F58" s="61"/>
-      <c r="G58" s="61"/>
-    </row>
-    <row r="59" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="59">
+      <c r="G59" s="60"/>
+      <c r="H59" s="60"/>
+    </row>
+    <row r="60" spans="2:8" s="61" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B60" s="58">
         <v>45566</v>
       </c>
-      <c r="B59" s="59">
+      <c r="C60" s="58">
         <v>45597</v>
       </c>
-      <c r="C59" s="62" t="s">
+      <c r="D60" s="61" t="s">
         <v>138</v>
       </c>
-      <c r="D59" s="63" t="s">
+      <c r="E60" s="62" t="s">
         <v>213</v>
       </c>
-      <c r="E59" s="61">
+      <c r="F60" s="60">
         <v>3.39</v>
       </c>
-      <c r="F59" s="61"/>
-      <c r="G59" s="61"/>
-    </row>
-    <row r="60" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="59">
+      <c r="G60" s="60"/>
+      <c r="H60" s="60"/>
+    </row>
+    <row r="61" spans="2:8" s="61" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B61" s="58">
         <v>45566</v>
       </c>
-      <c r="B60" s="59">
+      <c r="C61" s="58">
         <v>45597</v>
       </c>
-      <c r="C60" s="62" t="s">
+      <c r="D61" s="61" t="s">
         <v>138</v>
       </c>
-      <c r="D60" s="63" t="s">
+      <c r="E61" s="62" t="s">
         <v>214</v>
       </c>
-      <c r="E60" s="61">
+      <c r="F61" s="60">
         <v>3.39</v>
       </c>
-      <c r="F60" s="61"/>
-      <c r="G60" s="61"/>
-    </row>
-    <row r="61" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="59">
+      <c r="G61" s="60"/>
+      <c r="H61" s="60"/>
+    </row>
+    <row r="62" spans="2:8" s="61" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B62" s="58">
         <v>45566</v>
       </c>
-      <c r="B61" s="59">
+      <c r="C62" s="58">
         <v>45627</v>
       </c>
-      <c r="C61" s="62" t="s">
+      <c r="D62" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="D61" s="67" t="s">
+      <c r="E62" s="66" t="s">
         <v>215</v>
       </c>
-      <c r="E61" s="61">
-        <v>4.24</v>
-      </c>
-      <c r="F61" s="61"/>
-      <c r="G61" s="61"/>
-    </row>
-    <row r="62" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="59">
+      <c r="F62" s="60">
+        <v>4.24</v>
+      </c>
+      <c r="G62" s="60"/>
+      <c r="H62" s="60"/>
+    </row>
+    <row r="63" spans="2:8" s="61" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B63" s="58">
         <v>45566</v>
       </c>
-      <c r="B62" s="59">
+      <c r="C63" s="58">
         <v>45627</v>
       </c>
-      <c r="C62" s="62" t="s">
+      <c r="D63" s="61" t="s">
         <v>117</v>
       </c>
-      <c r="D62" s="63" t="s">
+      <c r="E63" s="62" t="s">
         <v>216</v>
       </c>
-      <c r="E62" s="61">
+      <c r="F63" s="60">
         <v>3.39</v>
       </c>
-      <c r="F62" s="61"/>
-      <c r="G62" s="61"/>
-    </row>
-    <row r="63" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="59">
+      <c r="G63" s="60"/>
+      <c r="H63" s="60"/>
+    </row>
+    <row r="64" spans="2:8" s="61" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B64" s="58">
         <v>45566</v>
       </c>
-      <c r="B63" s="59">
+      <c r="C64" s="58">
         <v>45627</v>
       </c>
-      <c r="C63" s="62" t="s">
+      <c r="D64" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="D63" s="63" t="s">
+      <c r="E64" s="62" t="s">
         <v>217</v>
       </c>
-      <c r="E63" s="61">
-        <v>4.24</v>
-      </c>
-      <c r="F63" s="61"/>
-      <c r="G63" s="61"/>
-    </row>
-    <row r="64" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="59">
+      <c r="F64" s="60">
+        <v>4.24</v>
+      </c>
+      <c r="G64" s="60"/>
+      <c r="H64" s="60"/>
+    </row>
+    <row r="65" spans="2:8" s="61" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B65" s="58">
         <v>45566</v>
       </c>
-      <c r="B64" s="59">
+      <c r="C65" s="58">
         <v>45627</v>
       </c>
-      <c r="C64" s="62" t="s">
+      <c r="D65" s="61" t="s">
         <v>138</v>
       </c>
-      <c r="D64" s="67" t="s">
+      <c r="E65" s="66" t="s">
         <v>218</v>
       </c>
-      <c r="E64" s="61">
-        <v>4.24</v>
-      </c>
-      <c r="F64" s="61"/>
-      <c r="G64" s="61"/>
-    </row>
-    <row r="65" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="59">
+      <c r="F65" s="60">
+        <v>4.24</v>
+      </c>
+      <c r="G65" s="60"/>
+      <c r="H65" s="60"/>
+    </row>
+    <row r="66" spans="2:8" s="61" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B66" s="58">
         <v>45566</v>
       </c>
-      <c r="B65" s="59">
+      <c r="C66" s="58">
         <v>45627</v>
       </c>
-      <c r="C65" s="62" t="s">
+      <c r="D66" s="61" t="s">
         <v>138</v>
       </c>
-      <c r="D65" s="63" t="s">
+      <c r="E66" s="62" t="s">
         <v>219</v>
       </c>
-      <c r="E65" s="61">
+      <c r="F66" s="60">
         <v>3.39</v>
       </c>
-      <c r="F65" s="61"/>
-      <c r="G65" s="61"/>
-    </row>
-    <row r="66" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="59">
+      <c r="G66" s="60"/>
+      <c r="H66" s="60"/>
+    </row>
+    <row r="67" spans="2:8" s="61" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B67" s="58">
         <v>45566</v>
       </c>
-      <c r="B66" s="59">
+      <c r="C67" s="58">
         <v>45627</v>
       </c>
-      <c r="C66" s="62" t="s">
+      <c r="D67" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="D66" s="63" t="s">
+      <c r="E67" s="62" t="s">
         <v>220</v>
       </c>
-      <c r="E66" s="61">
+      <c r="F67" s="60">
         <v>5.09</v>
       </c>
-      <c r="F66" s="61"/>
-      <c r="G66" s="61"/>
-    </row>
-    <row r="67" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="59">
+      <c r="G67" s="60"/>
+      <c r="H67" s="60"/>
+    </row>
+    <row r="68" spans="2:8" s="61" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B68" s="58">
         <v>45566</v>
       </c>
-      <c r="B67" s="59">
+      <c r="C68" s="58">
         <v>45597</v>
       </c>
-      <c r="C67" s="62" t="s">
+      <c r="D68" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="D67" s="63" t="s">
+      <c r="E68" s="62" t="s">
         <v>221</v>
       </c>
-      <c r="E67" s="61">
+      <c r="F68" s="60">
         <v>5.09</v>
       </c>
-      <c r="F67" s="61"/>
-      <c r="G67" s="61"/>
-    </row>
-    <row r="68" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="4">
+      <c r="G68" s="60"/>
+      <c r="H68" s="60"/>
+    </row>
+    <row r="69" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B69" s="4">
         <v>45536</v>
       </c>
-      <c r="B68" s="4"/>
-      <c r="C68" s="5" t="s">
+      <c r="C69" s="4"/>
+      <c r="D69" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D68" s="39" t="s">
+      <c r="E69" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="E68" s="6">
-        <v>4.24</v>
-      </c>
-      <c r="F68" s="6">
-        <v>4.24</v>
-      </c>
-      <c r="G68" s="6"/>
-    </row>
-    <row r="69" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="4">
+      <c r="F69" s="6">
+        <v>4.24</v>
+      </c>
+      <c r="G69" s="6">
+        <v>4.24</v>
+      </c>
+      <c r="H69" s="81">
+        <v>6.66</v>
+      </c>
+    </row>
+    <row r="70" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B70" s="4">
         <v>45536</v>
       </c>
-      <c r="B69" s="4"/>
-      <c r="C69" s="5" t="s">
+      <c r="C70" s="4"/>
+      <c r="D70" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D69" s="39" t="s">
+      <c r="E70" s="39" t="s">
         <v>97</v>
       </c>
-      <c r="E69" s="6">
-        <v>4.24</v>
-      </c>
-      <c r="F69" s="6">
-        <v>4.24</v>
-      </c>
-      <c r="G69" s="6"/>
-    </row>
-    <row r="70" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="4">
+      <c r="F70" s="6">
+        <v>4.24</v>
+      </c>
+      <c r="G70" s="6">
+        <v>4.24</v>
+      </c>
+      <c r="H70" s="11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71" spans="2:8" s="82" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B71" s="84">
         <v>45536</v>
       </c>
-      <c r="B70" s="4"/>
-      <c r="C70" s="5" t="s">
+      <c r="C71" s="84"/>
+      <c r="D71" s="82" t="s">
         <v>34</v>
       </c>
-      <c r="D70" s="39" t="s">
+      <c r="E71" s="85" t="s">
         <v>98</v>
       </c>
-      <c r="E70" s="6">
-        <v>4.24</v>
-      </c>
-      <c r="F70" s="6">
-        <v>4.24</v>
-      </c>
-      <c r="G70" s="6"/>
-    </row>
-    <row r="71" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="4">
+      <c r="F71" s="86">
+        <v>4.24</v>
+      </c>
+      <c r="G71" s="86">
+        <v>4.24</v>
+      </c>
+      <c r="H71" s="86"/>
+    </row>
+    <row r="72" spans="2:8" s="82" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B72" s="84">
         <v>45536</v>
       </c>
-      <c r="B71" s="4"/>
-      <c r="C71" s="5" t="s">
+      <c r="C72" s="84"/>
+      <c r="D72" s="82" t="s">
         <v>34</v>
       </c>
-      <c r="D71" s="5" t="s">
+      <c r="E72" s="82" t="s">
         <v>102</v>
       </c>
-      <c r="E71" s="6">
-        <v>4.24</v>
-      </c>
-      <c r="F71" s="6">
-        <v>4.24</v>
-      </c>
-      <c r="G71" s="6"/>
-    </row>
-    <row r="72" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="4">
+      <c r="F72" s="86">
+        <v>4.24</v>
+      </c>
+      <c r="G72" s="86">
+        <v>4.24</v>
+      </c>
+      <c r="H72" s="86"/>
+    </row>
+    <row r="73" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B73" s="4">
         <v>45536</v>
       </c>
-      <c r="B72" s="4"/>
-      <c r="C72" s="5" t="s">
+      <c r="C73" s="4"/>
+      <c r="D73" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D72" s="5" t="s">
+      <c r="E73" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="E72" s="6">
-        <v>4.24</v>
-      </c>
-      <c r="F72" s="6">
-        <v>4.24</v>
-      </c>
-      <c r="G72" s="11">
+      <c r="F73" s="6">
+        <v>4.24</v>
+      </c>
+      <c r="G73" s="6">
+        <v>4.24</v>
+      </c>
+      <c r="H73" s="11">
         <v>6</v>
       </c>
     </row>
-    <row r="73" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="4">
+    <row r="74" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B74" s="4">
         <v>45536</v>
       </c>
-      <c r="B73" s="4"/>
-      <c r="C73" s="5" t="s">
+      <c r="C74" s="4"/>
+      <c r="D74" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D73" s="5" t="s">
+      <c r="E74" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="E73" s="6">
-        <v>4.24</v>
-      </c>
-      <c r="F73" s="6">
-        <v>4.24</v>
-      </c>
-      <c r="G73" s="11">
+      <c r="F74" s="6">
+        <v>4.24</v>
+      </c>
+      <c r="G74" s="6">
+        <v>4.24</v>
+      </c>
+      <c r="H74" s="11">
         <v>7.75</v>
       </c>
     </row>
-    <row r="74" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="4">
+    <row r="75" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B75" s="4">
         <v>45540</v>
       </c>
-      <c r="B74" s="4"/>
-      <c r="C74" s="5" t="s">
+      <c r="C75" s="4"/>
+      <c r="D75" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D74" s="5" t="s">
+      <c r="E75" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="E74" s="6">
+      <c r="F75" s="6">
         <v>3.39</v>
       </c>
-      <c r="F74" s="6">
+      <c r="G75" s="6">
         <v>3.39</v>
       </c>
-      <c r="G74" s="6"/>
-    </row>
-    <row r="75" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="4">
+      <c r="H75" s="6"/>
+    </row>
+    <row r="76" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B76" s="4">
         <v>45540</v>
       </c>
-      <c r="B75" s="4"/>
-      <c r="C75" s="5" t="s">
+      <c r="C76" s="4"/>
+      <c r="D76" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D75" s="5" t="s">
+      <c r="E76" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="E75" s="6">
-        <v>4.24</v>
-      </c>
-      <c r="F75" s="6">
-        <v>4.24</v>
-      </c>
-      <c r="G75" s="6"/>
-    </row>
-    <row r="76" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="4">
+      <c r="F76" s="6">
+        <v>4.24</v>
+      </c>
+      <c r="G76" s="6">
+        <v>4.24</v>
+      </c>
+      <c r="H76" s="6"/>
+    </row>
+    <row r="77" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B77" s="4">
         <v>45509</v>
       </c>
-      <c r="B76" s="4"/>
-      <c r="C76" s="5" t="s">
+      <c r="C77" s="4"/>
+      <c r="D77" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D76" s="5" t="s">
+      <c r="E77" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="E76" s="6">
+      <c r="F77" s="6">
         <v>5.09</v>
       </c>
-      <c r="F76" s="6">
+      <c r="G77" s="6">
         <v>5.09</v>
       </c>
-      <c r="G76" s="6"/>
-    </row>
-    <row r="77" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="59">
+      <c r="H77" s="6"/>
+    </row>
+    <row r="78" spans="2:8" s="61" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B78" s="58">
         <v>45536</v>
       </c>
-      <c r="B77" s="59"/>
-      <c r="C77" s="19" t="s">
+      <c r="C78" s="58"/>
+      <c r="D78" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="D77" s="19" t="s">
+      <c r="E78" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="E77" s="61">
-        <v>4.24</v>
-      </c>
-      <c r="F77" s="61">
+      <c r="F78" s="60">
+        <v>4.24</v>
+      </c>
+      <c r="G78" s="60">
         <v>1</v>
       </c>
-      <c r="G77" s="61"/>
-    </row>
-    <row r="78" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="17">
+      <c r="H78" s="60"/>
+    </row>
+    <row r="79" spans="2:8" s="19" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B79" s="17">
         <v>45566</v>
       </c>
-      <c r="B78" s="17"/>
-      <c r="C78" s="19" t="s">
+      <c r="C79" s="17"/>
+      <c r="D79" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="D78" s="19" t="s">
+      <c r="E79" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="E78" s="20">
+      <c r="F79" s="20">
         <v>3.39</v>
       </c>
-      <c r="F78" s="20">
+      <c r="G79" s="20">
         <v>1</v>
       </c>
-      <c r="G78" s="20"/>
-    </row>
-    <row r="79" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="59">
+      <c r="H79" s="20"/>
+    </row>
+    <row r="80" spans="2:8" s="61" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B80" s="58">
         <v>45566</v>
       </c>
-      <c r="B79" s="59"/>
-      <c r="C79" s="19" t="s">
+      <c r="C80" s="58"/>
+      <c r="D80" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="D79" s="62" t="s">
+      <c r="E80" s="61" t="s">
         <v>62</v>
       </c>
-      <c r="E79" s="61">
+      <c r="F80" s="60">
         <v>5.09</v>
       </c>
-      <c r="F79" s="61">
+      <c r="G80" s="60">
         <v>1</v>
       </c>
-      <c r="G79" s="61"/>
-    </row>
-    <row r="80" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A80" s="59">
+      <c r="H80" s="60"/>
+    </row>
+    <row r="81" spans="2:8" s="61" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B81" s="58">
         <v>45566</v>
       </c>
-      <c r="B80" s="59"/>
-      <c r="C80" s="19" t="s">
+      <c r="C81" s="58"/>
+      <c r="D81" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="D80" s="62" t="s">
+      <c r="E81" s="61" t="s">
         <v>63</v>
       </c>
-      <c r="E80" s="61">
+      <c r="F81" s="60">
         <v>3.39</v>
       </c>
-      <c r="F80" s="61">
+      <c r="G81" s="60">
         <v>1</v>
       </c>
-      <c r="G80" s="61"/>
-    </row>
-    <row r="81" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="59">
+      <c r="H81" s="60"/>
+    </row>
+    <row r="82" spans="2:8" s="61" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B82" s="58">
         <v>45537</v>
       </c>
-      <c r="C81" s="19" t="s">
+      <c r="D82" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="D81" s="63" t="s">
+      <c r="E82" s="62" t="s">
         <v>90</v>
       </c>
-      <c r="E81" s="61">
-        <v>4.24</v>
-      </c>
-      <c r="F81" s="61">
+      <c r="F82" s="60">
+        <v>4.24</v>
+      </c>
+      <c r="G82" s="60">
         <v>1</v>
       </c>
-      <c r="G81" s="61"/>
-    </row>
-    <row r="82" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A82" s="59">
+      <c r="H82" s="60"/>
+    </row>
+    <row r="83" spans="2:8" s="61" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B83" s="58">
         <v>45537</v>
       </c>
-      <c r="C82" s="19" t="s">
+      <c r="D83" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="D82" s="63" t="s">
+      <c r="E83" s="62" t="s">
         <v>99</v>
       </c>
-      <c r="E82" s="61">
-        <v>4.24</v>
-      </c>
-      <c r="F82" s="61">
+      <c r="F83" s="60">
+        <v>4.24</v>
+      </c>
+      <c r="G83" s="60">
         <v>1</v>
       </c>
-      <c r="G82" s="61"/>
-    </row>
-    <row r="83" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A83" s="59">
+      <c r="H83" s="60"/>
+    </row>
+    <row r="84" spans="2:8" s="61" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B84" s="58">
         <v>45550</v>
       </c>
-      <c r="C83" s="19" t="s">
+      <c r="D84" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="D83" s="62" t="s">
+      <c r="E84" s="61" t="s">
         <v>103</v>
       </c>
-      <c r="E83" s="61">
+      <c r="F84" s="60">
         <v>3.39</v>
       </c>
-      <c r="F83" s="61">
+      <c r="G84" s="60">
         <v>1</v>
       </c>
-      <c r="G83" s="61"/>
-    </row>
-    <row r="85" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="59">
+      <c r="H84" s="60"/>
+    </row>
+    <row r="86" spans="2:8" s="61" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B86" s="58">
         <v>45572</v>
       </c>
-      <c r="B85" s="68">
+      <c r="C86" s="67">
         <v>45658</v>
       </c>
-      <c r="C85" s="19" t="s">
+      <c r="D86" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="D85" s="63" t="s">
+      <c r="E86" s="62" t="s">
         <v>275</v>
       </c>
-      <c r="E85" s="61">
-        <v>4.24</v>
-      </c>
-      <c r="F85" s="61">
+      <c r="F86" s="60">
+        <v>4.24</v>
+      </c>
+      <c r="G86" s="60">
         <v>1</v>
       </c>
-      <c r="G85" s="61"/>
-    </row>
-    <row r="86" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A86" s="59">
+      <c r="H86" s="60"/>
+    </row>
+    <row r="87" spans="2:8" s="61" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B87" s="58">
         <v>45572</v>
       </c>
-      <c r="B86" s="68">
+      <c r="C87" s="67">
         <v>45658</v>
       </c>
-      <c r="C86" s="19" t="s">
+      <c r="D87" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="D86" s="63" t="s">
+      <c r="E87" s="62" t="s">
         <v>276</v>
       </c>
-      <c r="E86" s="61">
-        <v>4.24</v>
-      </c>
-      <c r="F86" s="61">
+      <c r="F87" s="60">
+        <v>4.24</v>
+      </c>
+      <c r="G87" s="60">
         <v>1</v>
       </c>
-      <c r="G86" s="61"/>
-    </row>
-    <row r="87" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A87" s="59">
+      <c r="H87" s="60"/>
+    </row>
+    <row r="88" spans="2:8" s="61" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B88" s="58">
         <v>45572</v>
       </c>
-      <c r="B87" s="68">
+      <c r="C88" s="67">
         <v>45658</v>
       </c>
-      <c r="C87" s="19" t="s">
+      <c r="D88" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="D87" s="63" t="s">
+      <c r="E88" s="62" t="s">
         <v>277</v>
       </c>
-      <c r="E87" s="61">
+      <c r="F88" s="60">
         <v>5.09</v>
       </c>
-      <c r="F87" s="61">
+      <c r="G88" s="60">
         <v>1</v>
       </c>
-      <c r="G87" s="61"/>
-    </row>
-    <row r="88" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A88" s="59">
+      <c r="H88" s="60"/>
+    </row>
+    <row r="89" spans="2:8" s="61" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B89" s="58">
         <v>45572</v>
       </c>
-      <c r="B88" s="68">
+      <c r="C89" s="67">
         <v>45658</v>
       </c>
-      <c r="C88" s="19" t="s">
+      <c r="D89" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="D88" s="63" t="s">
+      <c r="E89" s="62" t="s">
         <v>278</v>
       </c>
-      <c r="E88" s="61">
+      <c r="F89" s="60">
         <v>5.09</v>
       </c>
-      <c r="F88" s="61">
+      <c r="G89" s="60">
         <v>1</v>
       </c>
-      <c r="G88" s="61"/>
-    </row>
-    <row r="89" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A89" s="59">
+      <c r="H89" s="60"/>
+    </row>
+    <row r="90" spans="2:8" s="61" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B90" s="58">
         <v>45572</v>
       </c>
-      <c r="B89" s="68">
+      <c r="C90" s="67">
         <v>45658</v>
       </c>
-      <c r="C89" s="19" t="s">
+      <c r="D90" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="D89" s="63" t="s">
+      <c r="E90" s="62" t="s">
         <v>279</v>
       </c>
-      <c r="E89" s="61">
-        <v>4.24</v>
-      </c>
-      <c r="F89" s="61">
+      <c r="F90" s="60">
+        <v>4.24</v>
+      </c>
+      <c r="G90" s="60">
         <v>1</v>
       </c>
-      <c r="G89" s="61"/>
-    </row>
-    <row r="90" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A90" s="59">
+      <c r="H90" s="60"/>
+    </row>
+    <row r="91" spans="2:8" s="61" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B91" s="58">
         <v>45572</v>
       </c>
-      <c r="B90" s="68">
+      <c r="C91" s="67">
         <v>45658</v>
       </c>
-      <c r="C90" s="19" t="s">
+      <c r="D91" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="D90" s="63" t="s">
+      <c r="E91" s="62" t="s">
         <v>280</v>
       </c>
-      <c r="E90" s="61">
+      <c r="F91" s="60">
         <v>3.39</v>
       </c>
-      <c r="F90" s="61">
+      <c r="G91" s="60">
         <v>1</v>
       </c>
-      <c r="G90" s="61"/>
-    </row>
-    <row r="91" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A91" s="59">
+      <c r="H91" s="60"/>
+    </row>
+    <row r="92" spans="2:8" s="61" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B92" s="58">
         <v>45572</v>
       </c>
-      <c r="B91" s="68">
+      <c r="C92" s="67">
         <v>45658</v>
       </c>
-      <c r="C91" s="19" t="s">
+      <c r="D92" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="D91" s="63" t="s">
+      <c r="E92" s="62" t="s">
         <v>281</v>
       </c>
-      <c r="E91" s="61">
-        <v>4.24</v>
-      </c>
-      <c r="F91" s="61">
+      <c r="F92" s="60">
+        <v>4.24</v>
+      </c>
+      <c r="G92" s="60">
         <v>1</v>
       </c>
-      <c r="G91" s="61"/>
-    </row>
-    <row r="92" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A92" s="59">
+      <c r="H92" s="60"/>
+    </row>
+    <row r="93" spans="2:8" s="61" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B93" s="58">
         <v>45572</v>
       </c>
-      <c r="B92" s="68">
+      <c r="C93" s="67">
         <v>45658</v>
       </c>
-      <c r="C92" s="19" t="s">
+      <c r="D93" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="D92" s="63" t="s">
+      <c r="E93" s="62" t="s">
         <v>282</v>
       </c>
-      <c r="E92" s="61">
-        <v>4.24</v>
-      </c>
-      <c r="F92" s="61">
+      <c r="F93" s="60">
+        <v>4.24</v>
+      </c>
+      <c r="G93" s="60">
         <v>1</v>
       </c>
-      <c r="G92" s="61"/>
-    </row>
-    <row r="93" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A93" s="59">
+      <c r="H93" s="60"/>
+    </row>
+    <row r="94" spans="2:8" s="61" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B94" s="58">
         <v>45572</v>
       </c>
-      <c r="B93" s="68">
+      <c r="C94" s="67">
         <v>45658</v>
       </c>
-      <c r="C93" s="19" t="s">
+      <c r="D94" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="D93" s="63" t="s">
+      <c r="E94" s="62" t="s">
         <v>283</v>
       </c>
-      <c r="E93" s="61">
+      <c r="F94" s="60">
         <v>5.09</v>
       </c>
-      <c r="F93" s="61">
+      <c r="G94" s="60">
         <v>1</v>
       </c>
-      <c r="G93" s="61"/>
-    </row>
-    <row r="94" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A94" s="59">
+      <c r="H94" s="60"/>
+    </row>
+    <row r="95" spans="2:8" s="61" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B95" s="58">
         <v>45572</v>
       </c>
-      <c r="B94" s="68">
+      <c r="C95" s="67">
         <v>45658</v>
       </c>
-      <c r="C94" s="19" t="s">
+      <c r="D95" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="D94" s="63" t="s">
+      <c r="E95" s="62" t="s">
         <v>284</v>
       </c>
-      <c r="E94" s="61">
+      <c r="F95" s="60">
         <v>5.09</v>
       </c>
-      <c r="F94" s="61">
+      <c r="G95" s="60">
         <v>1</v>
       </c>
-      <c r="G94" s="61"/>
-    </row>
-    <row r="95" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A95" s="59">
+      <c r="H95" s="60"/>
+    </row>
+    <row r="96" spans="2:8" s="61" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B96" s="58">
         <v>45572</v>
       </c>
-      <c r="B95" s="68">
+      <c r="C96" s="67">
         <v>45658</v>
       </c>
-      <c r="C95" s="19" t="s">
+      <c r="D96" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="D95" s="63" t="s">
+      <c r="E96" s="62" t="s">
         <v>285</v>
       </c>
-      <c r="E95" s="61">
+      <c r="F96" s="60">
         <v>5.09</v>
       </c>
-      <c r="F95" s="61">
+      <c r="G96" s="60">
         <v>1</v>
       </c>
-      <c r="G95" s="61"/>
-    </row>
-    <row r="96" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A96" s="59">
+      <c r="H96" s="60"/>
+    </row>
+    <row r="97" spans="1:8" s="61" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B97" s="58">
         <v>45572</v>
       </c>
-      <c r="B96" s="68">
+      <c r="C97" s="67">
         <v>45658</v>
       </c>
-      <c r="C96" s="19" t="s">
+      <c r="D97" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="D96" s="63" t="s">
+      <c r="E97" s="62" t="s">
         <v>286</v>
       </c>
-      <c r="E96" s="61">
-        <v>4.24</v>
-      </c>
-      <c r="F96" s="61">
+      <c r="F97" s="60">
+        <v>4.24</v>
+      </c>
+      <c r="G97" s="60">
         <v>1</v>
       </c>
-      <c r="G96" s="61"/>
-    </row>
-    <row r="98" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A98" s="4">
+      <c r="H97" s="60"/>
+    </row>
+    <row r="99" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B99" s="4">
         <v>45536</v>
       </c>
-      <c r="B98" s="4">
+      <c r="C99" s="4">
         <v>45536</v>
       </c>
-      <c r="C98" s="5" t="s">
+      <c r="D99" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D98" s="39" t="s">
+      <c r="E99" s="39" t="s">
         <v>300</v>
       </c>
-      <c r="E98" s="6">
+      <c r="F99" s="6">
         <v>5.09</v>
       </c>
-      <c r="F98" s="6">
+      <c r="G99" s="6">
         <v>5.09</v>
       </c>
-      <c r="G98" s="11">
+      <c r="H99" s="11">
         <v>7.75</v>
       </c>
+    </row>
+    <row r="100" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B100" s="4">
+        <v>45536</v>
+      </c>
+      <c r="C100" s="4">
+        <v>45505</v>
+      </c>
+      <c r="D100" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E100" s="39" t="s">
+        <v>438</v>
+      </c>
+      <c r="F100" s="6">
+        <v>5.09</v>
+      </c>
+      <c r="G100" s="6">
+        <v>5.09</v>
+      </c>
+      <c r="H100" s="11">
+        <v>6.66</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" s="77" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="B101" s="78">
+        <v>45474</v>
+      </c>
+      <c r="C101" s="78">
+        <v>45474</v>
+      </c>
+      <c r="D101" s="77" t="s">
+        <v>34</v>
+      </c>
+      <c r="E101" s="76" t="s">
+        <v>439</v>
+      </c>
+      <c r="F101" s="79">
+        <v>6.79</v>
+      </c>
+      <c r="G101" s="79">
+        <v>6.79</v>
+      </c>
+      <c r="H101" s="80">
+        <v>6.66</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" s="82" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B102" s="84">
+        <v>45505</v>
+      </c>
+      <c r="C102" s="84">
+        <v>45505</v>
+      </c>
+      <c r="D102" s="82" t="s">
+        <v>34</v>
+      </c>
+      <c r="E102" s="87" t="s">
+        <v>440</v>
+      </c>
+      <c r="F102" s="86">
+        <v>5.09</v>
+      </c>
+      <c r="G102" s="86">
+        <v>5.09</v>
+      </c>
+      <c r="H102" s="86"/>
+    </row>
+    <row r="103" spans="1:8" s="83" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B103" s="88">
+        <v>45505</v>
+      </c>
+      <c r="C103" s="88">
+        <v>45505</v>
+      </c>
+      <c r="D103" s="82" t="s">
+        <v>34</v>
+      </c>
+      <c r="E103" s="87" t="s">
+        <v>441</v>
+      </c>
+      <c r="F103" s="89">
+        <v>4.25</v>
+      </c>
+      <c r="G103" s="89">
+        <v>4.24</v>
+      </c>
+      <c r="H103" s="89"/>
+    </row>
+    <row r="104" spans="1:8" s="82" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B104" s="84">
+        <v>45505</v>
+      </c>
+      <c r="C104" s="84">
+        <v>45536</v>
+      </c>
+      <c r="D104" s="82" t="s">
+        <v>34</v>
+      </c>
+      <c r="E104" s="85" t="s">
+        <v>442</v>
+      </c>
+      <c r="F104" s="86">
+        <v>4.24</v>
+      </c>
+      <c r="G104" s="86">
+        <v>4.24</v>
+      </c>
+      <c r="H104" s="86"/>
+    </row>
+    <row r="105" spans="1:8" s="82" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A105" s="84"/>
+      <c r="B105" s="84">
+        <v>45536</v>
+      </c>
+      <c r="C105" s="84">
+        <v>45536</v>
+      </c>
+      <c r="D105" s="82" t="s">
+        <v>34</v>
+      </c>
+      <c r="E105" s="82" t="s">
+        <v>443</v>
+      </c>
+      <c r="F105" s="86">
+        <v>5.09</v>
+      </c>
+      <c r="G105" s="86">
+        <v>5.09</v>
+      </c>
+      <c r="H105" s="86"/>
+    </row>
+    <row r="106" spans="1:8" s="82" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B106" s="84">
+        <v>45536</v>
+      </c>
+      <c r="C106" s="84">
+        <v>45536</v>
+      </c>
+      <c r="D106" s="82" t="s">
+        <v>34</v>
+      </c>
+      <c r="E106" s="82" t="s">
+        <v>444</v>
+      </c>
+      <c r="F106" s="86">
+        <v>5.09</v>
+      </c>
+      <c r="G106" s="86">
+        <v>5.09</v>
+      </c>
+      <c r="H106" s="86"/>
+    </row>
+    <row r="107" spans="1:8" s="82" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B107" s="84">
+        <v>45505</v>
+      </c>
+      <c r="C107" s="84">
+        <v>45505</v>
+      </c>
+      <c r="D107" s="82" t="s">
+        <v>34</v>
+      </c>
+      <c r="E107" s="87" t="s">
+        <v>445</v>
+      </c>
+      <c r="F107" s="86">
+        <v>4.24</v>
+      </c>
+      <c r="G107" s="86">
+        <v>4.24</v>
+      </c>
+      <c r="H107" s="86"/>
+    </row>
+    <row r="108" spans="1:8" s="82" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B108" s="84">
+        <v>45536</v>
+      </c>
+      <c r="C108" s="84">
+        <v>45536</v>
+      </c>
+      <c r="D108" s="82" t="s">
+        <v>34</v>
+      </c>
+      <c r="E108" s="87" t="s">
+        <v>446</v>
+      </c>
+      <c r="F108" s="86">
+        <v>4.24</v>
+      </c>
+      <c r="G108" s="86">
+        <v>4.24</v>
+      </c>
+      <c r="H108" s="86"/>
+    </row>
+    <row r="109" spans="1:8" s="82" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B109" s="84">
+        <v>45536</v>
+      </c>
+      <c r="C109" s="84">
+        <v>45536</v>
+      </c>
+      <c r="D109" s="82" t="s">
+        <v>34</v>
+      </c>
+      <c r="E109" s="82" t="s">
+        <v>447</v>
+      </c>
+      <c r="F109" s="86">
+        <v>4.24</v>
+      </c>
+      <c r="G109" s="86">
+        <v>4.24</v>
+      </c>
+      <c r="H109" s="90"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D31" r:id="rId1" display="https://www.hovistocose.it/comics/MARVEL+PRH/X-FORCE+5+CLAYTON+CRAIN+BETSY+BRADDOCK+VAR/SEP240740" xr:uid="{2E79ED5F-D055-43BA-B7D2-4520ABA90C02}"/>
+    <hyperlink ref="E32" r:id="rId1" display="https://www.hovistocose.it/comics/MARVEL+PRH/X-FORCE+5+CLAYTON+CRAIN+BETSY+BRADDOCK+VAR/SEP240740" xr:uid="{2E79ED5F-D055-43BA-B7D2-4520ABA90C02}"/>
   </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3F7DA5E-6146-475C-B9D2-29274C996FAD}">
+  <dimension ref="A5:A156"/>
+  <sheetViews>
+    <sheetView topLeftCell="A144" zoomScale="216" zoomScaleNormal="216" workbookViewId="0">
+      <selection activeCell="A152" sqref="A152"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="100.26953125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A5" s="74" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A7" s="72" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A8" s="72" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A9" s="72" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="28" x14ac:dyDescent="0.35">
+      <c r="A10" s="72" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A13" s="73" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A14" s="72" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A15" s="72" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A16" s="72" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A17" s="72" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A18" s="72" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A20" s="74" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A22" s="75" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A23" s="75" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A24" s="72" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A25" s="72" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A28" s="73" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A29" s="72" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A30" s="72" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A31" s="72" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A32" s="72" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A33" s="72" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A36" s="74" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A38" s="72" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A39" s="72" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A40" s="72" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A41" s="72" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A42" s="72" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A43" s="72" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A44" s="72" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A45" s="72" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A48" s="74" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A50" s="72" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A51" s="72" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A52" s="72" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A53" s="72" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A54" s="72" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A57" s="74" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A58" s="75" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A61" s="73" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A62" s="72" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A63" s="72" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A64" s="72" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A65" s="72" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A66" s="72" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A67" s="72" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A68" s="72" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A70" s="73" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A71" s="72" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A72" s="75" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A75" s="73" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A76" s="72" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A77" s="72" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A78" s="72" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A79" s="72" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A82" s="73" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A83" s="72" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A84" s="72" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A85" s="72" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A86" s="72" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A87" s="72" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A88" s="72" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A91" s="73" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A92" s="72" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A95" s="73" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A96" s="72" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A97" s="72" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A100" s="73" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A101" s="72" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A102" s="72" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A103" s="72" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A104" s="72" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A106" s="73" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A107" s="72" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A108" s="72" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A109" s="72" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A110" s="72" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A111" s="72" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A113" s="73" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A114" s="72" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A115" s="72" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A116" s="72" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A117" s="72" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A120" s="73" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A121" s="72" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A122" s="72" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A123" s="72" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A125" s="73" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A126" s="72" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A127" s="72" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A128" s="72" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A130" s="73" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A131" s="72" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A132" s="72" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A133" s="72" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A134" s="72" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A135" s="72" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A136" s="72" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A138" s="73" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A139" s="72" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A140" s="72" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A141" s="72" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A142" s="72" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A143" s="72" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A146" s="73" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A147" s="72" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A148" s="72" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A149" s="72" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A152" s="73" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A153" s="72" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A154" s="72" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A155" s="72" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A156" s="72" t="s">
+        <v>430</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29F7F567-3378-4135-B107-67687C5CCB7F}">
-  <dimension ref="A4:G75"/>
+  <dimension ref="A4:G89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" zoomScale="188" zoomScaleNormal="188" workbookViewId="0">
-      <selection activeCell="F77" sqref="F77"/>
+    <sheetView tabSelected="1" topLeftCell="A68" zoomScale="188" zoomScaleNormal="188" workbookViewId="0">
+      <selection activeCell="B93" sqref="B93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6699,6 +8044,286 @@
       </c>
       <c r="F75" s="2">
         <v>6</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A76" s="1">
+        <v>45591</v>
+      </c>
+      <c r="B76" t="s">
+        <v>319</v>
+      </c>
+      <c r="C76" t="s">
+        <v>319</v>
+      </c>
+      <c r="D76" t="s">
+        <v>257</v>
+      </c>
+      <c r="E76">
+        <v>58</v>
+      </c>
+      <c r="F76" s="2">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A77" s="1">
+        <v>45591</v>
+      </c>
+      <c r="B77" t="s">
+        <v>20</v>
+      </c>
+      <c r="C77" t="s">
+        <v>115</v>
+      </c>
+      <c r="D77" t="s">
+        <v>155</v>
+      </c>
+      <c r="E77">
+        <v>31</v>
+      </c>
+      <c r="F77" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A78" s="1">
+        <v>45591</v>
+      </c>
+      <c r="B78" t="s">
+        <v>5</v>
+      </c>
+      <c r="C78" t="s">
+        <v>5</v>
+      </c>
+      <c r="D78" t="s">
+        <v>431</v>
+      </c>
+      <c r="E78">
+        <v>25</v>
+      </c>
+      <c r="F78" s="2">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A79" s="1">
+        <v>45591</v>
+      </c>
+      <c r="B79" t="s">
+        <v>14</v>
+      </c>
+      <c r="C79" t="s">
+        <v>115</v>
+      </c>
+      <c r="D79" t="s">
+        <v>118</v>
+      </c>
+      <c r="E79">
+        <v>7</v>
+      </c>
+      <c r="F79" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A80" s="1">
+        <v>45592</v>
+      </c>
+      <c r="B80" t="s">
+        <v>5</v>
+      </c>
+      <c r="C80" t="s">
+        <v>5</v>
+      </c>
+      <c r="D80" t="s">
+        <v>8</v>
+      </c>
+      <c r="E80">
+        <v>72</v>
+      </c>
+      <c r="F80" s="2">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A81" s="1">
+        <v>45592</v>
+      </c>
+      <c r="B81" t="s">
+        <v>20</v>
+      </c>
+      <c r="C81" t="s">
+        <v>115</v>
+      </c>
+      <c r="D81" t="s">
+        <v>152</v>
+      </c>
+      <c r="E81">
+        <v>53</v>
+      </c>
+      <c r="F81" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A82" s="1">
+        <v>45592</v>
+      </c>
+      <c r="B82" t="s">
+        <v>5</v>
+      </c>
+      <c r="C82" t="s">
+        <v>5</v>
+      </c>
+      <c r="D82" t="s">
+        <v>169</v>
+      </c>
+      <c r="E82">
+        <v>190</v>
+      </c>
+      <c r="F82" s="2">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A83" s="1">
+        <v>45593</v>
+      </c>
+      <c r="B83" t="s">
+        <v>5</v>
+      </c>
+      <c r="C83" t="s">
+        <v>5</v>
+      </c>
+      <c r="D83" t="s">
+        <v>260</v>
+      </c>
+      <c r="E83">
+        <v>761</v>
+      </c>
+      <c r="F83" s="2">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A84" s="1">
+        <v>45593</v>
+      </c>
+      <c r="B84" t="s">
+        <v>20</v>
+      </c>
+      <c r="C84" t="s">
+        <v>115</v>
+      </c>
+      <c r="D84" t="s">
+        <v>448</v>
+      </c>
+      <c r="E84">
+        <v>4</v>
+      </c>
+      <c r="F84" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A85" s="1">
+        <v>45593</v>
+      </c>
+      <c r="B85" t="s">
+        <v>20</v>
+      </c>
+      <c r="C85" t="s">
+        <v>20</v>
+      </c>
+      <c r="D85" t="s">
+        <v>181</v>
+      </c>
+      <c r="E85">
+        <v>6</v>
+      </c>
+      <c r="F85" s="2">
+        <v>4.24</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A86" s="1">
+        <v>45593</v>
+      </c>
+      <c r="B86" t="s">
+        <v>20</v>
+      </c>
+      <c r="C86" t="s">
+        <v>20</v>
+      </c>
+      <c r="D86" t="s">
+        <v>449</v>
+      </c>
+      <c r="E86">
+        <v>1</v>
+      </c>
+      <c r="F86" s="2">
+        <v>4.24</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A87" s="1">
+        <v>45594</v>
+      </c>
+      <c r="B87" t="s">
+        <v>5</v>
+      </c>
+      <c r="C87" t="s">
+        <v>5</v>
+      </c>
+      <c r="D87" t="s">
+        <v>450</v>
+      </c>
+      <c r="E87">
+        <v>399</v>
+      </c>
+      <c r="F87" s="2">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A88" s="1">
+        <v>45594</v>
+      </c>
+      <c r="B88" t="s">
+        <v>156</v>
+      </c>
+      <c r="C88" t="s">
+        <v>30</v>
+      </c>
+      <c r="D88" t="s">
+        <v>451</v>
+      </c>
+      <c r="E88">
+        <v>1</v>
+      </c>
+      <c r="F88" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A89" s="1">
+        <v>45594</v>
+      </c>
+      <c r="B89" t="s">
+        <v>20</v>
+      </c>
+      <c r="C89" t="s">
+        <v>20</v>
+      </c>
+      <c r="D89" t="s">
+        <v>181</v>
+      </c>
+      <c r="E89">
+        <v>7</v>
+      </c>
+      <c r="F89" s="2">
+        <v>3.39</v>
       </c>
     </row>
   </sheetData>
@@ -6721,23 +8346,23 @@
     <col min="4" max="4" width="47.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:6" s="62" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="59">
+    <row r="3" spans="1:6" s="61" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="58">
         <v>45445</v>
       </c>
-      <c r="B3" s="59">
+      <c r="B3" s="58">
         <v>45570</v>
       </c>
-      <c r="C3" s="62" t="s">
+      <c r="C3" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="60" t="s">
+      <c r="D3" s="59" t="s">
         <v>78</v>
       </c>
-      <c r="E3" s="61">
+      <c r="E3" s="60">
         <v>30.4</v>
       </c>
-      <c r="F3" s="61">
+      <c r="F3" s="60">
         <v>3.04</v>
       </c>
     </row>
@@ -7281,10 +8906,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A4:E30"/>
+  <dimension ref="A4:E34"/>
   <sheetViews>
     <sheetView topLeftCell="A14" zoomScale="236" zoomScaleNormal="236" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7497,7 +9122,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" s="64">
+      <c r="A17" s="63">
         <v>45570</v>
       </c>
       <c r="B17" t="s">
@@ -7732,6 +9357,71 @@
       </c>
       <c r="E30" s="2">
         <v>8.9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A31" s="1">
+        <v>45584</v>
+      </c>
+      <c r="B31" t="s">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>42</v>
+      </c>
+      <c r="D31" t="s">
+        <v>6</v>
+      </c>
+      <c r="E31" s="2">
+        <v>12.99</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A32" s="1">
+        <v>45591</v>
+      </c>
+      <c r="B32" t="s">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>43</v>
+      </c>
+      <c r="D32" t="s">
+        <v>6</v>
+      </c>
+      <c r="E32" s="2">
+        <v>12.99</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A33" s="1">
+        <v>45591</v>
+      </c>
+      <c r="B33" t="s">
+        <v>433</v>
+      </c>
+      <c r="C33">
+        <v>35</v>
+      </c>
+      <c r="D33" t="s">
+        <v>5</v>
+      </c>
+      <c r="E33" s="2">
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A34" s="1">
+        <v>45591</v>
+      </c>
+      <c r="B34" t="s">
+        <v>437</v>
+      </c>
+      <c r="C34">
+        <v>24</v>
+      </c>
+      <c r="D34" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -7827,24 +9517,24 @@
       </c>
       <c r="H6" s="23"/>
     </row>
-    <row r="7" spans="1:8" s="62" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="59">
+    <row r="7" spans="1:8" s="61" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="58">
         <v>45543</v>
       </c>
-      <c r="B7" s="59"/>
-      <c r="C7" s="62" t="s">
+      <c r="B7" s="58"/>
+      <c r="C7" s="61" t="s">
         <v>74</v>
       </c>
-      <c r="E7" s="61">
+      <c r="E7" s="60">
         <v>7.6</v>
       </c>
-      <c r="F7" s="61" t="s">
+      <c r="F7" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="62" t="s">
+      <c r="G7" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="61">
+      <c r="H7" s="60">
         <v>1</v>
       </c>
     </row>
@@ -7881,18 +9571,19 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71EB8A3E-5AD9-4D3B-8024-55CC93268E2E}">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView zoomScale="196" zoomScaleNormal="196" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:XFD13"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="14.6328125" customWidth="1"/>
     <col min="3" max="3" width="65" style="14" customWidth="1"/>
-    <col min="4" max="4" width="8.7265625" style="47"/>
+    <col min="4" max="4" width="8.7265625" style="46"/>
     <col min="5" max="5" width="8.7265625" style="15"/>
+    <col min="6" max="6" width="13.54296875" customWidth="1"/>
     <col min="7" max="7" width="15.453125" customWidth="1"/>
     <col min="8" max="8" width="8.7265625" style="2"/>
   </cols>
@@ -7907,7 +9598,7 @@
       <c r="C1" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="D1" s="46">
+      <c r="D1" s="45">
         <v>1</v>
       </c>
       <c r="E1" s="6">
@@ -7930,7 +9621,7 @@
       <c r="C2" s="39" t="s">
         <v>84</v>
       </c>
-      <c r="D2" s="46">
+      <c r="D2" s="45">
         <v>1</v>
       </c>
       <c r="E2" s="6">
@@ -7953,7 +9644,7 @@
       <c r="C3" s="39" t="s">
         <v>104</v>
       </c>
-      <c r="D3" s="46">
+      <c r="D3" s="45">
         <v>1</v>
       </c>
       <c r="E3" s="6">
@@ -7973,13 +9664,13 @@
       <c r="B4" s="4">
         <v>45554</v>
       </c>
-      <c r="C4" s="49" t="s">
+      <c r="C4" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="46">
+      <c r="D4" s="45">
         <v>9</v>
       </c>
-      <c r="E4" s="50">
+      <c r="E4" s="49">
         <v>6</v>
       </c>
       <c r="F4" s="5" t="s">
@@ -8000,7 +9691,7 @@
       <c r="C7" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="D7" s="48">
+      <c r="D7" s="47">
         <v>1</v>
       </c>
       <c r="E7" s="16">
@@ -8020,10 +9711,10 @@
       <c r="C8" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="D8" s="53">
+      <c r="D8" s="52">
         <v>1</v>
       </c>
-      <c r="E8" s="52">
+      <c r="E8" s="51">
         <v>12.26</v>
       </c>
       <c r="G8" s="19" t="s">
@@ -8040,13 +9731,13 @@
       <c r="B10" s="4">
         <v>45570</v>
       </c>
-      <c r="C10" s="49" t="s">
+      <c r="C10" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="46">
+      <c r="D10" s="45">
         <v>10</v>
       </c>
-      <c r="E10" s="50">
+      <c r="E10" s="49">
         <v>6</v>
       </c>
       <c r="F10" s="5" t="s">
@@ -8064,13 +9755,13 @@
       <c r="B11" s="4">
         <v>45577</v>
       </c>
-      <c r="C11" s="49" t="s">
+      <c r="C11" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="46">
+      <c r="D11" s="45">
         <v>11</v>
       </c>
-      <c r="E11" s="50">
+      <c r="E11" s="49">
         <v>6</v>
       </c>
       <c r="F11" s="5" t="s">
@@ -8088,13 +9779,13 @@
       <c r="B12" s="4">
         <v>45577</v>
       </c>
-      <c r="C12" s="49" t="s">
+      <c r="C12" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="46">
+      <c r="D12" s="45">
         <v>12</v>
       </c>
-      <c r="E12" s="50">
+      <c r="E12" s="49">
         <v>6</v>
       </c>
       <c r="F12" s="5" t="s">
@@ -8112,13 +9803,13 @@
       <c r="B13" s="24">
         <v>45584</v>
       </c>
-      <c r="C13" s="70" t="s">
+      <c r="C13" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="71">
+      <c r="D13" s="70">
         <v>13</v>
       </c>
-      <c r="E13" s="72">
+      <c r="E13" s="71">
         <v>6</v>
       </c>
       <c r="F13" s="26" t="s">
@@ -8128,6 +9819,78 @@
         <v>10</v>
       </c>
       <c r="H13" s="27"/>
+    </row>
+    <row r="14" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="4">
+        <v>45589</v>
+      </c>
+      <c r="B14" s="4">
+        <v>45591</v>
+      </c>
+      <c r="C14" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="45">
+        <v>14</v>
+      </c>
+      <c r="E14" s="49">
+        <v>8</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H14" s="6"/>
+    </row>
+    <row r="15" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="4">
+        <v>45589</v>
+      </c>
+      <c r="B15" s="4">
+        <v>45591</v>
+      </c>
+      <c r="C15" s="48" t="s">
+        <v>434</v>
+      </c>
+      <c r="D15" s="45">
+        <v>1</v>
+      </c>
+      <c r="E15" s="49">
+        <v>15.9</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="H15" s="6"/>
+    </row>
+    <row r="16" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="4">
+        <v>45589</v>
+      </c>
+      <c r="B16" s="4">
+        <v>45591</v>
+      </c>
+      <c r="C16" s="48" t="s">
+        <v>436</v>
+      </c>
+      <c r="D16" s="45">
+        <v>1</v>
+      </c>
+      <c r="E16" s="49">
+        <v>15.9</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="H16" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8136,10 +9899,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42E6368F-0B3B-4DF8-8E74-C3A4A647A232}">
-  <dimension ref="A2:H53"/>
+  <dimension ref="A2:H60"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50"/>
+    <sheetView topLeftCell="A39" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="E60" sqref="E60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9052,152 +10815,152 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:8" s="58" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="54">
+    <row r="40" spans="1:8" s="57" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="53">
         <v>45566</v>
       </c>
-      <c r="B40" s="54">
+      <c r="B40" s="53">
         <v>45597</v>
       </c>
-      <c r="C40" s="55" t="s">
+      <c r="C40" s="54" t="s">
         <v>222</v>
       </c>
-      <c r="D40" s="56">
+      <c r="D40" s="55">
         <v>1</v>
       </c>
-      <c r="E40" s="57">
+      <c r="E40" s="56">
         <v>6.65</v>
       </c>
-      <c r="F40" s="56" t="s">
+      <c r="F40" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="G40" s="56" t="s">
+      <c r="G40" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="H40" s="57">
+      <c r="H40" s="56">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:8" s="58" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="54">
+    <row r="41" spans="1:8" s="57" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="53">
         <v>45566</v>
       </c>
-      <c r="B41" s="54">
+      <c r="B41" s="53">
         <v>45597</v>
       </c>
-      <c r="C41" s="55" t="s">
+      <c r="C41" s="54" t="s">
         <v>223</v>
       </c>
-      <c r="D41" s="56">
+      <c r="D41" s="55">
         <v>1</v>
       </c>
-      <c r="E41" s="57">
+      <c r="E41" s="56">
         <v>6.65</v>
       </c>
-      <c r="F41" s="56" t="s">
+      <c r="F41" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="G41" s="56" t="s">
+      <c r="G41" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="H41" s="57">
+      <c r="H41" s="56">
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:8" s="58" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="54">
+    <row r="42" spans="1:8" s="57" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="53">
         <v>45566</v>
       </c>
-      <c r="B42" s="54">
+      <c r="B42" s="53">
         <v>45597</v>
       </c>
-      <c r="C42" s="55" t="s">
+      <c r="C42" s="54" t="s">
         <v>224</v>
       </c>
-      <c r="D42" s="56">
+      <c r="D42" s="55">
         <v>1</v>
       </c>
-      <c r="E42" s="57">
+      <c r="E42" s="56">
         <v>6.65</v>
       </c>
-      <c r="F42" s="56" t="s">
+      <c r="F42" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="G42" s="56" t="s">
+      <c r="G42" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="H42" s="57">
+      <c r="H42" s="56">
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:8" s="62" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="59">
+    <row r="43" spans="1:8" s="61" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="58">
         <v>45566</v>
       </c>
-      <c r="B43" s="59">
+      <c r="B43" s="58">
         <v>45597</v>
       </c>
-      <c r="C43" s="63" t="s">
+      <c r="C43" s="62" t="s">
         <v>225</v>
       </c>
-      <c r="D43" s="56">
+      <c r="D43" s="55">
         <v>3</v>
       </c>
-      <c r="E43" s="61">
-        <v>4.24</v>
-      </c>
-      <c r="F43" s="56" t="s">
+      <c r="E43" s="60">
+        <v>4.24</v>
+      </c>
+      <c r="F43" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="G43" s="56"/>
-      <c r="H43" s="61">
+      <c r="G43" s="55"/>
+      <c r="H43" s="60">
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:8" s="62" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="59">
+    <row r="45" spans="1:8" s="61" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="58">
         <v>45566</v>
       </c>
-      <c r="B45" s="59">
+      <c r="B45" s="58">
         <v>45627</v>
       </c>
-      <c r="C45" s="55" t="s">
+      <c r="C45" s="54" t="s">
         <v>220</v>
       </c>
-      <c r="D45" s="62">
+      <c r="D45" s="61">
         <v>3</v>
       </c>
-      <c r="E45" s="61">
+      <c r="E45" s="60">
         <v>5.09</v>
       </c>
-      <c r="F45" s="62" t="s">
+      <c r="F45" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="G45" s="56"/>
-      <c r="H45" s="61">
+      <c r="G45" s="55"/>
+      <c r="H45" s="60">
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:8" s="62" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="59">
+    <row r="46" spans="1:8" s="61" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="58">
         <v>45566</v>
       </c>
-      <c r="B46" s="59">
+      <c r="B46" s="58">
         <v>45627</v>
       </c>
-      <c r="C46" s="55" t="s">
+      <c r="C46" s="54" t="s">
         <v>196</v>
       </c>
-      <c r="D46" s="62">
+      <c r="D46" s="61">
         <v>4</v>
       </c>
-      <c r="E46" s="61">
-        <v>4.24</v>
-      </c>
-      <c r="F46" s="62" t="s">
+      <c r="E46" s="60">
+        <v>4.24</v>
+      </c>
+      <c r="F46" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="H46" s="61"/>
+      <c r="H46" s="60"/>
     </row>
     <row r="47" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A47" s="4">
@@ -9372,6 +11135,188 @@
         <v>10</v>
       </c>
       <c r="H53" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="24">
+        <v>45589</v>
+      </c>
+      <c r="B54" s="24">
+        <v>45591</v>
+      </c>
+      <c r="C54" s="26" t="s">
+        <v>152</v>
+      </c>
+      <c r="D54" s="26">
+        <v>53</v>
+      </c>
+      <c r="E54" s="27">
+        <v>3</v>
+      </c>
+      <c r="F54" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="G54" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="H54" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="4">
+        <v>45589</v>
+      </c>
+      <c r="B55" s="4">
+        <v>45591</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D55" s="5">
+        <v>396</v>
+      </c>
+      <c r="E55" s="6">
+        <v>8.99</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G55" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H55" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="24">
+        <v>45591</v>
+      </c>
+      <c r="B56" s="24">
+        <v>45591</v>
+      </c>
+      <c r="C56" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="D56" s="26">
+        <v>45</v>
+      </c>
+      <c r="E56" s="27">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="F56" s="26" t="s">
+        <v>160</v>
+      </c>
+      <c r="G56" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="H56" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="24">
+        <v>45591</v>
+      </c>
+      <c r="B57" s="24">
+        <v>45591</v>
+      </c>
+      <c r="C57" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="D57" s="26">
+        <v>70</v>
+      </c>
+      <c r="E57" s="27">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="F57" s="26" t="s">
+        <v>160</v>
+      </c>
+      <c r="G57" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="H57" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="24">
+        <v>45591</v>
+      </c>
+      <c r="B58" s="24">
+        <v>45591</v>
+      </c>
+      <c r="C58" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="D58" s="26">
+        <v>37</v>
+      </c>
+      <c r="E58" s="27">
+        <v>6.9</v>
+      </c>
+      <c r="F58" s="26" t="s">
+        <v>160</v>
+      </c>
+      <c r="G58" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="H58" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="24">
+        <v>45593</v>
+      </c>
+      <c r="B59" s="24">
+        <v>45474</v>
+      </c>
+      <c r="C59" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="D59" s="26">
+        <v>5</v>
+      </c>
+      <c r="E59" s="27">
+        <v>3</v>
+      </c>
+      <c r="F59" s="26" t="s">
+        <v>160</v>
+      </c>
+      <c r="G59" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="H59" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="24">
+        <v>45593</v>
+      </c>
+      <c r="B60" s="24">
+        <v>45505</v>
+      </c>
+      <c r="C60" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="D60" s="26">
+        <v>6</v>
+      </c>
+      <c r="E60" s="27">
+        <v>3</v>
+      </c>
+      <c r="F60" s="26" t="s">
+        <v>160</v>
+      </c>
+      <c r="G60" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="H60" s="27">
         <v>0</v>
       </c>
     </row>
@@ -9383,10 +11328,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BF44779-33F9-4341-9CD4-A7E90DBB807B}">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView zoomScale="212" zoomScaleNormal="212" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="A23" sqref="A23:XFD23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9405,7 +11350,7 @@
       <c r="C1" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="D1" s="51">
+      <c r="D1" s="50">
         <v>18</v>
       </c>
       <c r="E1" s="6">
@@ -9425,7 +11370,7 @@
       <c r="C2" s="39" t="s">
         <v>109</v>
       </c>
-      <c r="D2" s="51">
+      <c r="D2" s="50">
         <v>13</v>
       </c>
       <c r="E2" s="6">
@@ -9533,179 +11478,179 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" s="62" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="59">
+    <row r="9" spans="1:8" s="61" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="58">
         <v>45533</v>
       </c>
-      <c r="B9" s="59">
+      <c r="B9" s="58">
         <v>45580</v>
       </c>
-      <c r="C9" s="60" t="s">
+      <c r="C9" s="59" t="s">
         <v>50</v>
       </c>
-      <c r="D9" s="61">
-        <v>4.24</v>
-      </c>
-      <c r="E9" s="61">
+      <c r="D9" s="60">
+        <v>4.24</v>
+      </c>
+      <c r="E9" s="60">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="62" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="59">
+    <row r="10" spans="1:8" s="61" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="58">
         <v>45533</v>
       </c>
-      <c r="B10" s="59">
+      <c r="B10" s="58">
         <v>45581</v>
       </c>
-      <c r="C10" s="63" t="s">
+      <c r="C10" s="62" t="s">
         <v>51</v>
       </c>
-      <c r="D10" s="61">
+      <c r="D10" s="60">
         <v>5.09</v>
       </c>
-      <c r="E10" s="61">
+      <c r="E10" s="60">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="62" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="59">
+    <row r="11" spans="1:8" s="61" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="58">
         <v>45533</v>
       </c>
-      <c r="B11" s="59">
+      <c r="B11" s="58">
         <v>45582</v>
       </c>
-      <c r="C11" s="63" t="s">
+      <c r="C11" s="62" t="s">
         <v>52</v>
       </c>
-      <c r="D11" s="61">
+      <c r="D11" s="60">
         <v>5.09</v>
       </c>
-      <c r="E11" s="61">
+      <c r="E11" s="60">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="62" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="59">
+    <row r="12" spans="1:8" s="61" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="58">
         <v>45537</v>
       </c>
-      <c r="B12" s="59">
+      <c r="B12" s="58">
         <v>45583</v>
       </c>
-      <c r="C12" s="63" t="s">
+      <c r="C12" s="62" t="s">
         <v>53</v>
       </c>
-      <c r="D12" s="61">
-        <v>4.24</v>
-      </c>
-      <c r="E12" s="61">
+      <c r="D12" s="60">
+        <v>4.24</v>
+      </c>
+      <c r="E12" s="60">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:8" s="62" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="59">
+    <row r="13" spans="1:8" s="61" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="58">
         <v>45537</v>
       </c>
-      <c r="B13" s="59">
+      <c r="B13" s="58">
         <v>45584</v>
       </c>
-      <c r="C13" s="63" t="s">
+      <c r="C13" s="62" t="s">
         <v>54</v>
       </c>
-      <c r="D13" s="61">
+      <c r="D13" s="60">
         <v>5.09</v>
       </c>
-      <c r="E13" s="61">
+      <c r="E13" s="60">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:8" s="62" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="59">
+    <row r="14" spans="1:8" s="61" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="58">
         <v>45537</v>
       </c>
-      <c r="B14" s="59">
+      <c r="B14" s="58">
         <v>45585</v>
       </c>
-      <c r="C14" s="63" t="s">
+      <c r="C14" s="62" t="s">
         <v>55</v>
       </c>
-      <c r="D14" s="61">
+      <c r="D14" s="60">
         <v>5.09</v>
       </c>
-      <c r="E14" s="61">
+      <c r="E14" s="60">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:8" s="62" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="59">
+    <row r="15" spans="1:8" s="61" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="58">
         <v>45537</v>
       </c>
-      <c r="B15" s="59">
+      <c r="B15" s="58">
         <v>45586</v>
       </c>
-      <c r="C15" s="63" t="s">
+      <c r="C15" s="62" t="s">
         <v>56</v>
       </c>
-      <c r="D15" s="61">
-        <v>4.24</v>
-      </c>
-      <c r="E15" s="61">
+      <c r="D15" s="60">
+        <v>4.24</v>
+      </c>
+      <c r="E15" s="60">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:8" s="62" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="59">
+    <row r="16" spans="1:8" s="61" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="58">
         <v>45537</v>
       </c>
-      <c r="B16" s="59">
+      <c r="B16" s="58">
         <v>45587</v>
       </c>
-      <c r="C16" s="60" t="s">
+      <c r="C16" s="59" t="s">
         <v>57</v>
       </c>
-      <c r="D16" s="61">
+      <c r="D16" s="60">
         <v>5.09</v>
       </c>
-      <c r="E16" s="61">
+      <c r="E16" s="60">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" s="62" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="59">
+    <row r="17" spans="1:6" s="61" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="58">
         <v>45537</v>
       </c>
-      <c r="B17" s="59">
+      <c r="B17" s="58">
         <v>45588</v>
       </c>
-      <c r="C17" s="63" t="s">
+      <c r="C17" s="62" t="s">
         <v>58</v>
       </c>
-      <c r="D17" s="61">
+      <c r="D17" s="60">
         <v>5.09</v>
       </c>
-      <c r="E17" s="61">
+      <c r="E17" s="60">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:6" s="62" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="59">
+    <row r="18" spans="1:6" s="61" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="58">
         <v>45537</v>
       </c>
-      <c r="C18" s="63" t="s">
+      <c r="C18" s="62" t="s">
         <v>70</v>
       </c>
-      <c r="D18" s="61">
-        <v>4.24</v>
-      </c>
-      <c r="E18" s="61">
+      <c r="D18" s="60">
+        <v>4.24</v>
+      </c>
+      <c r="E18" s="60">
         <v>1</v>
       </c>
-      <c r="F18" s="61"/>
+      <c r="F18" s="60"/>
     </row>
     <row r="20" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A20" s="17">
         <v>45543</v>
       </c>
-      <c r="C20" s="63" t="s">
+      <c r="C20" s="62" t="s">
         <v>111</v>
       </c>
       <c r="D20" s="20">
@@ -9733,6 +11678,26 @@
         <v>6</v>
       </c>
       <c r="F22" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="4">
+        <v>45589</v>
+      </c>
+      <c r="B23" s="4">
+        <v>45591</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>432</v>
+      </c>
+      <c r="D23" s="5">
+        <v>105</v>
+      </c>
+      <c r="E23" s="6">
+        <v>6</v>
+      </c>
+      <c r="F23" s="6">
         <v>0</v>
       </c>
     </row>

--- a/00 - Spese..xlsx
+++ b/00 - Spese..xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\datasets\repoprivatafumetti\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCBC7D42-2C92-4214-A50E-00C10B736EE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCF6A277-1CDF-4DFF-91C7-5773A0A4EDF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1460" yWindow="0" windowWidth="38620" windowHeight="20880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-410" yWindow="240" windowWidth="38620" windowHeight="20880" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ordini" sheetId="9" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1015" uniqueCount="452">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1143" uniqueCount="500">
   <si>
     <t>Milo Manara Collection</t>
   </si>
@@ -1412,6 +1412,150 @@
   </si>
   <si>
     <t>Jinbocho Sisters</t>
+  </si>
+  <si>
+    <t>X-Men Forever</t>
+  </si>
+  <si>
+    <t>ol</t>
+  </si>
+  <si>
+    <t>Gli Incredibili X-Men</t>
+  </si>
+  <si>
+    <t>Wonder Woman #57: Wonder Woman #10</t>
+  </si>
+  <si>
+    <t>ULTIMATE X-MEN #2 10 COPY INCV PEACH MOMOKO DESIGN VAR</t>
+  </si>
+  <si>
+    <t>ULTIMATE X-MEN #1 10 COPY INCV PEACH MOMOKO DESIGN VAR</t>
+  </si>
+  <si>
+    <t>ULTIMATE X-MEN #3 10 COPY INCV PEACH MOMOKO DESIGN VAR</t>
+  </si>
+  <si>
+    <t>Topolino #3598 *Variant Cover Lucca #2*</t>
+  </si>
+  <si>
+    <t>ABSOLUTE SUPERMAN #2 CVR B MAHMUD ASRAR CARD STOCK VAR</t>
+  </si>
+  <si>
+    <t>BATMAN THE LONG HALLOWEEN THE LAST HALLOWEEN #3 (OF 10)CVR C ARTHUR ADAMS VAR</t>
+  </si>
+  <si>
+    <t>WOLVERINE REVENGE #5 (OF 5)</t>
+  </si>
+  <si>
+    <t>ULTIMATE SPIDER-MAN #12 PACO MEDINA WINTER HOLIDAY VAR</t>
+  </si>
+  <si>
+    <t>NIGHTWING #120 CVR B DAN PANOSIAN CARD STOCK VAR</t>
+  </si>
+  <si>
+    <t>CHALLENGERS OF THE UNKNOWN #1 (OF 6) CVR B TAURIN CLARKE CARD STOCK VAR</t>
+  </si>
+  <si>
+    <t>ULTIMATE SPIDER-MAN #12 JEEHYUNG LEE VAR</t>
+  </si>
+  <si>
+    <t>NIGHTWING #121 CVR B DAN PANOSIAN CARD STOCK VAR</t>
+  </si>
+  <si>
+    <t>NEW GODS #1 (OF 12) CVR A NIMIT MALAVIA</t>
+  </si>
+  <si>
+    <t>X-MEN #9 BENGUS MARVEL VS CAPCOM VAR</t>
+  </si>
+  <si>
+    <t>ULTIMATES #6 JOSEMARIA CASANOVAS CONNECT VAR</t>
+  </si>
+  <si>
+    <t>UNCANNY X-MEN #5 LUCIANO VECCHIO WOLVERINE VAR</t>
+  </si>
+  <si>
+    <t>ULTIMATE SPIDER-MAN #11 JOSEMARIA CASANOVAS CONNECT VAR</t>
+  </si>
+  <si>
+    <t>JSA #2 CVR A CULLY HAMNER</t>
+  </si>
+  <si>
+    <t>ULTIMATE UNIVERSE ONE YEAR IN #1 CASANOVAS CONNECT VAR</t>
+  </si>
+  <si>
+    <t>ROGUE THE SAVAGE LAND #1 (OF 5) RUSSELL DAUTERMAN VAR</t>
+  </si>
+  <si>
+    <t>ABSOLUTE BATMAN #3 CVR C GABRIELE DELL OTTO CARD STOCK VAR</t>
+  </si>
+  <si>
+    <t>ABSOLUTE BATMAN #3 CVR A NICK DRAGOTTA</t>
+  </si>
+  <si>
+    <t>MOON IS FOLLOWING US #4 (OF 10) CVR B JOHNSON &amp; SPICER (MR)</t>
+  </si>
+  <si>
+    <t>ABSOLUTE SUPERMAN #2 CVR F RAFAEL ALBUQUERQUE CARD STOCK VAR</t>
+  </si>
+  <si>
+    <t>BATMAN SUPERMAN WORLDS FINEST #34 CVR D DAVID NAKAYAMA ARTIST SPOTLIGHT CARD STOCK VAR</t>
+  </si>
+  <si>
+    <t>ABSOLUTE SUPERMAN #2 CVR A RAFA SANDOVAL</t>
+  </si>
+  <si>
+    <t>BATMAN THE LONG HALLOWEEN THE LAST HALLOWEEN #3 (OF 10) CVR A TIM SALE</t>
+  </si>
+  <si>
+    <t>WOLVERINE REVENGE RED BAND #5 (OF 5) (POLYBAG)</t>
+  </si>
+  <si>
+    <t>MAGIK #1 JEEHYUNG LEE VAR</t>
+  </si>
+  <si>
+    <t>BATMAN AND ROBIN #16 CVR C DAN PANOSIAN CARD STOCK VAR</t>
+  </si>
+  <si>
+    <t>CHALLENGERS OF THE UNKNOWN #1 (OF 6) CVR A MIKE DEODATO JR</t>
+  </si>
+  <si>
+    <t>PSYLOCKE #2 JEEHYUNG LEE VAR</t>
+  </si>
+  <si>
+    <t>SUPERMAN #20 CVR B DAN PANOSIAN CARD STOCK VAR</t>
+  </si>
+  <si>
+    <t>SABRETOOTH THE DEAD DONT TALK #1 (OF 5) FRANK MILLER VAR</t>
+  </si>
+  <si>
+    <t>TVA #1 (OF 5) HUMBERTO RAMOS MISS MINUTES VAR</t>
+  </si>
+  <si>
+    <t>ULTIMATE BLACK PANTHER #11 JOSEMARIA CASANOVAS CONNECT VAR</t>
+  </si>
+  <si>
+    <t>JSA #2 CVR C LEANDRO FERNANDEZ CARD STOCK VAR</t>
+  </si>
+  <si>
+    <t>DC FINEST DOOM PATROL THE WORLDS STRANGEST HEROES TP</t>
+  </si>
+  <si>
+    <t>ULTIMATE WOLVERINE #1 (OF 12) CASANOVAS CONNECT VAR</t>
+  </si>
+  <si>
+    <t>JSA #2 CVR B JEFF LEMIRE CARD STOCK VAR</t>
+  </si>
+  <si>
+    <t>EXCEPTIONAL X-MEN #4 MARGUERITE SAUVAGE WINTER HOLIDAY VAR</t>
+  </si>
+  <si>
+    <t>ABSOLUTE BATMAN #3 CVR B BECKY CLOONAN CARD STOCK VAR</t>
+  </si>
+  <si>
+    <t>ABSOLUTE SUPERMAN #2 CVR C MATEUS MANHANINI CARD STOCK VAR</t>
+  </si>
+  <si>
+    <t>MOON IS FOLLOWING US #4 (OF 10) CVR A ROSSMO &amp; SPICER (MR)</t>
   </si>
 </sst>
 </file>
@@ -1670,7 +1814,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1695,6 +1839,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1709,7 +1859,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1846,6 +1996,31 @@
     <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="16" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="16" fontId="16" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="16" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="18" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="18" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="18" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="17" fontId="18" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Collegamento ipertestuale" xfId="1" builtinId="8"/>
@@ -3849,16 +4024,17 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E65DA60-B872-4276-A9A4-C10BF2E9F5D2}">
-  <dimension ref="A1:H109"/>
+  <dimension ref="A1:H164"/>
   <sheetViews>
-    <sheetView topLeftCell="C91" zoomScale="244" zoomScaleNormal="244" workbookViewId="0">
-      <selection activeCell="E110" sqref="E110"/>
+    <sheetView tabSelected="1" topLeftCell="A145" zoomScale="244" zoomScaleNormal="244" workbookViewId="0">
+      <selection activeCell="A164" sqref="A164:XFD164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="3" max="3" width="12.90625" customWidth="1"/>
     <col min="4" max="4" width="20" customWidth="1"/>
-    <col min="5" max="5" width="66.26953125" customWidth="1"/>
+    <col min="5" max="5" width="97.54296875" customWidth="1"/>
     <col min="6" max="8" width="8.7265625" style="2"/>
   </cols>
   <sheetData>
@@ -5995,6 +6171,1152 @@
         <v>4.24</v>
       </c>
       <c r="H109" s="90"/>
+    </row>
+    <row r="110" spans="1:8" s="96" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C110" s="97">
+        <v>45597</v>
+      </c>
+      <c r="D110" s="98" t="s">
+        <v>34</v>
+      </c>
+      <c r="E110" s="99" t="s">
+        <v>457</v>
+      </c>
+      <c r="F110" s="100">
+        <v>12</v>
+      </c>
+      <c r="G110" s="100">
+        <v>1.2</v>
+      </c>
+      <c r="H110" s="100"/>
+    </row>
+    <row r="111" spans="1:8" s="96" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C111" s="97">
+        <v>45597</v>
+      </c>
+      <c r="D111" s="98" t="s">
+        <v>34</v>
+      </c>
+      <c r="E111" s="99" t="s">
+        <v>456</v>
+      </c>
+      <c r="F111" s="100">
+        <v>12</v>
+      </c>
+      <c r="G111" s="100">
+        <v>1.2</v>
+      </c>
+      <c r="H111" s="100"/>
+    </row>
+    <row r="112" spans="1:8" s="96" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C112" s="97">
+        <v>45597</v>
+      </c>
+      <c r="D112" s="98" t="s">
+        <v>34</v>
+      </c>
+      <c r="E112" s="99" t="s">
+        <v>458</v>
+      </c>
+      <c r="F112" s="100">
+        <v>12</v>
+      </c>
+      <c r="G112" s="100">
+        <v>1.2</v>
+      </c>
+      <c r="H112" s="100"/>
+    </row>
+    <row r="113" spans="2:8" s="93" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B113" s="92">
+        <v>45597</v>
+      </c>
+      <c r="C113" s="92">
+        <v>45627</v>
+      </c>
+      <c r="D113" s="98" t="s">
+        <v>14</v>
+      </c>
+      <c r="E113" s="95" t="s">
+        <v>460</v>
+      </c>
+      <c r="F113" s="94">
+        <v>5.09</v>
+      </c>
+      <c r="G113" s="94">
+        <v>1</v>
+      </c>
+      <c r="H113" s="94"/>
+    </row>
+    <row r="114" spans="2:8" s="93" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B114" s="92">
+        <v>45597</v>
+      </c>
+      <c r="C114" s="92">
+        <v>45627</v>
+      </c>
+      <c r="D114" s="98" t="s">
+        <v>14</v>
+      </c>
+      <c r="E114" s="95" t="s">
+        <v>461</v>
+      </c>
+      <c r="F114" s="94">
+        <v>4.24</v>
+      </c>
+      <c r="G114" s="94">
+        <v>1</v>
+      </c>
+      <c r="H114" s="94"/>
+    </row>
+    <row r="115" spans="2:8" s="93" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B115" s="92">
+        <v>45597</v>
+      </c>
+      <c r="C115" s="101">
+        <v>45658</v>
+      </c>
+      <c r="D115" s="98" t="s">
+        <v>34</v>
+      </c>
+      <c r="E115" s="99" t="s">
+        <v>462</v>
+      </c>
+      <c r="F115" s="94">
+        <v>4.24</v>
+      </c>
+      <c r="G115" s="94">
+        <v>1</v>
+      </c>
+      <c r="H115" s="94"/>
+    </row>
+    <row r="116" spans="2:8" s="93" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B116" s="92">
+        <v>45597</v>
+      </c>
+      <c r="C116" s="101">
+        <v>45658</v>
+      </c>
+      <c r="D116" s="98" t="s">
+        <v>34</v>
+      </c>
+      <c r="E116" s="95" t="s">
+        <v>463</v>
+      </c>
+      <c r="F116" s="94">
+        <v>4.24</v>
+      </c>
+      <c r="G116" s="94">
+        <v>1</v>
+      </c>
+      <c r="H116" s="94"/>
+    </row>
+    <row r="117" spans="2:8" s="93" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B117" s="92">
+        <v>45597</v>
+      </c>
+      <c r="C117" s="92">
+        <v>45627</v>
+      </c>
+      <c r="D117" s="98" t="s">
+        <v>14</v>
+      </c>
+      <c r="E117" s="95" t="s">
+        <v>464</v>
+      </c>
+      <c r="F117" s="94">
+        <v>5.09</v>
+      </c>
+      <c r="G117" s="94">
+        <v>1</v>
+      </c>
+      <c r="H117" s="94"/>
+    </row>
+    <row r="118" spans="2:8" s="96" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B118" s="97">
+        <v>45597</v>
+      </c>
+      <c r="C118" s="103">
+        <v>45658</v>
+      </c>
+      <c r="D118" s="98" t="s">
+        <v>14</v>
+      </c>
+      <c r="E118" s="99" t="s">
+        <v>465</v>
+      </c>
+      <c r="F118" s="100">
+        <v>4.24</v>
+      </c>
+      <c r="G118" s="100">
+        <v>1</v>
+      </c>
+      <c r="H118" s="100"/>
+    </row>
+    <row r="119" spans="2:8" s="93" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B119" s="92">
+        <v>45597</v>
+      </c>
+      <c r="C119" s="101">
+        <v>45658</v>
+      </c>
+      <c r="D119" s="98" t="s">
+        <v>34</v>
+      </c>
+      <c r="E119" s="95" t="s">
+        <v>466</v>
+      </c>
+      <c r="F119" s="94">
+        <v>4.24</v>
+      </c>
+      <c r="G119" s="94">
+        <v>1</v>
+      </c>
+      <c r="H119" s="94"/>
+    </row>
+    <row r="120" spans="2:8" s="96" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B120" s="97">
+        <v>45597</v>
+      </c>
+      <c r="C120" s="103">
+        <v>45658</v>
+      </c>
+      <c r="D120" s="98" t="s">
+        <v>14</v>
+      </c>
+      <c r="E120" s="99" t="s">
+        <v>467</v>
+      </c>
+      <c r="F120" s="100">
+        <v>5.09</v>
+      </c>
+      <c r="G120" s="100">
+        <v>1</v>
+      </c>
+      <c r="H120" s="100"/>
+    </row>
+    <row r="121" spans="2:8" s="93" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B121" s="92">
+        <v>45597</v>
+      </c>
+      <c r="C121" s="101">
+        <v>45658</v>
+      </c>
+      <c r="D121" s="98" t="s">
+        <v>14</v>
+      </c>
+      <c r="E121" s="95" t="s">
+        <v>468</v>
+      </c>
+      <c r="F121" s="94">
+        <v>3.39</v>
+      </c>
+      <c r="G121" s="94">
+        <v>1</v>
+      </c>
+      <c r="H121" s="94"/>
+    </row>
+    <row r="122" spans="2:8" s="93" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B122" s="92">
+        <v>45597</v>
+      </c>
+      <c r="C122" s="101">
+        <v>45658</v>
+      </c>
+      <c r="D122" s="98" t="s">
+        <v>34</v>
+      </c>
+      <c r="E122" s="95" t="s">
+        <v>469</v>
+      </c>
+      <c r="F122" s="94">
+        <v>4.24</v>
+      </c>
+      <c r="G122" s="94">
+        <v>1</v>
+      </c>
+      <c r="H122" s="94"/>
+    </row>
+    <row r="123" spans="2:8" s="96" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B123" s="97">
+        <v>45597</v>
+      </c>
+      <c r="C123" s="103">
+        <v>45597</v>
+      </c>
+      <c r="D123" s="98" t="s">
+        <v>34</v>
+      </c>
+      <c r="E123" s="99" t="s">
+        <v>470</v>
+      </c>
+      <c r="F123" s="100">
+        <v>4.24</v>
+      </c>
+      <c r="G123" s="100">
+        <v>1</v>
+      </c>
+      <c r="H123" s="100"/>
+    </row>
+    <row r="124" spans="2:8" s="93" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B124" s="92">
+        <v>45597</v>
+      </c>
+      <c r="C124" s="101">
+        <v>45658</v>
+      </c>
+      <c r="D124" s="98" t="s">
+        <v>34</v>
+      </c>
+      <c r="E124" s="95" t="s">
+        <v>336</v>
+      </c>
+      <c r="F124" s="94">
+        <v>4.24</v>
+      </c>
+      <c r="G124" s="94">
+        <v>1</v>
+      </c>
+      <c r="H124" s="94"/>
+    </row>
+    <row r="125" spans="2:8" s="93" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B125" s="92">
+        <v>45597</v>
+      </c>
+      <c r="C125" s="101">
+        <v>45627</v>
+      </c>
+      <c r="D125" s="98" t="s">
+        <v>34</v>
+      </c>
+      <c r="E125" s="95" t="s">
+        <v>471</v>
+      </c>
+      <c r="F125" s="94">
+        <v>4.24</v>
+      </c>
+      <c r="G125" s="94">
+        <v>1</v>
+      </c>
+      <c r="H125" s="94"/>
+    </row>
+    <row r="126" spans="2:8" s="93" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B126" s="92">
+        <v>45597</v>
+      </c>
+      <c r="C126" s="92">
+        <v>45627</v>
+      </c>
+      <c r="D126" s="98" t="s">
+        <v>34</v>
+      </c>
+      <c r="E126" s="95" t="s">
+        <v>472</v>
+      </c>
+      <c r="F126" s="94">
+        <v>4.24</v>
+      </c>
+      <c r="G126" s="94">
+        <v>1</v>
+      </c>
+      <c r="H126" s="94"/>
+    </row>
+    <row r="127" spans="2:8" s="98" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B127" s="105">
+        <v>45597</v>
+      </c>
+      <c r="C127" s="105">
+        <v>45627</v>
+      </c>
+      <c r="D127" s="98" t="s">
+        <v>14</v>
+      </c>
+      <c r="E127" s="99" t="s">
+        <v>473</v>
+      </c>
+      <c r="F127" s="107">
+        <v>3.39</v>
+      </c>
+      <c r="G127" s="107">
+        <v>1</v>
+      </c>
+      <c r="H127" s="107"/>
+    </row>
+    <row r="128" spans="2:8" s="98" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B128" s="105">
+        <v>45597</v>
+      </c>
+      <c r="C128" s="106">
+        <v>45658</v>
+      </c>
+      <c r="D128" s="98" t="s">
+        <v>34</v>
+      </c>
+      <c r="E128" s="99" t="s">
+        <v>474</v>
+      </c>
+      <c r="F128" s="107">
+        <v>5.09</v>
+      </c>
+      <c r="G128" s="107">
+        <v>1</v>
+      </c>
+      <c r="H128" s="107"/>
+    </row>
+    <row r="129" spans="2:8" s="98" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B129" s="105">
+        <v>45597</v>
+      </c>
+      <c r="C129" s="108">
+        <v>45689</v>
+      </c>
+      <c r="D129" s="98" t="s">
+        <v>34</v>
+      </c>
+      <c r="E129" s="99" t="s">
+        <v>475</v>
+      </c>
+      <c r="F129" s="107">
+        <v>4.24</v>
+      </c>
+      <c r="G129" s="107">
+        <v>1</v>
+      </c>
+      <c r="H129" s="107"/>
+    </row>
+    <row r="130" spans="2:8" s="93" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B130" s="92">
+        <v>45597</v>
+      </c>
+      <c r="C130" s="101">
+        <v>45658</v>
+      </c>
+      <c r="D130" s="98" t="s">
+        <v>14</v>
+      </c>
+      <c r="E130" s="95" t="s">
+        <v>476</v>
+      </c>
+      <c r="F130" s="94">
+        <v>5.09</v>
+      </c>
+      <c r="G130" s="94">
+        <v>1</v>
+      </c>
+      <c r="H130" s="94"/>
+    </row>
+    <row r="131" spans="2:8" s="96" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B131" s="97">
+        <v>45597</v>
+      </c>
+      <c r="C131" s="103">
+        <v>45658</v>
+      </c>
+      <c r="D131" s="98" t="s">
+        <v>14</v>
+      </c>
+      <c r="E131" s="99" t="s">
+        <v>477</v>
+      </c>
+      <c r="F131" s="100">
+        <v>4.24</v>
+      </c>
+      <c r="G131" s="100">
+        <v>1</v>
+      </c>
+      <c r="H131" s="100"/>
+    </row>
+    <row r="132" spans="2:8" s="93" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B132" s="92">
+        <v>45597</v>
+      </c>
+      <c r="C132" s="101">
+        <v>45658</v>
+      </c>
+      <c r="D132" s="98" t="s">
+        <v>76</v>
+      </c>
+      <c r="E132" s="95" t="s">
+        <v>478</v>
+      </c>
+      <c r="F132" s="94">
+        <v>3.39</v>
+      </c>
+      <c r="G132" s="94">
+        <v>1</v>
+      </c>
+      <c r="H132" s="94"/>
+    </row>
+    <row r="133" spans="2:8" s="96" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B133" s="97">
+        <v>45597</v>
+      </c>
+      <c r="C133" s="97">
+        <v>45658</v>
+      </c>
+      <c r="D133" s="98" t="s">
+        <v>14</v>
+      </c>
+      <c r="E133" s="99" t="s">
+        <v>479</v>
+      </c>
+      <c r="F133" s="100">
+        <v>5.09</v>
+      </c>
+      <c r="G133" s="100">
+        <v>1</v>
+      </c>
+      <c r="H133" s="100"/>
+    </row>
+    <row r="134" spans="2:8" s="93" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B134" s="92">
+        <v>45597</v>
+      </c>
+      <c r="C134" s="101">
+        <v>45658</v>
+      </c>
+      <c r="D134" s="98" t="s">
+        <v>14</v>
+      </c>
+      <c r="E134" s="102" t="s">
+        <v>480</v>
+      </c>
+      <c r="F134" s="94">
+        <v>4.24</v>
+      </c>
+      <c r="G134" s="94">
+        <v>1</v>
+      </c>
+      <c r="H134" s="94"/>
+    </row>
+    <row r="135" spans="2:8" s="96" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B135" s="97">
+        <v>45597</v>
+      </c>
+      <c r="C135" s="103">
+        <v>45627</v>
+      </c>
+      <c r="D135" s="98" t="s">
+        <v>14</v>
+      </c>
+      <c r="E135" s="99" t="s">
+        <v>481</v>
+      </c>
+      <c r="F135" s="100">
+        <v>4.24</v>
+      </c>
+      <c r="G135" s="100">
+        <v>1</v>
+      </c>
+      <c r="H135" s="100"/>
+    </row>
+    <row r="136" spans="2:8" s="96" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B136" s="97">
+        <v>45597</v>
+      </c>
+      <c r="C136" s="97">
+        <v>45627</v>
+      </c>
+      <c r="D136" s="98" t="s">
+        <v>14</v>
+      </c>
+      <c r="E136" s="99" t="s">
+        <v>482</v>
+      </c>
+      <c r="F136" s="100">
+        <v>4.24</v>
+      </c>
+      <c r="G136" s="100">
+        <v>1</v>
+      </c>
+      <c r="H136" s="100"/>
+    </row>
+    <row r="137" spans="2:8" s="93" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B137" s="92">
+        <v>45597</v>
+      </c>
+      <c r="C137" s="101">
+        <v>45658</v>
+      </c>
+      <c r="D137" s="98" t="s">
+        <v>14</v>
+      </c>
+      <c r="E137" s="95" t="s">
+        <v>483</v>
+      </c>
+      <c r="F137" s="94">
+        <v>5.09</v>
+      </c>
+      <c r="G137" s="94">
+        <v>1</v>
+      </c>
+      <c r="H137" s="94"/>
+    </row>
+    <row r="138" spans="2:8" s="93" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B138" s="92">
+        <v>45597</v>
+      </c>
+      <c r="C138" s="101">
+        <v>45658</v>
+      </c>
+      <c r="D138" s="98" t="s">
+        <v>14</v>
+      </c>
+      <c r="E138" s="95" t="s">
+        <v>484</v>
+      </c>
+      <c r="F138" s="94">
+        <v>4.24</v>
+      </c>
+      <c r="G138" s="94">
+        <v>1</v>
+      </c>
+      <c r="H138" s="94"/>
+    </row>
+    <row r="139" spans="2:8" s="93" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B139" s="92">
+        <v>45597</v>
+      </c>
+      <c r="C139" s="101">
+        <v>45658</v>
+      </c>
+      <c r="D139" s="98" t="s">
+        <v>14</v>
+      </c>
+      <c r="E139" s="95" t="s">
+        <v>485</v>
+      </c>
+      <c r="F139" s="94">
+        <v>5.09</v>
+      </c>
+      <c r="G139" s="94">
+        <v>1</v>
+      </c>
+      <c r="H139" s="94"/>
+    </row>
+    <row r="140" spans="2:8" s="96" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B140" s="97">
+        <v>45597</v>
+      </c>
+      <c r="C140" s="103">
+        <v>45658</v>
+      </c>
+      <c r="D140" s="98" t="s">
+        <v>14</v>
+      </c>
+      <c r="E140" s="99" t="s">
+        <v>486</v>
+      </c>
+      <c r="F140" s="100">
+        <v>3.39</v>
+      </c>
+      <c r="G140" s="100">
+        <v>1</v>
+      </c>
+      <c r="H140" s="100"/>
+    </row>
+    <row r="141" spans="2:8" s="93" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B141" s="92">
+        <v>45597</v>
+      </c>
+      <c r="C141" s="101">
+        <v>45658</v>
+      </c>
+      <c r="D141" s="98" t="s">
+        <v>34</v>
+      </c>
+      <c r="E141" s="95" t="s">
+        <v>487</v>
+      </c>
+      <c r="F141" s="94">
+        <v>3.39</v>
+      </c>
+      <c r="G141" s="94">
+        <v>1</v>
+      </c>
+      <c r="H141" s="94"/>
+    </row>
+    <row r="142" spans="2:8" s="96" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B142" s="97">
+        <v>45597</v>
+      </c>
+      <c r="C142" s="97">
+        <v>45627</v>
+      </c>
+      <c r="D142" s="98" t="s">
+        <v>14</v>
+      </c>
+      <c r="E142" s="99" t="s">
+        <v>488</v>
+      </c>
+      <c r="F142" s="100">
+        <v>5.09</v>
+      </c>
+      <c r="G142" s="100">
+        <v>1</v>
+      </c>
+      <c r="H142" s="100"/>
+    </row>
+    <row r="143" spans="2:8" s="93" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B143" s="92">
+        <v>45597</v>
+      </c>
+      <c r="C143" s="101">
+        <v>45658</v>
+      </c>
+      <c r="D143" s="98" t="s">
+        <v>34</v>
+      </c>
+      <c r="E143" s="95" t="s">
+        <v>489</v>
+      </c>
+      <c r="F143" s="94">
+        <v>4.24</v>
+      </c>
+      <c r="G143" s="94">
+        <v>1</v>
+      </c>
+      <c r="H143" s="94"/>
+    </row>
+    <row r="144" spans="2:8" s="96" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B144" s="97">
+        <v>45597</v>
+      </c>
+      <c r="C144" s="103">
+        <v>45658</v>
+      </c>
+      <c r="D144" s="98" t="s">
+        <v>34</v>
+      </c>
+      <c r="E144" s="99" t="s">
+        <v>490</v>
+      </c>
+      <c r="F144" s="100">
+        <v>4.24</v>
+      </c>
+      <c r="G144" s="100">
+        <v>1</v>
+      </c>
+      <c r="H144" s="100"/>
+    </row>
+    <row r="145" spans="2:8" s="93" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B145" s="92">
+        <v>45292</v>
+      </c>
+      <c r="C145" s="101">
+        <v>45658</v>
+      </c>
+      <c r="D145" s="98" t="s">
+        <v>34</v>
+      </c>
+      <c r="E145" s="95" t="s">
+        <v>491</v>
+      </c>
+      <c r="F145" s="94">
+        <v>4.24</v>
+      </c>
+      <c r="G145" s="94">
+        <v>1</v>
+      </c>
+      <c r="H145" s="94"/>
+    </row>
+    <row r="146" spans="2:8" s="98" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B146" s="105">
+        <v>45597</v>
+      </c>
+      <c r="C146" s="105">
+        <v>45627</v>
+      </c>
+      <c r="D146" s="98" t="s">
+        <v>14</v>
+      </c>
+      <c r="E146" s="95" t="s">
+        <v>492</v>
+      </c>
+      <c r="F146" s="107">
+        <v>4.24</v>
+      </c>
+      <c r="G146" s="107">
+        <v>1</v>
+      </c>
+      <c r="H146" s="107"/>
+    </row>
+    <row r="147" spans="2:8" s="93" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B147" s="92">
+        <v>45597</v>
+      </c>
+      <c r="C147" s="101">
+        <v>45689</v>
+      </c>
+      <c r="D147" s="98" t="s">
+        <v>34</v>
+      </c>
+      <c r="E147" s="95" t="s">
+        <v>494</v>
+      </c>
+      <c r="F147" s="94">
+        <v>5.09</v>
+      </c>
+      <c r="G147" s="94">
+        <v>1</v>
+      </c>
+      <c r="H147" s="94"/>
+    </row>
+    <row r="148" spans="2:8" s="93" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B148" s="92">
+        <v>45597</v>
+      </c>
+      <c r="C148" s="101">
+        <v>45627</v>
+      </c>
+      <c r="D148" s="98" t="s">
+        <v>14</v>
+      </c>
+      <c r="E148" s="95" t="s">
+        <v>495</v>
+      </c>
+      <c r="F148" s="94">
+        <v>4.24</v>
+      </c>
+      <c r="G148" s="94">
+        <v>1</v>
+      </c>
+      <c r="H148" s="94"/>
+    </row>
+    <row r="149" spans="2:8" s="96" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B149" s="97">
+        <v>45597</v>
+      </c>
+      <c r="C149" s="103">
+        <v>45658</v>
+      </c>
+      <c r="D149" s="98" t="s">
+        <v>34</v>
+      </c>
+      <c r="E149" s="99" t="s">
+        <v>496</v>
+      </c>
+      <c r="F149" s="100">
+        <v>3.39</v>
+      </c>
+      <c r="G149" s="100">
+        <v>1</v>
+      </c>
+      <c r="H149" s="100"/>
+    </row>
+    <row r="150" spans="2:8" s="93" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B150" s="92">
+        <v>45597</v>
+      </c>
+      <c r="C150" s="101">
+        <v>45658</v>
+      </c>
+      <c r="D150" s="98" t="s">
+        <v>14</v>
+      </c>
+      <c r="E150" s="95" t="s">
+        <v>497</v>
+      </c>
+      <c r="F150" s="94">
+        <v>5.09</v>
+      </c>
+      <c r="G150" s="94">
+        <v>1</v>
+      </c>
+      <c r="H150" s="94"/>
+    </row>
+    <row r="151" spans="2:8" s="93" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B151" s="92">
+        <v>45597</v>
+      </c>
+      <c r="C151" s="101">
+        <v>45627</v>
+      </c>
+      <c r="D151" s="98" t="s">
+        <v>14</v>
+      </c>
+      <c r="E151" s="95" t="s">
+        <v>498</v>
+      </c>
+      <c r="F151" s="94">
+        <v>5.09</v>
+      </c>
+      <c r="G151" s="94">
+        <v>1</v>
+      </c>
+      <c r="H151" s="94"/>
+    </row>
+    <row r="152" spans="2:8" s="98" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B152" s="105">
+        <v>45597</v>
+      </c>
+      <c r="C152" s="106">
+        <v>45658</v>
+      </c>
+      <c r="D152" s="98" t="s">
+        <v>76</v>
+      </c>
+      <c r="E152" s="99" t="s">
+        <v>499</v>
+      </c>
+      <c r="F152" s="107">
+        <v>3.39</v>
+      </c>
+      <c r="G152" s="107">
+        <v>1</v>
+      </c>
+      <c r="H152" s="107"/>
+    </row>
+    <row r="153" spans="2:8" s="96" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B153" s="97">
+        <v>45597</v>
+      </c>
+      <c r="C153" s="103">
+        <v>45658</v>
+      </c>
+      <c r="D153" s="98" t="s">
+        <v>34</v>
+      </c>
+      <c r="E153" s="99" t="s">
+        <v>277</v>
+      </c>
+      <c r="F153" s="100">
+        <v>5.09</v>
+      </c>
+      <c r="G153" s="100">
+        <v>1</v>
+      </c>
+      <c r="H153" s="100"/>
+    </row>
+    <row r="154" spans="2:8" s="93" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B154" s="92">
+        <v>45597</v>
+      </c>
+      <c r="C154" s="101">
+        <v>45658</v>
+      </c>
+      <c r="D154" s="98" t="s">
+        <v>34</v>
+      </c>
+      <c r="E154" s="95" t="s">
+        <v>278</v>
+      </c>
+      <c r="F154" s="94">
+        <v>5.09</v>
+      </c>
+      <c r="G154" s="94">
+        <v>1</v>
+      </c>
+      <c r="H154" s="94"/>
+    </row>
+    <row r="155" spans="2:8" s="93" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B155" s="92">
+        <v>45597</v>
+      </c>
+      <c r="C155" s="101">
+        <v>45658</v>
+      </c>
+      <c r="D155" s="98" t="s">
+        <v>34</v>
+      </c>
+      <c r="E155" s="95" t="s">
+        <v>279</v>
+      </c>
+      <c r="F155" s="94">
+        <v>4.24</v>
+      </c>
+      <c r="G155" s="94">
+        <v>1</v>
+      </c>
+      <c r="H155" s="94"/>
+    </row>
+    <row r="156" spans="2:8" s="93" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B156" s="92">
+        <v>45597</v>
+      </c>
+      <c r="C156" s="101">
+        <v>45658</v>
+      </c>
+      <c r="D156" s="98" t="s">
+        <v>34</v>
+      </c>
+      <c r="E156" s="95" t="s">
+        <v>280</v>
+      </c>
+      <c r="F156" s="94">
+        <v>3.39</v>
+      </c>
+      <c r="G156" s="94">
+        <v>1</v>
+      </c>
+      <c r="H156" s="94"/>
+    </row>
+    <row r="157" spans="2:8" s="93" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B157" s="92">
+        <v>45597</v>
+      </c>
+      <c r="C157" s="101">
+        <v>45658</v>
+      </c>
+      <c r="D157" s="98" t="s">
+        <v>34</v>
+      </c>
+      <c r="E157" s="95" t="s">
+        <v>281</v>
+      </c>
+      <c r="F157" s="94">
+        <v>4.24</v>
+      </c>
+      <c r="G157" s="94">
+        <v>1</v>
+      </c>
+      <c r="H157" s="94"/>
+    </row>
+    <row r="158" spans="2:8" s="93" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B158" s="92">
+        <v>45597</v>
+      </c>
+      <c r="C158" s="101">
+        <v>45658</v>
+      </c>
+      <c r="D158" s="98" t="s">
+        <v>34</v>
+      </c>
+      <c r="E158" s="95" t="s">
+        <v>282</v>
+      </c>
+      <c r="F158" s="94">
+        <v>4.24</v>
+      </c>
+      <c r="G158" s="94">
+        <v>1</v>
+      </c>
+      <c r="H158" s="94"/>
+    </row>
+    <row r="159" spans="2:8" s="93" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B159" s="92">
+        <v>45597</v>
+      </c>
+      <c r="C159" s="101">
+        <v>45658</v>
+      </c>
+      <c r="D159" s="98" t="s">
+        <v>34</v>
+      </c>
+      <c r="E159" s="95" t="s">
+        <v>283</v>
+      </c>
+      <c r="F159" s="94">
+        <v>5.09</v>
+      </c>
+      <c r="G159" s="94">
+        <v>1</v>
+      </c>
+      <c r="H159" s="94"/>
+    </row>
+    <row r="160" spans="2:8" s="96" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B160" s="97">
+        <v>45597</v>
+      </c>
+      <c r="C160" s="103">
+        <v>45658</v>
+      </c>
+      <c r="D160" s="98" t="s">
+        <v>34</v>
+      </c>
+      <c r="E160" s="99" t="s">
+        <v>284</v>
+      </c>
+      <c r="F160" s="100">
+        <v>5.09</v>
+      </c>
+      <c r="G160" s="100">
+        <v>1</v>
+      </c>
+      <c r="H160" s="100"/>
+    </row>
+    <row r="161" spans="2:8" s="98" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B161" s="105">
+        <v>45597</v>
+      </c>
+      <c r="C161" s="106">
+        <v>45658</v>
+      </c>
+      <c r="D161" s="98" t="s">
+        <v>34</v>
+      </c>
+      <c r="E161" s="99" t="s">
+        <v>285</v>
+      </c>
+      <c r="F161" s="107">
+        <v>5.09</v>
+      </c>
+      <c r="G161" s="107">
+        <v>1</v>
+      </c>
+      <c r="H161" s="107"/>
+    </row>
+    <row r="162" spans="2:8" s="98" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B162" s="105">
+        <v>45597</v>
+      </c>
+      <c r="C162" s="106">
+        <v>45658</v>
+      </c>
+      <c r="D162" s="98" t="s">
+        <v>34</v>
+      </c>
+      <c r="E162" s="99" t="s">
+        <v>286</v>
+      </c>
+      <c r="F162" s="107">
+        <v>4.24</v>
+      </c>
+      <c r="G162" s="107">
+        <v>1</v>
+      </c>
+      <c r="H162" s="107"/>
+    </row>
+    <row r="163" spans="2:8" s="93" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B163" s="92">
+        <v>45597</v>
+      </c>
+      <c r="C163" s="101">
+        <v>45658</v>
+      </c>
+      <c r="D163" s="98" t="s">
+        <v>34</v>
+      </c>
+      <c r="E163" s="95" t="s">
+        <v>275</v>
+      </c>
+      <c r="F163" s="94">
+        <v>4.24</v>
+      </c>
+      <c r="G163" s="94">
+        <v>1</v>
+      </c>
+      <c r="H163" s="94"/>
+    </row>
+    <row r="164" spans="2:8" s="93" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B164" s="92">
+        <v>45597</v>
+      </c>
+      <c r="C164" s="101">
+        <v>45658</v>
+      </c>
+      <c r="D164" s="98" t="s">
+        <v>34</v>
+      </c>
+      <c r="E164" s="95" t="s">
+        <v>276</v>
+      </c>
+      <c r="F164" s="94">
+        <v>4.24</v>
+      </c>
+      <c r="G164" s="94">
+        <v>1</v>
+      </c>
+      <c r="H164" s="94"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -6008,8 +7330,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3F7DA5E-6146-475C-B9D2-29274C996FAD}">
   <dimension ref="A5:A156"/>
   <sheetViews>
-    <sheetView topLeftCell="A144" zoomScale="216" zoomScaleNormal="216" workbookViewId="0">
-      <selection activeCell="A152" sqref="A152"/>
+    <sheetView topLeftCell="A120" zoomScale="216" zoomScaleNormal="216" workbookViewId="0">
+      <selection activeCell="A120" sqref="A120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6589,10 +7911,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29F7F567-3378-4135-B107-67687C5CCB7F}">
-  <dimension ref="A4:G89"/>
+  <dimension ref="A4:H93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" zoomScale="188" zoomScaleNormal="188" workbookViewId="0">
-      <selection activeCell="B93" sqref="B93"/>
+    <sheetView topLeftCell="A71" zoomScale="188" zoomScaleNormal="188" workbookViewId="0">
+      <selection activeCell="D98" sqref="D98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8146,7 +9468,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
         <v>45592</v>
       </c>
@@ -8166,7 +9488,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
         <v>45592</v>
       </c>
@@ -8186,7 +9508,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
         <v>45593</v>
       </c>
@@ -8206,7 +9528,7 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
         <v>45593</v>
       </c>
@@ -8226,7 +9548,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
         <v>45593</v>
       </c>
@@ -8246,7 +9568,7 @@
         <v>4.24</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
         <v>45593</v>
       </c>
@@ -8266,7 +9588,7 @@
         <v>4.24</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
         <v>45594</v>
       </c>
@@ -8286,7 +9608,7 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
         <v>45594</v>
       </c>
@@ -8306,7 +9628,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
         <v>45594</v>
       </c>
@@ -8324,6 +9646,89 @@
       </c>
       <c r="F89" s="2">
         <v>3.39</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A90" s="1">
+        <v>45595</v>
+      </c>
+      <c r="B90" t="s">
+        <v>15</v>
+      </c>
+      <c r="C90" t="s">
+        <v>263</v>
+      </c>
+      <c r="D90" t="s">
+        <v>317</v>
+      </c>
+      <c r="E90">
+        <v>8</v>
+      </c>
+      <c r="F90" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A91" s="1">
+        <v>45595</v>
+      </c>
+      <c r="B91" t="s">
+        <v>117</v>
+      </c>
+      <c r="C91" t="s">
+        <v>263</v>
+      </c>
+      <c r="D91" t="s">
+        <v>318</v>
+      </c>
+      <c r="E91">
+        <v>11</v>
+      </c>
+      <c r="F91" s="2">
+        <v>0</v>
+      </c>
+      <c r="H91" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A92" s="1">
+        <v>45596</v>
+      </c>
+      <c r="B92" t="s">
+        <v>15</v>
+      </c>
+      <c r="C92" t="s">
+        <v>115</v>
+      </c>
+      <c r="D92" t="s">
+        <v>452</v>
+      </c>
+      <c r="E92">
+        <v>5</v>
+      </c>
+      <c r="F92" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A93" s="1">
+        <v>45596</v>
+      </c>
+      <c r="B93" t="s">
+        <v>15</v>
+      </c>
+      <c r="C93" t="s">
+        <v>115</v>
+      </c>
+      <c r="D93" t="s">
+        <v>454</v>
+      </c>
+      <c r="E93">
+        <v>37</v>
+      </c>
+      <c r="F93" s="2">
+        <v>6.9</v>
       </c>
     </row>
   </sheetData>
@@ -9431,15 +10836,16 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0EE8F0E-AD95-4E9A-9AFF-CFE841047EAD}">
-  <dimension ref="A4:H8"/>
+  <dimension ref="A4:H9"/>
   <sheetViews>
-    <sheetView zoomScale="252" zoomScaleNormal="252" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView topLeftCell="A4" zoomScale="252" zoomScaleNormal="252" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="23.81640625" customWidth="1"/>
+    <col min="2" max="2" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41.54296875" customWidth="1"/>
     <col min="5" max="6" width="8.7265625" style="2"/>
     <col min="7" max="7" width="19.81640625" customWidth="1"/>
     <col min="8" max="8" width="8.7265625" style="2"/>
@@ -9562,6 +10968,32 @@
       </c>
       <c r="H8" s="27">
         <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="98" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="105">
+        <v>45597</v>
+      </c>
+      <c r="B9" s="106">
+        <v>45597</v>
+      </c>
+      <c r="C9" s="104" t="s">
+        <v>459</v>
+      </c>
+      <c r="D9" s="98">
+        <v>3598</v>
+      </c>
+      <c r="E9" s="107">
+        <v>7.6</v>
+      </c>
+      <c r="F9" s="107" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="98" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" s="107">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -11328,14 +12760,15 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BF44779-33F9-4341-9CD4-A7E90DBB807B}">
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView zoomScale="212" zoomScaleNormal="212" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:XFD23"/>
+      <selection activeCell="A25" sqref="A25:XFD25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="2" max="2" width="10.453125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="97" customWidth="1"/>
     <col min="5" max="6" width="8.7265625" style="2"/>
   </cols>
@@ -11701,6 +13134,46 @@
         <v>0</v>
       </c>
     </row>
+    <row r="24" spans="1:6" s="93" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="92">
+        <v>45597</v>
+      </c>
+      <c r="B24" s="92">
+        <v>45627</v>
+      </c>
+      <c r="C24" s="93" t="s">
+        <v>455</v>
+      </c>
+      <c r="D24" s="93">
+        <v>10</v>
+      </c>
+      <c r="E24" s="94">
+        <v>2.85</v>
+      </c>
+      <c r="F24" s="94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" s="93" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="92">
+        <v>45597</v>
+      </c>
+      <c r="B25" s="101">
+        <v>45717</v>
+      </c>
+      <c r="C25" s="95" t="s">
+        <v>493</v>
+      </c>
+      <c r="D25" s="93">
+        <v>1</v>
+      </c>
+      <c r="E25" s="94">
+        <v>32.29</v>
+      </c>
+      <c r="F25" s="94">
+        <v>3.23</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/00 - Spese..xlsx
+++ b/00 - Spese..xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\datasets\repoprivatafumetti\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB9FEF5C-C8CE-4E12-9CCE-BEE604395C19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC2A47B1-D91C-4DB3-A5C7-1E4CA85F6308}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1280" yWindow="1550" windowWidth="38620" windowHeight="19040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2970" yWindow="1190" windowWidth="38620" windowHeight="19040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ordini" sheetId="9" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1201" uniqueCount="506">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1253" uniqueCount="512">
   <si>
     <t>Milo Manara Collection</t>
   </si>
@@ -1575,6 +1575,24 @@
   <si>
     <t>Tex Classic</t>
   </si>
+  <si>
+    <t>Labor Comics</t>
+  </si>
+  <si>
+    <t>Killraven</t>
+  </si>
+  <si>
+    <t>Nuvole a nord-ovest</t>
+  </si>
+  <si>
+    <t>Vino di zucca</t>
+  </si>
+  <si>
+    <t>Smoking behind</t>
+  </si>
+  <si>
+    <t>Blood hunt</t>
+  </si>
 </sst>
 </file>
 
@@ -1584,7 +1602,7 @@
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
     <numFmt numFmtId="165" formatCode="#,##0.00\ _€"/>
   </numFmts>
-  <fonts count="36" x14ac:knownFonts="1">
+  <fonts count="37" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1846,6 +1864,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -1892,7 +1917,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="122">
+  <cellXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2073,6 +2098,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="16" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Collegamento ipertestuale" xfId="1" builtinId="8"/>
@@ -7911,10 +7939,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29F7F567-3378-4135-B107-67687C5CCB7F}">
-  <dimension ref="A4:G108"/>
+  <dimension ref="A4:G115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A87" zoomScale="188" zoomScaleNormal="188" workbookViewId="0">
-      <selection activeCell="G108" sqref="G108"/>
+    <sheetView tabSelected="1" topLeftCell="A98" zoomScale="188" zoomScaleNormal="188" workbookViewId="0">
+      <selection activeCell="B118" sqref="B118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9966,6 +9994,146 @@
       </c>
       <c r="F108" s="2">
         <v>3.9</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A109" s="1">
+        <v>45604</v>
+      </c>
+      <c r="B109" t="s">
+        <v>20</v>
+      </c>
+      <c r="C109" t="s">
+        <v>506</v>
+      </c>
+      <c r="D109" t="s">
+        <v>507</v>
+      </c>
+      <c r="E109">
+        <v>1</v>
+      </c>
+      <c r="F109" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A110" s="1">
+        <v>45604</v>
+      </c>
+      <c r="B110" t="s">
+        <v>5</v>
+      </c>
+      <c r="C110" t="s">
+        <v>5</v>
+      </c>
+      <c r="D110" t="s">
+        <v>165</v>
+      </c>
+      <c r="E110">
+        <v>192</v>
+      </c>
+      <c r="F110" s="2">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A111" s="1">
+        <v>45606</v>
+      </c>
+      <c r="B111" t="s">
+        <v>269</v>
+      </c>
+      <c r="C111" t="s">
+        <v>30</v>
+      </c>
+      <c r="D111" t="s">
+        <v>508</v>
+      </c>
+      <c r="E111">
+        <v>7</v>
+      </c>
+      <c r="F111" s="2">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A112" s="1">
+        <v>45606</v>
+      </c>
+      <c r="B112" t="s">
+        <v>269</v>
+      </c>
+      <c r="C112" t="s">
+        <v>80</v>
+      </c>
+      <c r="D112" t="s">
+        <v>509</v>
+      </c>
+      <c r="E112">
+        <v>8</v>
+      </c>
+      <c r="F112" s="2">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A113" s="1">
+        <v>45606</v>
+      </c>
+      <c r="B113" t="s">
+        <v>5</v>
+      </c>
+      <c r="C113" t="s">
+        <v>5</v>
+      </c>
+      <c r="D113" t="s">
+        <v>165</v>
+      </c>
+      <c r="E113">
+        <v>193</v>
+      </c>
+      <c r="F113" s="2">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A114" s="1">
+        <v>45606</v>
+      </c>
+      <c r="B114" t="s">
+        <v>263</v>
+      </c>
+      <c r="C114" t="s">
+        <v>286</v>
+      </c>
+      <c r="D114" t="s">
+        <v>510</v>
+      </c>
+      <c r="E114">
+        <v>2</v>
+      </c>
+      <c r="F114" s="2">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A115" s="1">
+        <v>45606</v>
+      </c>
+      <c r="B115" t="s">
+        <v>20</v>
+      </c>
+      <c r="C115" t="s">
+        <v>111</v>
+      </c>
+      <c r="D115" t="s">
+        <v>511</v>
+      </c>
+      <c r="E115">
+        <v>2</v>
+      </c>
+      <c r="F115" s="2">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -10591,10 +10759,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A4:E37"/>
+  <dimension ref="A4:E42"/>
   <sheetViews>
     <sheetView topLeftCell="A28" zoomScale="236" zoomScaleNormal="236" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11157,9 +11325,94 @@
         <v>44</v>
       </c>
       <c r="D37" t="s">
-        <v>300</v>
+        <v>6</v>
       </c>
       <c r="E37" s="2">
+        <v>12.99</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A38" s="1">
+        <v>45605</v>
+      </c>
+      <c r="B38" t="s">
+        <v>165</v>
+      </c>
+      <c r="C38">
+        <v>200</v>
+      </c>
+      <c r="D38" t="s">
+        <v>5</v>
+      </c>
+      <c r="E38" s="2">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A39" s="1">
+        <v>45605</v>
+      </c>
+      <c r="B39" t="s">
+        <v>256</v>
+      </c>
+      <c r="C39">
+        <v>763</v>
+      </c>
+      <c r="D39" t="s">
+        <v>5</v>
+      </c>
+      <c r="E39" s="2">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A40" s="1">
+        <v>45605</v>
+      </c>
+      <c r="B40" t="s">
+        <v>297</v>
+      </c>
+      <c r="C40">
+        <v>51</v>
+      </c>
+      <c r="D40" t="s">
+        <v>5</v>
+      </c>
+      <c r="E40" s="2">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A41" s="1">
+        <v>45605</v>
+      </c>
+      <c r="B41" t="s">
+        <v>294</v>
+      </c>
+      <c r="C41">
+        <v>769</v>
+      </c>
+      <c r="D41" t="s">
+        <v>5</v>
+      </c>
+      <c r="E41" s="2">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A42" s="1">
+        <v>45597</v>
+      </c>
+      <c r="B42" t="s">
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <v>45</v>
+      </c>
+      <c r="D42" t="s">
+        <v>6</v>
+      </c>
+      <c r="E42" s="2">
         <v>12.99</v>
       </c>
     </row>
@@ -11365,10 +11618,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71EB8A3E-5AD9-4D3B-8024-55CC93268E2E}">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView zoomScale="196" zoomScaleNormal="196" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11761,6 +12014,30 @@
       </c>
       <c r="H19" s="6"/>
     </row>
+    <row r="20" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="4">
+        <v>45603</v>
+      </c>
+      <c r="B20" s="4">
+        <v>45605</v>
+      </c>
+      <c r="C20" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="43">
+        <v>16</v>
+      </c>
+      <c r="E20" s="46">
+        <v>8</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H20" s="6"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11768,10 +12045,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42E6368F-0B3B-4DF8-8E74-C3A4A647A232}">
-  <dimension ref="A2:H62"/>
+  <dimension ref="A2:H68"/>
   <sheetViews>
-    <sheetView topLeftCell="A51" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="G62" sqref="G62"/>
+    <sheetView topLeftCell="A46" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="F70" sqref="F70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -13244,6 +13521,162 @@
         <v>10</v>
       </c>
       <c r="H62" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="4">
+        <v>45605</v>
+      </c>
+      <c r="B63" s="4">
+        <v>45605</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="D63" s="5">
+        <v>7</v>
+      </c>
+      <c r="E63" s="6">
+        <v>3</v>
+      </c>
+      <c r="F63" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G63" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H63" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" s="24" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="22">
+        <v>45603</v>
+      </c>
+      <c r="B64" s="22">
+        <v>45605</v>
+      </c>
+      <c r="C64" s="23" t="s">
+        <v>306</v>
+      </c>
+      <c r="D64" s="24">
+        <v>2</v>
+      </c>
+      <c r="E64" s="25">
+        <v>5</v>
+      </c>
+      <c r="F64" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="G64" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="H64" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" s="24" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="22">
+        <v>45603</v>
+      </c>
+      <c r="B65" s="22">
+        <v>45605</v>
+      </c>
+      <c r="C65" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="D65" s="24">
+        <v>32</v>
+      </c>
+      <c r="E65" s="25">
+        <v>5</v>
+      </c>
+      <c r="F65" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="G65" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="H65" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" s="24" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="22">
+        <v>45603</v>
+      </c>
+      <c r="B66" s="22">
+        <v>45605</v>
+      </c>
+      <c r="C66" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="D66" s="24">
+        <v>54</v>
+      </c>
+      <c r="E66" s="25">
+        <v>6.9</v>
+      </c>
+      <c r="F66" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="G66" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="H66" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" s="124" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="122">
+        <v>45603</v>
+      </c>
+      <c r="B67" s="122">
+        <v>45605</v>
+      </c>
+      <c r="C67" s="23" t="s">
+        <v>303</v>
+      </c>
+      <c r="D67" s="24">
+        <v>106</v>
+      </c>
+      <c r="E67" s="123">
+        <v>6</v>
+      </c>
+      <c r="F67" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="G67" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="H67" s="123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="4">
+        <v>45603</v>
+      </c>
+      <c r="B68" s="4">
+        <v>45605</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D68" s="5">
+        <v>398</v>
+      </c>
+      <c r="E68" s="6">
+        <v>8.99</v>
+      </c>
+      <c r="F68" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G68" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H68" s="6">
         <v>0</v>
       </c>
     </row>
